--- a/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,11 +413,6 @@
           <t>correspond_authors</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -425,7 +420,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -434,32 +429,27 @@
         </is>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Investigating the Immunogenic Cell Death-Dependent Subtypes and Prognostic Signature of Triple-Negative Breast Cancer</t>
+          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
         </is>
       </c>
     </row>
@@ -469,7 +459,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -478,32 +468,27 @@
         </is>
       </c>
       <c r="F3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Identification of Key Factors in Cartilage Tissue During the Progression of Osteoarthritis Using a Non-targeted Metabolomics Strategy</t>
+          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
         </is>
       </c>
     </row>
@@ -513,41 +498,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Measurement of Energy Expenditure by Indirect Calorimetry with a Whole-Room Calorimeter</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
@@ -557,41 +537,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F5">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Leming Shi, Yuanting Zheng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Reference Materials for Improving Reliability of Multiomics Profiling</t>
+          <t>Hao Cheng, Bin Li</t>
         </is>
       </c>
     </row>
@@ -599,18 +574,28 @@
       <c r="A6">
         <v>2024</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>125–137</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F6">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -620,22 +605,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>The Critical Role of the Shroom Family Proteins in Morphogenesis, Organogenesis and Disease</t>
+          <t>Bi Chen, Bing Gu</t>
         </is>
       </c>
     </row>
@@ -645,41 +625,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F7">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Multimodal Omics Approaches to Aging and Age-Related Diseases</t>
+          <t>Jie Chen</t>
         </is>
       </c>
     </row>
@@ -689,41 +664,36 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F8">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wei Sheng, Guoying Huang</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Next-Generation Sequencing-Based Copy Number Variation Analysis in Chinese Patients with Primary Ciliary Dyskinesia Revealed Novel &lt;i&gt;DNAH5&lt;/i&gt; Copy Number Variations</t>
+          <t>Yan Zheng, Zhonghan Sun</t>
         </is>
       </c>
     </row>
@@ -733,7 +703,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -742,52 +712,47 @@
         </is>
       </c>
       <c r="F9">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>A Heterozygous &lt;i&gt;Phospholamban&lt;/i&gt; Variant (p.R14del) Leads to Left Ventricular Involvement and Heart Failure Phenotypes in Arrhythmogenic Right Ventricular Cardiomyopathy</t>
+          <t>Yong Zhang</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>549–564</t>
+          <t>91–108</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -796,312 +761,272 @@
         </is>
       </c>
       <c r="F10">
-        <v>1335</v>
+        <v>169</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>A Noninvasive Approach to Evaluate Tumor Immune Microenvironment and Predict Outcomes in Hepatocellular Carcinoma</t>
+          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>586–596</t>
+          <t>146–157</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F11">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Guifen Yang, Longjiang Zhang</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence Empowered Nuclear Medicine and Molecular Imaging in Cardiology: A State-of-the-Art Review</t>
+          <t>Xujie Zhou</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>639–641</t>
+          <t>34–45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F12">
-        <v>491</v>
+        <v>246</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Michael C. Kreissl</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Comments on Study of “Performance of 18F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study”</t>
+          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2023</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>597–612</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F13">
-        <v>1189</v>
+        <v>434</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Phenomic Imaging</t>
+          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>613–638</t>
+          <t>203–212</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F14">
-        <v>606</v>
+        <v>219</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Cong Li</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Visualizing Macrophage Phenotypes and Polarization in Diseases: From Biomarkers to Molecular Probes</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>187–202</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F15">
-        <v>423</v>
+        <v>194</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Hao Wu, Guoping Zhao</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Human Gut Microbiome Researches Over the Last Decade: Current Challenges and Future Directions</t>
+          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2023</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>535–547</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1110,42 +1035,47 @@
         </is>
       </c>
       <c r="F16">
-        <v>411</v>
+        <v>1643</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Ning-Ning Liu</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Oral Microbiota: A New Insight into Cancer Progression, Diagnosis and Treatment</t>
+          <t>Leming Shi, Yuanting Zheng</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>56–71</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1154,120 +1084,125 @@
         </is>
       </c>
       <c r="F17">
-        <v>217</v>
+        <v>530</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Xiaolei Ren, Zhihong Li</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>3D Models of Sarcomas: The Next-generation Tool for Personalized Medicine</t>
+          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>24–33</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F18">
-        <v>242</v>
+        <v>769</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Boyi Li, Dean Ta</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>The Protocol of Ultrasonic Backscatter Measurements of Musculoskeletal Properties</t>
+          <t>Wei Sheng, Guoying Huang</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>13–23</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F19">
-        <v>417</v>
+        <v>304</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Circulating Lipoproteins Mediate the Association Between Cardiovascular Risk Factors and Cognitive Decline: A Community-Based Cohort Study</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
     </row>
@@ -1275,9 +1210,19 @@
       <c r="A20">
         <v>2023</v>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>549–564</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1286,32 +1231,27 @@
         </is>
       </c>
       <c r="F20">
-        <v>1131</v>
+        <v>1808</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Plasma-Free Blood as a Potential Alternative to Whole Blood for Transcriptomic Analysis</t>
+          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
         </is>
       </c>
     </row>
@@ -1319,43 +1259,48 @@
       <c r="A21">
         <v>2023</v>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>586–596</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F21">
-        <v>323</v>
+        <v>465</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Analysis of the Immune Response by Standardized Whole-Blood Stimulation with Metabolism Modulation</t>
+          <t>Guifen Yang, Longjiang Zhang</t>
         </is>
       </c>
     </row>
@@ -1370,46 +1315,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>496–501</t>
+          <t>639–641</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F22">
-        <v>495</v>
+        <v>707</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Weimin Ye</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Inflammation as a Mediator of Microbiome Dysbiosis-Associated DNA Methylation Changes in Gastric Premalignant Lesions</t>
+          <t>Michael C. Kreissl</t>
         </is>
       </c>
     </row>
@@ -1417,43 +1357,48 @@
       <c r="A23">
         <v>2023</v>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>597–612</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F23">
-        <v>237</v>
+        <v>1730</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Ying Xu, Jiaxue Wu</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Identification of Poly(ADP-ribose) Polymerase 9 (PARP9) as a Potent Suppressor for &lt;i&gt;Mycobacterium tuberculosis&lt;/i&gt; Infection</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
@@ -1461,43 +1406,48 @@
       <c r="A24">
         <v>2023</v>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>613–638</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F24">
-        <v>272</v>
+        <v>864</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Allergic Phenotypes and Sarcopenia: Evidence from Observational Studies and Mendelian Randomization Analysis</t>
+          <t>Cong Li</t>
         </is>
       </c>
     </row>
@@ -1505,53 +1455,38 @@
       <c r="A25">
         <v>2023</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>469–484</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Editorial</t>
         </is>
       </c>
       <c r="F25">
-        <v>321</v>
+        <v>577</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Menghan Hu, Min Dai</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Auxiliary Diagnosis of Papillary Thyroid Carcinoma Based on Spectral Phenotype</t>
+          <t>Hao Wu, Guoping Zhao</t>
         </is>
       </c>
     </row>
@@ -1566,46 +1501,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>519–534</t>
+          <t>535–547</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F26">
-        <v>378</v>
+        <v>572</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Jingjing Luo</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>A Protocol for Digitalized Collection of Traditional Chinese Medicine (TCM) Pulse Information Using Bionic Pulse Diagnosis Equipment</t>
+          <t>Ning-Ning Liu</t>
         </is>
       </c>
     </row>
@@ -1615,51 +1545,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>576–585</t>
+          <t>171–186</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F27">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Xin Li, Xiang Li</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Performance of &lt;sup&gt;18&lt;/sup&gt;F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study</t>
+          <t>Xiaolei Ren, Zhihong Li</t>
         </is>
       </c>
     </row>
@@ -1669,51 +1594,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>329–332</t>
+          <t>72–80</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F28">
-        <v>601</v>
+        <v>429</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bing Su</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>High Arterial Oxygen Saturation in the Acclimatized Lowlanders Living at High Altitude</t>
+          <t>Boyi Li, Dean Ta</t>
         </is>
       </c>
     </row>
@@ -1721,43 +1641,48 @@
       <c r="A29">
         <v>2023</v>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>51–55</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F29">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Correction: Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
+          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
         </is>
       </c>
     </row>
@@ -1767,17 +1692,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>485–495</t>
+          <t>109–124</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1786,32 +1711,27 @@
         </is>
       </c>
       <c r="F30">
-        <v>359</v>
+        <v>1536</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>A Common Functional Variant at the Enhancer of the Rheumatoid Arthritis Risk Gene &lt;i&gt;ORMDL3&lt;/i&gt; Regulates its Expression Through Allele-Specific JunD Binding</t>
+          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
         </is>
       </c>
     </row>
@@ -1821,51 +1741,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>390–407</t>
+          <t>81–89</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F31">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Li Zhang, Weimin Li</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Integrative Identification by Hi-C Revealed Distinct Advanced Structural Variations in Lung Adenocarcinoma Tissue</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -1880,46 +1795,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>439–456</t>
+          <t>496–501</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F32">
-        <v>1488</v>
+        <v>615</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Guoping Zhao, Guoqing Zhang</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Mycobacteriaceae Phenome Atlas (MPA): A Standardized Atlas for the Mycobacteriaceae Phenome Based on Heterogeneous Sources</t>
+          <t>Weimin Ye</t>
         </is>
       </c>
     </row>
@@ -1927,9 +1837,19 @@
       <c r="A33">
         <v>2023</v>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>158–170</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1938,32 +1858,27 @@
         </is>
       </c>
       <c r="F33">
-        <v>1524</v>
+        <v>328</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>De Novo Dissecting the Three-Dimensional Facial Morphology of 2379 Han Chinese Individuals</t>
+          <t>Ying Xu, Jiaxue Wu</t>
         </is>
       </c>
     </row>
@@ -1971,43 +1886,48 @@
       <c r="A34">
         <v>2023</v>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>46–50</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F34">
-        <v>1220</v>
+        <v>854</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Li Jin, Jiucun Wang</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Quantitative Assessment of Ultraviolet-Induced Erythema and Tanning Responses in the Han Chinese Population</t>
+          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
         </is>
       </c>
     </row>
@@ -2022,12 +1942,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>360–374</t>
+          <t>469–484</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2036,32 +1956,27 @@
         </is>
       </c>
       <c r="F35">
-        <v>3608</v>
+        <v>401</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Immune-Ageing Evaluation of Peripheral T and NK Lymphocyte Subsets in Chinese Healthy Adults</t>
+          <t>Menghan Hu, Min Dai</t>
         </is>
       </c>
     </row>
@@ -2076,46 +1991,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>350–359</t>
+          <t>519–534</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F36">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>DBLiPro: A Database for Lipids and Proteins in Human Lipid Metabolism</t>
+          <t>Jingjing Luo</t>
         </is>
       </c>
     </row>
@@ -2130,46 +2040,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>421–438</t>
+          <t>576–585</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F37">
-        <v>2008</v>
+        <v>471</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Overview of a Sleep Monitoring Protocol for a Large Natural Population</t>
+          <t>Xin Li, Xiang Li</t>
         </is>
       </c>
     </row>
@@ -2184,46 +2089,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>228–242</t>
+          <t>329–332</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F38">
-        <v>626</v>
+        <v>713</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Lin Zhang, Dan Chen</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>RNA-Sequencing Reveals Gene Expression and Pathway Signatures in Umbilical Cord Blood Affected by Birth Delivery Mode</t>
+          <t>Bing Su</t>
         </is>
       </c>
     </row>
@@ -2231,53 +2131,38 @@
       <c r="A39">
         <v>2023</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>333–349</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F39">
-        <v>2814</v>
+        <v>896</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Jianping Jia</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Genetic Phenotypes of Alzheimer’s Disease: Mechanisms and Potential Therapy</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
@@ -2292,46 +2177,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>217–227</t>
+          <t>485–495</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F40">
-        <v>3446</v>
+        <v>443</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
+          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
         </is>
       </c>
     </row>
@@ -2346,46 +2226,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>300–308</t>
+          <t>390–407</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F41">
-        <v>1088</v>
+        <v>647</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>6</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
+          <t>Li Zhang, Weimin Li</t>
         </is>
       </c>
     </row>
@@ -2400,12 +2275,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>457–468</t>
+          <t>439–456</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2414,32 +2289,27 @@
         </is>
       </c>
       <c r="F42">
-        <v>592</v>
+        <v>1733</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
+          <t>Guoping Zhao, Guoqing Zhang</t>
         </is>
       </c>
     </row>
@@ -2449,17 +2319,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>408–420</t>
+          <t>1–12</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2468,32 +2338,27 @@
         </is>
       </c>
       <c r="F43">
-        <v>621</v>
+        <v>2123</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
+          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
         </is>
       </c>
     </row>
@@ -2503,51 +2368,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>268–284</t>
+          <t>138–145</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F44">
-        <v>1278</v>
+        <v>1442</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Diets, Gut Microbiota and Metabolites</t>
+          <t>Li Jin, Jiucun Wang</t>
         </is>
       </c>
     </row>
@@ -2562,46 +2422,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>309–328</t>
+          <t>360–374</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F45">
-        <v>5509</v>
+        <v>4325</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
+          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
         </is>
       </c>
     </row>
@@ -2616,46 +2471,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>190–203</t>
+          <t>350–359</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F46">
-        <v>728</v>
+        <v>594</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
+          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
         </is>
       </c>
     </row>
@@ -2670,46 +2520,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>167–181</t>
+          <t>421–438</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F47">
-        <v>951</v>
+        <v>2396</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H47">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
+          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
         </is>
       </c>
     </row>
@@ -2724,46 +2569,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>642–656</t>
+          <t>228–242</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F48">
-        <v>927</v>
+        <v>723</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
+          <t>Lin Zhang, Dan Chen</t>
         </is>
       </c>
     </row>
@@ -2778,12 +2618,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>285–299</t>
+          <t>333–349</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2792,32 +2632,27 @@
         </is>
       </c>
       <c r="F49">
-        <v>3347</v>
+        <v>3633</v>
       </c>
       <c r="G49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
+          <t>Jianping Jia</t>
         </is>
       </c>
     </row>
@@ -2832,46 +2667,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>502–518</t>
+          <t>217–227</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F50">
-        <v>1062</v>
+        <v>3887</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Hui Li</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
@@ -2886,52 +2716,47 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>243–254</t>
+          <t>300–308</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F51">
-        <v>1118</v>
+        <v>1258</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
+          <t>Zhexue Quan, Yan Zheng</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2940,12 +2765,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>148–166</t>
+          <t>457–468</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2954,38 +2779,33 @@
         </is>
       </c>
       <c r="F52">
-        <v>1472</v>
+        <v>678</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2994,12 +2814,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>130–137</t>
+          <t>408–420</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3008,38 +2828,33 @@
         </is>
       </c>
       <c r="F53">
-        <v>1098</v>
+        <v>689</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
+          <t>Dean Ta</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3048,12 +2863,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>101–118</t>
+          <t>268–284</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3062,38 +2877,33 @@
         </is>
       </c>
       <c r="F54">
-        <v>1180</v>
+        <v>1459</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>He Wang</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
+          <t>Shangyu Hong, Yan Sun</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3102,96 +2912,96 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>255–267</t>
+          <t>309–328</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F55">
-        <v>1292</v>
+        <v>6627</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>190–203</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F56">
-        <v>1212</v>
+        <v>786</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>Hongfeng Chen</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3200,12 +3010,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>167–181</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3214,38 +3024,33 @@
         </is>
       </c>
       <c r="F57">
-        <v>3011</v>
+        <v>1024</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3254,52 +3059,47 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>64–76</t>
+          <t>642–656</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F58">
-        <v>3733</v>
+        <v>1063</v>
       </c>
       <c r="G58">
         <v>3</v>
       </c>
       <c r="H58">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3308,52 +3108,47 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>34–49</t>
+          <t>285–299</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F59">
-        <v>1647</v>
+        <v>3767</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>Weihai Ying</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3362,52 +3157,47 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>502–518</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F60">
-        <v>1275</v>
+        <v>1186</v>
       </c>
       <c r="G60">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
+          <t>Hui Li</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3416,12 +3206,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>22–33</t>
+          <t>243–254</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3430,32 +3220,27 @@
         </is>
       </c>
       <c r="F61">
-        <v>1407</v>
+        <v>1268</v>
       </c>
       <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
         <v>4</v>
       </c>
-      <c r="H61">
-        <v>3</v>
-      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
         </is>
       </c>
     </row>
@@ -3465,51 +3250,46 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>383–388</t>
+          <t>148–166</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F62">
-        <v>2869</v>
+        <v>1586</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
+          <t>Wei Yan, Jie Jin</t>
         </is>
       </c>
     </row>
@@ -3524,12 +3304,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>565–575</t>
+          <t>130–137</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3538,32 +3318,27 @@
         </is>
       </c>
       <c r="F63">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="G63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -3573,17 +3348,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>363–382</t>
+          <t>101–118</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3592,32 +3367,27 @@
         </is>
       </c>
       <c r="F64">
-        <v>7529</v>
+        <v>1271</v>
       </c>
       <c r="G64">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
+          <t>He Wang</t>
         </is>
       </c>
     </row>
@@ -3627,17 +3397,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>430–437</t>
+          <t>255–267</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3646,32 +3416,27 @@
         </is>
       </c>
       <c r="F65">
-        <v>1905</v>
+        <v>1406</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
         </is>
       </c>
     </row>
@@ -3679,53 +3444,38 @@
       <c r="A66">
         <v>2022</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>404–418</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F66">
-        <v>1615</v>
+        <v>1292</v>
       </c>
       <c r="G66">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -3740,46 +3490,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>204–215</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F67">
-        <v>1307</v>
+        <v>3324</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
     </row>
@@ -3794,12 +3539,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>375–389</t>
+          <t>64–76</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3808,32 +3553,27 @@
         </is>
       </c>
       <c r="F68">
-        <v>4198</v>
+        <v>4030</v>
       </c>
       <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
         <v>11</v>
       </c>
-      <c r="H68">
-        <v>12</v>
-      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
     </row>
@@ -3843,17 +3583,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>419–429</t>
+          <t>34–49</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3862,32 +3602,27 @@
         </is>
       </c>
       <c r="F69">
-        <v>1420</v>
+        <v>1740</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -3902,12 +3637,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>138–147</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3916,32 +3651,27 @@
         </is>
       </c>
       <c r="F70">
-        <v>1185</v>
+        <v>1377</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
     </row>
@@ -3951,17 +3681,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>389–403</t>
+          <t>22–33</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3970,7 +3700,7 @@
         </is>
       </c>
       <c r="F71">
-        <v>2588</v>
+        <v>1521</v>
       </c>
       <c r="G71">
         <v>5</v>
@@ -3980,22 +3710,17 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
     </row>
@@ -4005,51 +3730,46 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>77–82</t>
+          <t>383–388</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F72">
-        <v>3643</v>
+        <v>3214</v>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
     </row>
@@ -4059,17 +3779,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>219–229</t>
+          <t>565–575</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4078,32 +3798,27 @@
         </is>
       </c>
       <c r="F73">
-        <v>1529</v>
+        <v>1274</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
     </row>
@@ -4118,12 +3833,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>336–348</t>
+          <t>363–382</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4132,32 +3847,27 @@
         </is>
       </c>
       <c r="F74">
-        <v>2962</v>
+        <v>8526</v>
       </c>
       <c r="G74">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
         </is>
       </c>
     </row>
@@ -4167,17 +3877,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1–21</t>
+          <t>430–437</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4186,32 +3896,27 @@
         </is>
       </c>
       <c r="F75">
-        <v>1886</v>
+        <v>2037</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Multi-omics Analysis of Young &lt;i&gt;Portulaca oleracea&lt;/i&gt; L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
         </is>
       </c>
     </row>
@@ -4226,12 +3931,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>283–294</t>
+          <t>404–418</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4240,32 +3945,27 @@
         </is>
       </c>
       <c r="F76">
-        <v>1821</v>
+        <v>1729</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
         </is>
       </c>
     </row>
@@ -4280,46 +3980,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>182–189</t>
+          <t>204–215</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F77">
-        <v>1899</v>
+        <v>1356</v>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
     </row>
@@ -4329,17 +4024,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>312–322</t>
+          <t>375–389</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4348,32 +4043,27 @@
         </is>
       </c>
       <c r="F78">
-        <v>2574</v>
+        <v>4926</v>
       </c>
       <c r="G78">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
     </row>
@@ -4388,12 +4078,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>261–271</t>
+          <t>419–429</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4402,32 +4092,27 @@
         </is>
       </c>
       <c r="F79">
-        <v>1499</v>
+        <v>1479</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
+          <t>Shouling Wu, An Pan</t>
         </is>
       </c>
     </row>
@@ -4442,46 +4127,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>83–100</t>
+          <t>138–147</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F80">
-        <v>2147</v>
+        <v>1226</v>
       </c>
       <c r="G80">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Emerging Regulatory Mechanisms of N&lt;sup&gt;6&lt;/sup&gt;-Methyladenosine Modification in Cancer Metastasis</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
     </row>
@@ -4496,46 +4176,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>349–361</t>
+          <t>389–403</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F81">
-        <v>1805</v>
+        <v>2798</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H81">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
+          <t>Yong Wang</t>
         </is>
       </c>
     </row>
@@ -4545,51 +4220,46 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>323–335</t>
+          <t>77–82</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="F82">
-        <v>1455</v>
+        <v>3857</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
@@ -4604,12 +4274,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>230–241</t>
+          <t>219–229</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4618,32 +4288,27 @@
         </is>
       </c>
       <c r="F83">
-        <v>1792</v>
+        <v>1592</v>
       </c>
       <c r="G83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
     </row>
@@ -4658,46 +4323,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>184–193</t>
+          <t>336–348</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F84">
-        <v>3755</v>
+        <v>3244</v>
       </c>
       <c r="G84">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
         </is>
       </c>
     </row>
@@ -4707,17 +4367,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>254–260</t>
+          <t>1–21</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4726,32 +4386,27 @@
         </is>
       </c>
       <c r="F85">
-        <v>1213</v>
+        <v>1948</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
     </row>
@@ -4766,12 +4421,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>242–253</t>
+          <t>283–294</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4780,32 +4435,27 @@
         </is>
       </c>
       <c r="F86">
-        <v>2090</v>
+        <v>1906</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
     </row>
@@ -4813,43 +4463,48 @@
       <c r="A87">
         <v>2022</v>
       </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>182–189</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F87">
-        <v>1389</v>
+        <v>2050</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Li Jin</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Correction to: Welcome to the &lt;i&gt;Phenomics&lt;/i&gt; Journal</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
     </row>
@@ -4864,46 +4519,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>156–183</t>
+          <t>312–322</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F88">
-        <v>5382</v>
+        <v>2739</v>
       </c>
       <c r="G88">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H88">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -4918,12 +4568,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>201–210</t>
+          <t>261–271</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4932,32 +4582,27 @@
         </is>
       </c>
       <c r="F89">
-        <v>1316</v>
+        <v>1566</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
         </is>
       </c>
     </row>
@@ -4967,51 +4612,46 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>211–218</t>
+          <t>83–100</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F90">
-        <v>1229</v>
+        <v>2356</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
     </row>
@@ -5026,46 +4666,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>130–135</t>
+          <t>349–361</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F91">
-        <v>1244</v>
+        <v>1890</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
+          <t>Jian Wang</t>
         </is>
       </c>
     </row>
@@ -5080,46 +4715,41 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>102–118</t>
+          <t>323–335</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F92">
-        <v>2037</v>
+        <v>1498</v>
       </c>
       <c r="G92">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
@@ -5134,12 +4764,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>194–200</t>
+          <t>230–241</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5148,32 +4778,27 @@
         </is>
       </c>
       <c r="F93">
-        <v>1818</v>
+        <v>1866</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in &lt;i&gt;Drosophila melanogaster&lt;/i&gt;</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
     </row>
@@ -5188,12 +4813,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>136–144</t>
+          <t>184–193</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5202,32 +4827,27 @@
         </is>
       </c>
       <c r="F94">
-        <v>1080</v>
+        <v>4085</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
     </row>
@@ -5242,46 +4862,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1–17</t>
+          <t>254–260</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F95">
-        <v>3456</v>
+        <v>1275</v>
       </c>
       <c r="G95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
+          <t>Yi Lu, Tianyu Zheng</t>
         </is>
       </c>
     </row>
@@ -5296,12 +4911,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>242–253</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5310,32 +4925,27 @@
         </is>
       </c>
       <c r="F96">
-        <v>1693</v>
+        <v>2266</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Lin Li</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
     </row>
@@ -5343,53 +4953,38 @@
       <c r="A97">
         <v>2022</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>50–63</t>
-        </is>
-      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F97">
-        <v>2883</v>
+        <v>1453</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
+          <t>Li Jin</t>
         </is>
       </c>
     </row>
@@ -5404,12 +4999,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>88–101</t>
+          <t>156–183</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5418,32 +5013,27 @@
         </is>
       </c>
       <c r="F98">
-        <v>2310</v>
+        <v>5893</v>
       </c>
       <c r="G98">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H98">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
     </row>
@@ -5458,12 +5048,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>64–71</t>
+          <t>201–210</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5472,32 +5062,27 @@
         </is>
       </c>
       <c r="F99">
-        <v>1337</v>
+        <v>1375</v>
       </c>
       <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
         <v>3</v>
       </c>
-      <c r="H99">
-        <v>2</v>
-      </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
     </row>
@@ -5512,46 +5097,41 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>145–155</t>
+          <t>211–218</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F100">
-        <v>3401</v>
+        <v>1269</v>
       </c>
       <c r="G100">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Why Do We Care More About Disease than Health?</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
     </row>
@@ -5566,46 +5146,41 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>18–32</t>
+          <t>130–135</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F101">
-        <v>2425</v>
+        <v>1281</v>
       </c>
       <c r="G101">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H101">
         <v>2</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
     </row>
@@ -5620,46 +5195,41 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>33–49</t>
+          <t>102–118</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F102">
-        <v>2152</v>
+        <v>2140</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H102">
         <v>4</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
     </row>
@@ -5667,43 +5237,48 @@
       <c r="A103">
         <v>2022</v>
       </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>194–200</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F103">
-        <v>1458</v>
+        <v>1891</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
     </row>
@@ -5718,12 +5293,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>295–311</t>
+          <t>136–144</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5732,32 +5307,27 @@
         </is>
       </c>
       <c r="F104">
-        <v>2780</v>
+        <v>1128</v>
       </c>
       <c r="G104">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
+          <t>Yi Lu</t>
         </is>
       </c>
     </row>
@@ -5772,12 +5342,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>272–281</t>
+          <t>1–17</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5786,38 +5356,33 @@
         </is>
       </c>
       <c r="F105">
-        <v>4202</v>
+        <v>3527</v>
       </c>
       <c r="G105">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -5826,52 +5391,47 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>79–87</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F106">
-        <v>4514</v>
+        <v>1791</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
+          <t>Lin Li</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -5880,120 +5440,110 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>72–77</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F107">
-        <v>1484</v>
+        <v>3116</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>285–298</t>
+          <t>88–101</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F108">
-        <v>2152</v>
+        <v>2406</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H108">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>243–256</t>
+          <t>64–71</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6002,160 +5552,145 @@
         </is>
       </c>
       <c r="F109">
-        <v>2239</v>
+        <v>1387</v>
       </c>
       <c r="G109">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>269–284</t>
+          <t>145–155</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F110">
-        <v>2167</v>
+        <v>3473</v>
       </c>
       <c r="G110">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>&lt;i&gt;N&lt;/i&gt;-Glycoproteomics Study of Putative &lt;i&gt;N&lt;/i&gt;-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
+          <t>Martin Picard</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>257–268</t>
+          <t>18–32</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F111">
-        <v>2121</v>
+        <v>2565</v>
       </c>
       <c r="G111">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>199–210</t>
+          <t>33–49</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6164,160 +5699,135 @@
         </is>
       </c>
       <c r="F112">
-        <v>2073</v>
+        <v>2283</v>
       </c>
       <c r="G112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
+          <t>Jixi Li</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>2021</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>211–221</t>
-        </is>
+        <v>2022</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F113">
-        <v>1813</v>
+        <v>1525</v>
       </c>
       <c r="G113">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>222–228</t>
+          <t>295–311</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F114">
-        <v>3961</v>
+        <v>2933</v>
       </c>
       <c r="G114">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>229–241</t>
+          <t>272–281</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6326,32 +5836,27 @@
         </is>
       </c>
       <c r="F115">
-        <v>2045</v>
+        <v>4414</v>
       </c>
       <c r="G115">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
     </row>
@@ -6361,51 +5866,46 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>186–198</t>
+          <t>79–87</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F116">
-        <v>1931</v>
+        <v>4959</v>
       </c>
       <c r="G116">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
     </row>
@@ -6415,51 +5915,46 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>171–185</t>
+          <t>72–77</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F117">
-        <v>2416</v>
+        <v>1520</v>
       </c>
       <c r="G117">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
     </row>
@@ -6474,46 +5969,41 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>151–170</t>
+          <t>285–298</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F118">
-        <v>4958</v>
+        <v>2206</v>
       </c>
       <c r="G118">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
     </row>
@@ -6528,46 +6018,41 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>143–150</t>
+          <t>243–256</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F119">
-        <v>4952</v>
+        <v>2328</v>
       </c>
       <c r="G119">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H119">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
     </row>
@@ -6582,12 +6067,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>91–104</t>
+          <t>269–284</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6596,32 +6081,27 @@
         </is>
       </c>
       <c r="F120">
-        <v>3965</v>
+        <v>2249</v>
       </c>
       <c r="G120">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
     </row>
@@ -6636,46 +6116,41 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>113–128</t>
+          <t>257–268</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F121">
-        <v>4959</v>
+        <v>2231</v>
       </c>
       <c r="G121">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H121">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Defense of COVID-19 by Human Organoids</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
     </row>
@@ -6690,46 +6165,41 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>129–142</t>
+          <t>199–210</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F122">
-        <v>4140</v>
+        <v>2184</v>
       </c>
       <c r="G122">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican &lt;i&gt;Pseudomonas aeruginosa &lt;/i&gt;AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
     </row>
@@ -6744,12 +6214,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>105–112</t>
+          <t>211–221</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6758,32 +6228,27 @@
         </is>
       </c>
       <c r="F123">
-        <v>1617</v>
+        <v>1894</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
     </row>
@@ -6798,46 +6263,41 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>73–89</t>
+          <t>222–228</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F124">
-        <v>2300</v>
+        <v>4362</v>
       </c>
       <c r="G124">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Comparison of Metabolic Profiling of &lt;i&gt;Arabidopsis&lt;/i&gt; Inflorescences Between Landsberg &lt;i&gt;erecta&lt;/i&gt; and Columbia, and Meiosis-Defective Mutants by &lt;sup&gt;1&lt;/sup&gt;H-NMR Spectroscopy</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
     </row>
@@ -6852,46 +6312,41 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>62–72</t>
+          <t>229–241</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F125">
-        <v>3626</v>
+        <v>2152</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
     </row>
@@ -6906,46 +6361,41 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>31–53</t>
+          <t>186–198</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F126">
-        <v>5331</v>
+        <v>1998</v>
       </c>
       <c r="G126">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
     </row>
@@ -6960,46 +6410,41 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>54–61</t>
+          <t>171–185</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F127">
-        <v>4125</v>
+        <v>2511</v>
       </c>
       <c r="G127">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
     </row>
@@ -7014,46 +6459,41 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>22–30</t>
+          <t>151–170</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F128">
-        <v>5458</v>
+        <v>5349</v>
       </c>
       <c r="G128">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H128">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
     </row>
@@ -7068,46 +6508,41 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>15–21</t>
+          <t>143–150</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F129">
-        <v>2874</v>
+        <v>5085</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>&lt;i&gt;In Situ&lt;/i&gt; Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates &lt;i&gt;Ucp1&lt;/i&gt; Expression</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
     </row>
@@ -7122,12 +6557,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>3–14</t>
+          <t>91–104</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7136,32 +6571,27 @@
         </is>
       </c>
       <c r="F130">
-        <v>7045</v>
+        <v>4501</v>
       </c>
       <c r="G130">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H130">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
     </row>
@@ -7176,46 +6606,531 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>113–128</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F131">
+        <v>5202</v>
+      </c>
+      <c r="G131">
+        <v>9</v>
+      </c>
+      <c r="H131">
+        <v>6</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2021-07-14</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Xinhua Lin, Bing Zhao</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>2021</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>129–142</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F132">
+        <v>4333</v>
+      </c>
+      <c r="G132">
+        <v>10</v>
+      </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Jose Arturo Molina-Mora</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>2021</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>105–112</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F133">
+        <v>1651</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Xun Gu</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>2021</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>73–89</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F134">
+        <v>2344</v>
+      </c>
+      <c r="G134">
+        <v>4</v>
+      </c>
+      <c r="H134">
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2021-05-11</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Limin Zhang, Yingxiang Wang</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>2021</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>62–72</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F135">
+        <v>3797</v>
+      </c>
+      <c r="G135">
+        <v>6</v>
+      </c>
+      <c r="H135">
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>2021-05-11</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Shenghong Ju</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>2021</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>31–53</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F136">
+        <v>5555</v>
+      </c>
+      <c r="G136">
+        <v>37</v>
+      </c>
+      <c r="H136">
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>2021-05-11</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Neelam R. Yadav</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>2021</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>54–61</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F137">
+        <v>4541</v>
+      </c>
+      <c r="G137">
+        <v>5</v>
+      </c>
+      <c r="H137">
+        <v>5</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Wei Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>2021</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>22–30</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F138">
+        <v>5765</v>
+      </c>
+      <c r="G138">
+        <v>13</v>
+      </c>
+      <c r="H138">
+        <v>12</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Gong Zhang, Jingjie Jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>2021</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>15–21</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Correspondence</t>
+        </is>
+      </c>
+      <c r="F139">
+        <v>2930</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>2021</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3–14</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F140">
+        <v>7486</v>
+      </c>
+      <c r="G140">
+        <v>5</v>
+      </c>
+      <c r="H140">
+        <v>16</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Jiucun Wang, Li Jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>2021</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
           <t>1–2</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>Editorial</t>
         </is>
       </c>
-      <c r="F131">
-        <v>5972</v>
-      </c>
-      <c r="G131">
-        <v>11</v>
-      </c>
-      <c r="H131">
+      <c r="F141">
+        <v>6182</v>
+      </c>
+      <c r="G141">
+        <v>12</v>
+      </c>
+      <c r="H141">
         <v>7</v>
       </c>
-      <c r="I131" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>https://link.springer.com/article/10.1007/s43657-020-00009-4</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>Li Jin</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Welcome to the &lt;i&gt;Phenomics&lt;/i&gt; Journal</t>
         </is>
       </c>
     </row>

--- a/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +420,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -429,27 +429,27 @@
         </is>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00134-w</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
+          <t>Huan Song</t>
         </is>
       </c>
     </row>
@@ -459,7 +459,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -478,17 +478,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-06-01</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00132-y</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
+          <t>Yongjun Wang, Yanping Yang</t>
         </is>
       </c>
     </row>
@@ -498,36 +498,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00149-3</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -537,36 +537,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F5">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00154-6</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hao Cheng, Bin Li</t>
+          <t>Zheng Liu, Zhihong Zhang</t>
         </is>
       </c>
     </row>
@@ -574,28 +574,18 @@
       <c r="A6">
         <v>2024</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>125–137</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F6">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -605,17 +595,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-05-04</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00140-y</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bi Chen, Bing Gu</t>
+          <t>Zhifei Dai, Desheng Sun</t>
         </is>
       </c>
     </row>
@@ -625,7 +615,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -634,27 +624,27 @@
         </is>
       </c>
       <c r="F7">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Jie Chen</t>
+          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
         </is>
       </c>
     </row>
@@ -664,36 +654,36 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F8">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Yan Zheng, Zhonghan Sun</t>
+          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
         </is>
       </c>
     </row>
@@ -703,36 +693,36 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F9">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Yong Zhang</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
@@ -740,48 +730,38 @@
       <c r="A10">
         <v>2024</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>91–108</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F10">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
+          <t>Hao Cheng, Bin Li</t>
         </is>
       </c>
     </row>
@@ -796,12 +776,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>146–157</t>
+          <t>125–137</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -810,27 +790,27 @@
         </is>
       </c>
       <c r="F11">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Xujie Zhou</t>
+          <t>Bi Chen, Bing Gu</t>
         </is>
       </c>
     </row>
@@ -838,19 +818,9 @@
       <c r="A12">
         <v>2024</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>34–45</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -859,27 +829,27 @@
         </is>
       </c>
       <c r="F12">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
+          <t>Jie Chen</t>
         </is>
       </c>
     </row>
@@ -889,36 +859,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F13">
-        <v>434</v>
+        <v>143</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
+          <t>Yan Zheng, Zhonghan Sun</t>
         </is>
       </c>
     </row>
@@ -926,48 +896,38 @@
       <c r="A14">
         <v>2024</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>203–212</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F14">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Yong Zhang</t>
         </is>
       </c>
     </row>
@@ -982,41 +942,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>187–202</t>
+          <t>91–108</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F15">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
+          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
         </is>
       </c>
     </row>
@@ -1024,6 +984,16 @@
       <c r="A16">
         <v>2024</v>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>146–157</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2024-03</t>
@@ -1031,31 +1001,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F16">
-        <v>1643</v>
+        <v>250</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Leming Shi, Yuanting Zheng</t>
+          <t>Xujie Zhou</t>
         </is>
       </c>
     </row>
@@ -1070,41 +1040,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>56–71</t>
+          <t>34–45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F17">
-        <v>530</v>
+        <v>272</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
+          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
         </is>
       </c>
     </row>
@@ -1112,19 +1082,9 @@
       <c r="A18">
         <v>2024</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>24–33</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1133,27 +1093,27 @@
         </is>
       </c>
       <c r="F18">
-        <v>769</v>
+        <v>486</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Wei Sheng, Guoying Huang</t>
+          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
         </is>
       </c>
     </row>
@@ -1168,110 +1128,100 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13–23</t>
+          <t>203–212</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F19">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>549–564</t>
+          <t>187–202</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F20">
-        <v>1808</v>
+        <v>287</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
+          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2023</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>586–596</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1280,174 +1230,174 @@
         </is>
       </c>
       <c r="F21">
-        <v>465</v>
+        <v>1812</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Guifen Yang, Longjiang Zhang</t>
+          <t>Leming Shi, Yuanting Zheng</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>639–641</t>
+          <t>56–71</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F22">
-        <v>707</v>
+        <v>603</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Michael C. Kreissl</t>
+          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>597–612</t>
+          <t>24–33</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F23">
-        <v>1730</v>
+        <v>871</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Wei Sheng, Guoying Huang</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>613–638</t>
+          <t>13–23</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F24">
-        <v>864</v>
+        <v>342</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Cong Li</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
     </row>
@@ -1455,38 +1405,48 @@
       <c r="A25">
         <v>2023</v>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>549–564</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F25">
-        <v>577</v>
+        <v>1903</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Hao Wu, Guoping Zhao</t>
+          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1461,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>535–547</t>
+          <t>586–596</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1515,27 +1475,27 @@
         </is>
       </c>
       <c r="F26">
-        <v>572</v>
+        <v>495</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Ning-Ning Liu</t>
+          <t>Guifen Yang, Longjiang Zhang</t>
         </is>
       </c>
     </row>
@@ -1545,46 +1505,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>171–186</t>
+          <t>639–641</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F27">
-        <v>304</v>
+        <v>750</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Xiaolei Ren, Zhihong Li</t>
+          <t>Michael C. Kreissl</t>
         </is>
       </c>
     </row>
@@ -1594,46 +1554,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>72–80</t>
+          <t>597–612</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F28">
-        <v>429</v>
+        <v>1886</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Boyi Li, Dean Ta</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
@@ -1643,46 +1603,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>51–55</t>
+          <t>613–638</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F29">
-        <v>714</v>
+        <v>916</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
+          <t>Cong Li</t>
         </is>
       </c>
     </row>
@@ -1690,48 +1650,38 @@
       <c r="A30">
         <v>2023</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>109–124</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Editorial</t>
         </is>
       </c>
       <c r="F30">
-        <v>1536</v>
+        <v>657</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
+          <t>Hao Wu, Guoping Zhao</t>
         </is>
       </c>
     </row>
@@ -1741,46 +1691,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>81–89</t>
+          <t>535–547</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F31">
-        <v>503</v>
+        <v>610</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Ning-Ning Liu</t>
         </is>
       </c>
     </row>
@@ -1790,46 +1740,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>496–501</t>
+          <t>171–186</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F32">
-        <v>615</v>
+        <v>376</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Weimin Ye</t>
+          <t>Xiaolei Ren, Zhihong Li</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1794,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>158–170</t>
+          <t>72–80</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1854,31 +1804,31 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F33">
-        <v>328</v>
+        <v>453</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Ying Xu, Jiaxue Wu</t>
+          <t>Boyi Li, Dean Ta</t>
         </is>
       </c>
     </row>
@@ -1893,12 +1843,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>46–50</t>
+          <t>51–55</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1907,27 +1857,27 @@
         </is>
       </c>
       <c r="F34">
-        <v>854</v>
+        <v>770</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
+          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
         </is>
       </c>
     </row>
@@ -1937,17 +1887,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>469–484</t>
+          <t>109–124</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1956,27 +1906,27 @@
         </is>
       </c>
       <c r="F35">
-        <v>401</v>
+        <v>1770</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Menghan Hu, Min Dai</t>
+          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
         </is>
       </c>
     </row>
@@ -1986,17 +1936,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>519–534</t>
+          <t>81–89</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2005,27 +1955,27 @@
         </is>
       </c>
       <c r="F36">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Jingjing Luo</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -2040,41 +1990,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>576–585</t>
+          <t>496–501</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F37">
-        <v>471</v>
+        <v>646</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Xin Li, Xiang Li</t>
+          <t>Weimin Ye</t>
         </is>
       </c>
     </row>
@@ -2084,46 +2034,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>329–332</t>
+          <t>158–170</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F38">
-        <v>713</v>
+        <v>416</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Bing Su</t>
+          <t>Ying Xu, Jiaxue Wu</t>
         </is>
       </c>
     </row>
@@ -2131,38 +2081,48 @@
       <c r="A39">
         <v>2023</v>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>46–50</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F39">
-        <v>896</v>
+        <v>980</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
         </is>
       </c>
     </row>
@@ -2177,12 +2137,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>485–495</t>
+          <t>469–484</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2191,27 +2151,27 @@
         </is>
       </c>
       <c r="F40">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
+          <t>Menghan Hu, Min Dai</t>
         </is>
       </c>
     </row>
@@ -2226,41 +2186,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>390–407</t>
+          <t>519–534</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F41">
-        <v>647</v>
+        <v>546</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Li Zhang, Weimin Li</t>
+          <t>Jingjing Luo</t>
         </is>
       </c>
     </row>
@@ -2275,12 +2235,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>439–456</t>
+          <t>576–585</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2289,27 +2249,27 @@
         </is>
       </c>
       <c r="F42">
-        <v>1733</v>
+        <v>499</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Guoping Zhao, Guoqing Zhang</t>
+          <t>Xin Li, Xiang Li</t>
         </is>
       </c>
     </row>
@@ -2319,46 +2279,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1–12</t>
+          <t>329–332</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F43">
-        <v>2123</v>
+        <v>737</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
+          <t>Bing Su</t>
         </is>
       </c>
     </row>
@@ -2366,48 +2326,38 @@
       <c r="A44">
         <v>2023</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>138–145</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F44">
-        <v>1442</v>
+        <v>922</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Li Jin, Jiucun Wang</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2372,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>360–374</t>
+          <t>485–495</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2436,27 +2386,27 @@
         </is>
       </c>
       <c r="F45">
-        <v>4325</v>
+        <v>472</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
+          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
         </is>
       </c>
     </row>
@@ -2471,12 +2421,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>350–359</t>
+          <t>390–407</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2485,27 +2435,27 @@
         </is>
       </c>
       <c r="F46">
-        <v>594</v>
+        <v>682</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <v>6</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
+          <t>Li Zhang, Weimin Li</t>
         </is>
       </c>
     </row>
@@ -2520,41 +2470,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>421–438</t>
+          <t>439–456</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F47">
-        <v>2396</v>
+        <v>1805</v>
       </c>
       <c r="G47">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
+          <t>Guoping Zhao, Guoqing Zhang</t>
         </is>
       </c>
     </row>
@@ -2564,17 +2514,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>228–242</t>
+          <t>1–12</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2583,27 +2533,27 @@
         </is>
       </c>
       <c r="F48">
-        <v>723</v>
+        <v>2263</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Lin Zhang, Dan Chen</t>
+          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
         </is>
       </c>
     </row>
@@ -2613,46 +2563,46 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>333–349</t>
+          <t>138–145</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F49">
-        <v>3633</v>
+        <v>1622</v>
       </c>
       <c r="G49">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Jianping Jia</t>
+          <t>Li Jin, Jiucun Wang</t>
         </is>
       </c>
     </row>
@@ -2667,41 +2617,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>217–227</t>
+          <t>360–374</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F50">
-        <v>3887</v>
+        <v>4512</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H50">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
         </is>
       </c>
     </row>
@@ -2716,41 +2666,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>300–308</t>
+          <t>350–359</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F51">
-        <v>1258</v>
+        <v>614</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
+          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
         </is>
       </c>
     </row>
@@ -2765,41 +2715,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>457–468</t>
+          <t>421–438</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F52">
-        <v>678</v>
+        <v>2504</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H52">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
         </is>
       </c>
     </row>
@@ -2814,12 +2764,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>408–420</t>
+          <t>228–242</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2828,27 +2778,27 @@
         </is>
       </c>
       <c r="F53">
-        <v>689</v>
+        <v>760</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
+          <t>Lin Zhang, Dan Chen</t>
         </is>
       </c>
     </row>
@@ -2863,12 +2813,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>268–284</t>
+          <t>333–349</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2877,27 +2827,27 @@
         </is>
       </c>
       <c r="F54">
-        <v>1459</v>
+        <v>3848</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H54">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
+          <t>Jianping Jia</t>
         </is>
       </c>
     </row>
@@ -2912,41 +2862,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>309–328</t>
+          <t>217–227</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F55">
-        <v>6627</v>
+        <v>3974</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
@@ -2961,41 +2911,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>190–203</t>
+          <t>300–308</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F56">
-        <v>786</v>
+        <v>1305</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
+          <t>Zhexue Quan, Yan Zheng</t>
         </is>
       </c>
     </row>
@@ -3010,12 +2960,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>167–181</t>
+          <t>457–468</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3024,27 +2974,27 @@
         </is>
       </c>
       <c r="F57">
-        <v>1024</v>
+        <v>695</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
         </is>
       </c>
     </row>
@@ -3059,41 +3009,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>642–656</t>
+          <t>408–420</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F58">
-        <v>1063</v>
+        <v>703</v>
       </c>
       <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
         <v>3</v>
       </c>
-      <c r="H58">
-        <v>6</v>
-      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Dean Ta</t>
         </is>
       </c>
     </row>
@@ -3108,12 +3058,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>285–299</t>
+          <t>268–284</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3122,27 +3072,27 @@
         </is>
       </c>
       <c r="F59">
-        <v>3767</v>
+        <v>1518</v>
       </c>
       <c r="G59">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
+          <t>Shangyu Hong, Yan Sun</t>
         </is>
       </c>
     </row>
@@ -3157,41 +3107,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>502–518</t>
+          <t>309–328</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F60">
-        <v>1186</v>
+        <v>6909</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Hui Li</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -3206,47 +3156,47 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>243–254</t>
+          <t>190–203</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F61">
-        <v>1268</v>
+        <v>802</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>4</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
+          <t>Hongfeng Chen</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3255,12 +3205,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>148–166</t>
+          <t>167–181</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3269,33 +3219,33 @@
         </is>
       </c>
       <c r="F62">
-        <v>1586</v>
+        <v>1044</v>
       </c>
       <c r="G62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3304,47 +3254,47 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>130–137</t>
+          <t>642–656</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F63">
-        <v>1181</v>
+        <v>1097</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3353,12 +3303,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>101–118</t>
+          <t>285–299</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3367,33 +3317,33 @@
         </is>
       </c>
       <c r="F64">
-        <v>1271</v>
+        <v>3919</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>He Wang</t>
+          <t>Weihai Ying</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3402,80 +3352,90 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>255–267</t>
+          <t>502–518</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F65">
-        <v>1406</v>
+        <v>1210</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>Hui Li</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>243–254</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F66">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
         </is>
       </c>
     </row>
@@ -3490,12 +3450,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>148–166</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3504,27 +3464,27 @@
         </is>
       </c>
       <c r="F67">
-        <v>3324</v>
+        <v>1623</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
+          <t>Wei Yan, Jie Jin</t>
         </is>
       </c>
     </row>
@@ -3539,12 +3499,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>64–76</t>
+          <t>130–137</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3553,27 +3513,27 @@
         </is>
       </c>
       <c r="F68">
-        <v>4030</v>
+        <v>1221</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -3588,41 +3548,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>34–49</t>
+          <t>101–118</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F69">
-        <v>1740</v>
+        <v>1287</v>
       </c>
       <c r="G69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>He Wang</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3597,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>255–267</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3651,27 +3611,27 @@
         </is>
       </c>
       <c r="F70">
-        <v>1377</v>
+        <v>1438</v>
       </c>
       <c r="G70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
         </is>
       </c>
     </row>
@@ -3679,48 +3639,38 @@
       <c r="A71">
         <v>2022</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>22–33</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F71">
-        <v>1521</v>
+        <v>1316</v>
       </c>
       <c r="G71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -3730,46 +3680,46 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>383–388</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F72">
-        <v>3214</v>
+        <v>3397</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
     </row>
@@ -3784,12 +3734,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>565–575</t>
+          <t>64–76</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3798,27 +3748,27 @@
         </is>
       </c>
       <c r="F73">
-        <v>1274</v>
+        <v>4125</v>
       </c>
       <c r="G73">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
     </row>
@@ -3828,12 +3778,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>363–382</t>
+          <t>34–49</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3843,31 +3793,31 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F74">
-        <v>8526</v>
+        <v>1771</v>
       </c>
       <c r="G74">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H74">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -3877,17 +3827,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>430–437</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3896,27 +3846,27 @@
         </is>
       </c>
       <c r="F75">
-        <v>2037</v>
+        <v>1421</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
     </row>
@@ -3926,17 +3876,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>404–418</t>
+          <t>22–33</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3945,27 +3895,27 @@
         </is>
       </c>
       <c r="F76">
-        <v>1729</v>
+        <v>1544</v>
       </c>
       <c r="G76">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
     </row>
@@ -3975,17 +3925,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>204–215</t>
+          <t>383–388</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3994,27 +3944,27 @@
         </is>
       </c>
       <c r="F77">
-        <v>1356</v>
+        <v>3352</v>
       </c>
       <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
         <v>2</v>
       </c>
-      <c r="H77">
-        <v>3</v>
-      </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
     </row>
@@ -4029,12 +3979,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>375–389</t>
+          <t>565–575</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4043,27 +3993,27 @@
         </is>
       </c>
       <c r="F78">
-        <v>4926</v>
+        <v>1299</v>
       </c>
       <c r="G78">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H78">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
     </row>
@@ -4078,41 +4028,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>419–429</t>
+          <t>363–382</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F79">
-        <v>1479</v>
+        <v>8839</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
         </is>
       </c>
     </row>
@@ -4122,17 +4072,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>138–147</t>
+          <t>430–437</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4141,27 +4091,27 @@
         </is>
       </c>
       <c r="F80">
-        <v>1226</v>
+        <v>2070</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <v>5</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
         </is>
       </c>
     </row>
@@ -4176,12 +4126,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>389–403</t>
+          <t>404–418</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4190,27 +4140,27 @@
         </is>
       </c>
       <c r="F81">
-        <v>2798</v>
+        <v>1761</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
         </is>
       </c>
     </row>
@@ -4225,41 +4175,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>77–82</t>
+          <t>204–215</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F82">
-        <v>3857</v>
+        <v>1368</v>
       </c>
       <c r="G82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
     </row>
@@ -4269,17 +4219,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>219–229</t>
+          <t>375–389</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4288,27 +4238,27 @@
         </is>
       </c>
       <c r="F83">
-        <v>1592</v>
+        <v>5121</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
     </row>
@@ -4323,41 +4273,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>336–348</t>
+          <t>419–429</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F84">
-        <v>3244</v>
+        <v>1516</v>
       </c>
       <c r="G84">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Shouling Wu, An Pan</t>
         </is>
       </c>
     </row>
@@ -4372,12 +4322,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1–21</t>
+          <t>138–147</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4386,27 +4336,27 @@
         </is>
       </c>
       <c r="F85">
-        <v>1948</v>
+        <v>1243</v>
       </c>
       <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
         <v>5</v>
       </c>
-      <c r="H85">
-        <v>4</v>
-      </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
     </row>
@@ -4421,12 +4371,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>283–294</t>
+          <t>389–403</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4435,27 +4385,27 @@
         </is>
       </c>
       <c r="F86">
-        <v>1906</v>
+        <v>2853</v>
       </c>
       <c r="G86">
+        <v>7</v>
+      </c>
+      <c r="H86">
         <v>4</v>
       </c>
-      <c r="H86">
-        <v>2</v>
-      </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Yong Wang</t>
         </is>
       </c>
     </row>
@@ -4470,7 +4420,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>182–189</t>
+          <t>77–82</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4480,31 +4430,31 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="F87">
-        <v>2050</v>
+        <v>3913</v>
       </c>
       <c r="G87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4469,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>312–322</t>
+          <t>219–229</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4533,27 +4483,27 @@
         </is>
       </c>
       <c r="F88">
-        <v>2739</v>
+        <v>1607</v>
       </c>
       <c r="G88">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H88">
         <v>4</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
     </row>
@@ -4568,7 +4518,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>261–271</t>
+          <t>336–348</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4578,31 +4528,31 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F89">
-        <v>1566</v>
+        <v>3285</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
         </is>
       </c>
     </row>
@@ -4617,41 +4567,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>83–100</t>
+          <t>1–21</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F90">
-        <v>2356</v>
+        <v>1966</v>
       </c>
       <c r="G90">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
     </row>
@@ -4666,41 +4616,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>349–361</t>
+          <t>283–294</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F91">
-        <v>1890</v>
+        <v>1932</v>
       </c>
       <c r="G91">
         <v>4</v>
       </c>
       <c r="H91">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
     </row>
@@ -4710,17 +4660,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>323–335</t>
+          <t>182–189</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4729,27 +4679,27 @@
         </is>
       </c>
       <c r="F92">
-        <v>1498</v>
+        <v>2089</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
     </row>
@@ -4764,12 +4714,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>230–241</t>
+          <t>312–322</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4778,27 +4728,27 @@
         </is>
       </c>
       <c r="F93">
-        <v>1866</v>
+        <v>2786</v>
       </c>
       <c r="G93">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -4813,12 +4763,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>184–193</t>
+          <t>261–271</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4827,27 +4777,27 @@
         </is>
       </c>
       <c r="F94">
-        <v>4085</v>
+        <v>1581</v>
       </c>
       <c r="G94">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4807,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>254–260</t>
+          <t>83–100</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4872,31 +4822,31 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F95">
-        <v>1275</v>
+        <v>2426</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4861,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>242–253</t>
+          <t>349–361</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4921,31 +4871,31 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F96">
-        <v>2266</v>
+        <v>1906</v>
       </c>
       <c r="G96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Jian Wang</t>
         </is>
       </c>
     </row>
@@ -4953,6 +4903,16 @@
       <c r="A97">
         <v>2022</v>
       </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>323–335</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>2022-05</t>
@@ -4960,31 +4920,31 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F97">
-        <v>1453</v>
+        <v>1511</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
@@ -4999,41 +4959,41 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>156–183</t>
+          <t>230–241</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F98">
-        <v>5893</v>
+        <v>1885</v>
       </c>
       <c r="G98">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="H98">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
     </row>
@@ -5048,12 +5008,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>201–210</t>
+          <t>184–193</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5062,27 +5022,27 @@
         </is>
       </c>
       <c r="F99">
-        <v>1375</v>
+        <v>4177</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H99">
         <v>3</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
     </row>
@@ -5097,12 +5057,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>211–218</t>
+          <t>254–260</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5111,27 +5071,27 @@
         </is>
       </c>
       <c r="F100">
-        <v>1269</v>
+        <v>1291</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>2</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Yi Lu, Tianyu Zheng</t>
         </is>
       </c>
     </row>
@@ -5146,12 +5106,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>130–135</t>
+          <t>242–253</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5160,27 +5120,27 @@
         </is>
       </c>
       <c r="F101">
-        <v>1281</v>
+        <v>2322</v>
       </c>
       <c r="G101">
+        <v>5</v>
+      </c>
+      <c r="H101">
         <v>3</v>
       </c>
-      <c r="H101">
-        <v>2</v>
-      </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
     </row>
@@ -5188,48 +5148,38 @@
       <c r="A102">
         <v>2022</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>102–118</t>
-        </is>
-      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F102">
-        <v>2140</v>
+        <v>1478</v>
       </c>
       <c r="G102">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Li Jin</t>
         </is>
       </c>
     </row>
@@ -5244,41 +5194,41 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>194–200</t>
+          <t>156–183</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F103">
-        <v>1891</v>
+        <v>6004</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
     </row>
@@ -5293,12 +5243,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>136–144</t>
+          <t>201–210</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5307,27 +5257,27 @@
         </is>
       </c>
       <c r="F104">
-        <v>1128</v>
+        <v>1394</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5292,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1–17</t>
+          <t>211–218</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5352,31 +5302,31 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F105">
-        <v>3527</v>
+        <v>1282</v>
       </c>
       <c r="G105">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5341,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>130–135</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5405,27 +5355,27 @@
         </is>
       </c>
       <c r="F106">
-        <v>1791</v>
+        <v>1292</v>
       </c>
       <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
         <v>2</v>
       </c>
-      <c r="H106">
-        <v>6</v>
-      </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
     </row>
@@ -5440,7 +5390,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>102–118</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5450,31 +5400,31 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F107">
-        <v>3116</v>
+        <v>2162</v>
       </c>
       <c r="G107">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H107">
         <v>4</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5439,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>88–101</t>
+          <t>194–200</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5499,31 +5449,31 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F108">
-        <v>2406</v>
+        <v>1907</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
     </row>
@@ -5538,12 +5488,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>64–71</t>
+          <t>136–144</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5552,27 +5502,27 @@
         </is>
       </c>
       <c r="F109">
-        <v>1387</v>
+        <v>1148</v>
       </c>
       <c r="G109">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Yi Lu</t>
         </is>
       </c>
     </row>
@@ -5587,41 +5537,41 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>145–155</t>
+          <t>1–17</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F110">
-        <v>3473</v>
+        <v>3549</v>
       </c>
       <c r="G110">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H110">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
     </row>
@@ -5636,41 +5586,41 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>18–32</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F111">
-        <v>2565</v>
+        <v>1805</v>
       </c>
       <c r="G111">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Lin Li</t>
         </is>
       </c>
     </row>
@@ -5685,12 +5635,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>33–49</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5699,27 +5649,27 @@
         </is>
       </c>
       <c r="F112">
-        <v>2283</v>
+        <v>3177</v>
       </c>
       <c r="G112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
     </row>
@@ -5727,38 +5677,48 @@
       <c r="A113">
         <v>2022</v>
       </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>88–101</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F113">
-        <v>1525</v>
+        <v>2425</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
     </row>
@@ -5773,7 +5733,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>295–311</t>
+          <t>64–71</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5787,27 +5747,27 @@
         </is>
       </c>
       <c r="F114">
-        <v>2933</v>
+        <v>1414</v>
       </c>
       <c r="G114">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H114">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5782,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>272–281</t>
+          <t>145–155</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5832,37 +5792,37 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F115">
-        <v>4414</v>
+        <v>3501</v>
       </c>
       <c r="G115">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Martin Picard</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -5871,12 +5831,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>79–87</t>
+          <t>18–32</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5885,33 +5845,33 @@
         </is>
       </c>
       <c r="F116">
-        <v>4959</v>
+        <v>2590</v>
       </c>
       <c r="G116">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -5920,110 +5880,100 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>72–77</t>
+          <t>33–49</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F117">
-        <v>1520</v>
+        <v>2305</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Jixi Li</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>2021</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>285–298</t>
-        </is>
+        <v>2022</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F118">
-        <v>2206</v>
+        <v>1550</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>243–256</t>
+          <t>295–311</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6032,76 +5982,76 @@
         </is>
       </c>
       <c r="F119">
-        <v>2328</v>
+        <v>2972</v>
       </c>
       <c r="G119">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>269–284</t>
+          <t>272–281</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F120">
-        <v>2249</v>
+        <v>4466</v>
       </c>
       <c r="G120">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
     </row>
@@ -6111,46 +6061,46 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>257–268</t>
+          <t>79–87</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F121">
-        <v>2231</v>
+        <v>5055</v>
       </c>
       <c r="G121">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H121">
         <v>3</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
     </row>
@@ -6160,46 +6110,46 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>199–210</t>
+          <t>72–77</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F122">
-        <v>2184</v>
+        <v>1534</v>
       </c>
       <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
         <v>4</v>
       </c>
-      <c r="H122">
-        <v>2</v>
-      </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
     </row>
@@ -6214,12 +6164,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>211–221</t>
+          <t>285–298</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6228,27 +6178,27 @@
         </is>
       </c>
       <c r="F123">
-        <v>1894</v>
+        <v>2212</v>
       </c>
       <c r="G123">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H123">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
     </row>
@@ -6263,41 +6213,41 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>222–228</t>
+          <t>243–256</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F124">
-        <v>4362</v>
+        <v>2354</v>
       </c>
       <c r="G124">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
     </row>
@@ -6312,41 +6262,41 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>229–241</t>
+          <t>269–284</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F125">
-        <v>2152</v>
+        <v>2271</v>
       </c>
       <c r="G125">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
     </row>
@@ -6361,12 +6311,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>186–198</t>
+          <t>257–268</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6375,27 +6325,27 @@
         </is>
       </c>
       <c r="F126">
-        <v>1998</v>
+        <v>2249</v>
       </c>
       <c r="G126">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
     </row>
@@ -6410,41 +6360,41 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>171–185</t>
+          <t>199–210</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F127">
-        <v>2511</v>
+        <v>2206</v>
       </c>
       <c r="G127">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H127">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
     </row>
@@ -6459,41 +6409,41 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>151–170</t>
+          <t>211–221</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F128">
-        <v>5349</v>
+        <v>1908</v>
       </c>
       <c r="G128">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
     </row>
@@ -6508,12 +6458,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>143–150</t>
+          <t>222–228</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6522,27 +6472,27 @@
         </is>
       </c>
       <c r="F129">
-        <v>5085</v>
+        <v>4480</v>
       </c>
       <c r="G129">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H129">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
     </row>
@@ -6557,41 +6507,41 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>91–104</t>
+          <t>229–241</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F130">
-        <v>4501</v>
+        <v>2164</v>
       </c>
       <c r="G130">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H130">
         <v>3</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
     </row>
@@ -6606,41 +6556,41 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>113–128</t>
+          <t>186–198</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F131">
-        <v>5202</v>
+        <v>2015</v>
       </c>
       <c r="G131">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H131">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
     </row>
@@ -6655,12 +6605,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>129–142</t>
+          <t>171–185</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6669,27 +6619,27 @@
         </is>
       </c>
       <c r="F132">
-        <v>4333</v>
+        <v>2523</v>
       </c>
       <c r="G132">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
     </row>
@@ -6704,41 +6654,41 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>105–112</t>
+          <t>151–170</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F133">
-        <v>1651</v>
+        <v>5448</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H133">
         <v>2</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
     </row>
@@ -6753,41 +6703,41 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>73–89</t>
+          <t>143–150</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F134">
-        <v>2344</v>
+        <v>5130</v>
       </c>
       <c r="G134">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
     </row>
@@ -6802,12 +6752,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>62–72</t>
+          <t>91–104</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6816,27 +6766,27 @@
         </is>
       </c>
       <c r="F135">
-        <v>3797</v>
+        <v>4604</v>
       </c>
       <c r="G135">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H135">
         <v>3</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
     </row>
@@ -6851,12 +6801,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>31–53</t>
+          <t>113–128</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6865,27 +6815,27 @@
         </is>
       </c>
       <c r="F136">
-        <v>5555</v>
+        <v>5259</v>
       </c>
       <c r="G136">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Xinhua Lin, Bing Zhao</t>
         </is>
       </c>
     </row>
@@ -6900,41 +6850,41 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>54–61</t>
+          <t>129–142</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F137">
-        <v>4541</v>
+        <v>4402</v>
       </c>
       <c r="G137">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H137">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -6949,12 +6899,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>22–30</t>
+          <t>105–112</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6963,27 +6913,27 @@
         </is>
       </c>
       <c r="F138">
-        <v>5765</v>
+        <v>1656</v>
       </c>
       <c r="G138">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Xun Gu</t>
         </is>
       </c>
     </row>
@@ -6998,41 +6948,41 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>15–21</t>
+          <t>73–89</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F139">
-        <v>2930</v>
+        <v>2353</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H139">
         <v>3</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
     </row>
@@ -7047,12 +6997,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>3–14</t>
+          <t>62–72</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7061,27 +7011,27 @@
         </is>
       </c>
       <c r="F140">
-        <v>7486</v>
+        <v>3835</v>
       </c>
       <c r="G140">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H140">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Shenghong Ju</t>
         </is>
       </c>
     </row>
@@ -7096,39 +7046,284 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>31–53</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F141">
+        <v>5586</v>
+      </c>
+      <c r="G141">
+        <v>38</v>
+      </c>
+      <c r="H141">
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>2021-05-11</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Neelam R. Yadav</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>2021</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>54–61</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F142">
+        <v>4591</v>
+      </c>
+      <c r="G142">
+        <v>5</v>
+      </c>
+      <c r="H142">
+        <v>5</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Wei Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>2021</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>22–30</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F143">
+        <v>5837</v>
+      </c>
+      <c r="G143">
+        <v>15</v>
+      </c>
+      <c r="H143">
+        <v>12</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Gong Zhang, Jingjie Jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>2021</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>15–21</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Correspondence</t>
+        </is>
+      </c>
+      <c r="F144">
+        <v>2951</v>
+      </c>
+      <c r="G144">
+        <v>2</v>
+      </c>
+      <c r="H144">
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>2021</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>3–14</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F145">
+        <v>7563</v>
+      </c>
+      <c r="G145">
+        <v>6</v>
+      </c>
+      <c r="H145">
+        <v>16</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Jiucun Wang, Li Jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>2021</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
           <t>1–2</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>Editorial</t>
         </is>
       </c>
-      <c r="F141">
-        <v>6182</v>
-      </c>
-      <c r="G141">
+      <c r="F146">
+        <v>6277</v>
+      </c>
+      <c r="G146">
         <v>12</v>
       </c>
-      <c r="H141">
+      <c r="H146">
         <v>7</v>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="I146" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="J146" t="inlineStr">
         <is>
           <t>https://link.springer.com/article/10.1007/s43657-020-00009-4</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="K146" t="inlineStr">
         <is>
           <t>Li Jin</t>
         </is>

--- a/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,11 +425,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence/Letter to the Editor</t>
         </is>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,17 +439,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00134-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00164-y</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Huan Song</t>
+          <t>Binhao Shi, Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
     </row>
@@ -468,13 +468,13 @@
         </is>
       </c>
       <c r="F3">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -483,12 +483,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00132-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00134-w</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Yongjun Wang, Yanping Yang</t>
+          <t>Huan Song</t>
         </is>
       </c>
     </row>
@@ -503,31 +503,31 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F4">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00149-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00132-y</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Yongjun Wang, Yanping Yang</t>
         </is>
       </c>
     </row>
@@ -537,36 +537,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F5">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00154-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00149-3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Zheng Liu, Zhihong Zhang</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="F6">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,12 +600,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00140-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00154-6</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Zhifei Dai, Desheng Sun</t>
+          <t>Zheng Liu, Zhihong Zhang</t>
         </is>
       </c>
     </row>
@@ -620,31 +620,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F7">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00140-y</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
+          <t>Zhifei Dai, Desheng Sun</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
         </is>
       </c>
       <c r="F8">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-06-01</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
+          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
         </is>
       </c>
     </row>
@@ -693,36 +693,36 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F9">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
         </is>
       </c>
     </row>
@@ -737,31 +737,31 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F10">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Hao Cheng, Bin Li</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
@@ -769,16 +769,6 @@
       <c r="A11">
         <v>2024</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>125–137</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2024-05</t>
@@ -786,31 +776,31 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F11">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-05-04</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Bi Chen, Bing Gu</t>
+          <t>Hao Cheng, Bin Li</t>
         </is>
       </c>
     </row>
@@ -818,6 +808,16 @@
       <c r="A12">
         <v>2024</v>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>125–137</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>2024-05</t>
@@ -829,27 +829,27 @@
         </is>
       </c>
       <c r="F12">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Jie Chen</t>
+          <t>Bi Chen, Bing Gu</t>
         </is>
       </c>
     </row>
@@ -859,36 +859,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F13">
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Yan Zheng, Zhonghan Sun</t>
+          <t>Jie Chen</t>
         </is>
       </c>
     </row>
@@ -903,31 +903,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F14">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Yong Zhang</t>
+          <t>Yan Zheng, Zhonghan Sun</t>
         </is>
       </c>
     </row>
@@ -935,16 +935,6 @@
       <c r="A15">
         <v>2024</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>91–108</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>2024-04</t>
@@ -956,27 +946,27 @@
         </is>
       </c>
       <c r="F15">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
+          <t>Yong Zhang</t>
         </is>
       </c>
     </row>
@@ -991,12 +981,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>146–157</t>
+          <t>91–108</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1005,27 +995,27 @@
         </is>
       </c>
       <c r="F16">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Xujie Zhou</t>
+          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1030,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>34–45</t>
+          <t>146–157</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1054,27 +1044,27 @@
         </is>
       </c>
       <c r="F17">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
+          <t>Xujie Zhou</t>
         </is>
       </c>
     </row>
@@ -1082,6 +1072,16 @@
       <c r="A18">
         <v>2024</v>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>34–45</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>2024-03</t>
@@ -1093,27 +1093,27 @@
         </is>
       </c>
       <c r="F18">
-        <v>486</v>
+        <v>305</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
+          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
         </is>
       </c>
     </row>
@@ -1121,16 +1121,6 @@
       <c r="A19">
         <v>2024</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>203–212</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>2024-03</t>
@@ -1138,31 +1128,31 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F19">
-        <v>272</v>
+        <v>496</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>11</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1167,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>187–202</t>
+          <t>203–212</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1187,31 +1177,31 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F20">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
     </row>
@@ -1219,6 +1209,16 @@
       <c r="A21">
         <v>2024</v>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>187–202</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2024-03</t>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="F21">
-        <v>1812</v>
+        <v>310</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -1245,12 +1245,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Leming Shi, Yuanting Zheng</t>
+          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
         </is>
       </c>
     </row>
@@ -1258,19 +1258,9 @@
       <c r="A22">
         <v>2024</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>56–71</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1279,27 +1269,27 @@
         </is>
       </c>
       <c r="F22">
-        <v>603</v>
+        <v>1832</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
+          <t>Leming Shi, Yuanting Zheng</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1304,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>24–33</t>
+          <t>56–71</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1324,31 +1314,31 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F23">
-        <v>871</v>
+        <v>621</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Wei Sheng, Guoying Huang</t>
+          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
         </is>
       </c>
     </row>
@@ -1363,12 +1353,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13–23</t>
+          <t>24–33</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1377,7 +1367,7 @@
         </is>
       </c>
       <c r="F24">
-        <v>342</v>
+        <v>886</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1387,37 +1377,37 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Wei Sheng, Guoying Huang</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>549–564</t>
+          <t>13–23</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1426,27 +1416,27 @@
         </is>
       </c>
       <c r="F25">
-        <v>1903</v>
+        <v>364</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1451,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>586–596</t>
+          <t>549–564</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1471,31 +1461,31 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F26">
-        <v>495</v>
+        <v>1913</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Guifen Yang, Longjiang Zhang</t>
+          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1500,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>639–641</t>
+          <t>586–596</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1520,31 +1510,31 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F27">
-        <v>750</v>
+        <v>497</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Michael C. Kreissl</t>
+          <t>Guifen Yang, Longjiang Zhang</t>
         </is>
       </c>
     </row>
@@ -1559,41 +1549,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>597–612</t>
+          <t>639–641</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F28">
-        <v>1886</v>
+        <v>755</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Michael C. Kreissl</t>
         </is>
       </c>
     </row>
@@ -1608,12 +1598,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>613–638</t>
+          <t>597–612</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1622,27 +1612,27 @@
         </is>
       </c>
       <c r="F29">
-        <v>916</v>
+        <v>1901</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Cong Li</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
@@ -1650,6 +1640,16 @@
       <c r="A30">
         <v>2023</v>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>613–638</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>2023-10</t>
@@ -1657,31 +1657,31 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F30">
-        <v>657</v>
+        <v>921</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Hao Wu, Guoping Zhao</t>
+          <t>Cong Li</t>
         </is>
       </c>
     </row>
@@ -1689,16 +1689,6 @@
       <c r="A31">
         <v>2023</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>535–547</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>2023-10</t>
@@ -1706,31 +1696,31 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Editorial</t>
         </is>
       </c>
       <c r="F31">
-        <v>610</v>
+        <v>666</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Ning-Ning Liu</t>
+          <t>Hao Wu, Guoping Zhao</t>
         </is>
       </c>
     </row>
@@ -1740,12 +1730,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>171–186</t>
+          <t>535–547</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1759,27 +1749,27 @@
         </is>
       </c>
       <c r="F32">
-        <v>376</v>
+        <v>613</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Xiaolei Ren, Zhihong Li</t>
+          <t>Ning-Ning Liu</t>
         </is>
       </c>
     </row>
@@ -1794,41 +1784,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>72–80</t>
+          <t>171–186</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F33">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Boyi Li, Dean Ta</t>
+          <t>Xiaolei Ren, Zhihong Li</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1833,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>51–55</t>
+          <t>72–80</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1853,31 +1843,31 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F34">
-        <v>770</v>
+        <v>463</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
+          <t>Boyi Li, Dean Ta</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1882,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>109–124</t>
+          <t>51–55</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1902,31 +1892,31 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F35">
-        <v>1770</v>
+        <v>778</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
+          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1931,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>81–89</t>
+          <t>109–124</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1951,31 +1941,31 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F36">
-        <v>529</v>
+        <v>1812</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
         </is>
       </c>
     </row>
@@ -1985,12 +1975,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>496–501</t>
+          <t>81–89</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2000,31 +1990,31 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F37">
-        <v>646</v>
+        <v>543</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Weimin Ye</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -2034,12 +2024,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>158–170</t>
+          <t>496–501</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2049,31 +2039,31 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F38">
-        <v>416</v>
+        <v>650</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Ying Xu, Jiaxue Wu</t>
+          <t>Weimin Ye</t>
         </is>
       </c>
     </row>
@@ -2088,41 +2078,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>46–50</t>
+          <t>158–170</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F39">
-        <v>980</v>
+        <v>449</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
+          <t>Ying Xu, Jiaxue Wu</t>
         </is>
       </c>
     </row>
@@ -2132,12 +2122,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>469–484</t>
+          <t>46–50</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2147,31 +2137,31 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F40">
-        <v>415</v>
+        <v>990</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Menghan Hu, Min Dai</t>
+          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
         </is>
       </c>
     </row>
@@ -2186,21 +2176,21 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>519–534</t>
+          <t>469–484</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F41">
-        <v>546</v>
+        <v>417</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -2210,17 +2200,17 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Jingjing Luo</t>
+          <t>Menghan Hu, Min Dai</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2225,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>576–585</t>
+          <t>519–534</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2245,31 +2235,31 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F42">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Xin Li, Xiang Li</t>
+          <t>Jingjing Luo</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2274,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>329–332</t>
+          <t>576–585</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2294,31 +2284,31 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F43">
-        <v>737</v>
+        <v>501</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bing Su</t>
+          <t>Xin Li, Xiang Li</t>
         </is>
       </c>
     </row>
@@ -2326,6 +2316,16 @@
       <c r="A44">
         <v>2023</v>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>329–332</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>2023-07</t>
@@ -2333,31 +2333,31 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F44">
-        <v>922</v>
+        <v>739</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Bing Su</t>
         </is>
       </c>
     </row>
@@ -2365,48 +2365,38 @@
       <c r="A45">
         <v>2023</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>485–495</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F45">
-        <v>472</v>
+        <v>931</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2411,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>390–407</t>
+          <t>485–495</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2435,27 +2425,27 @@
         </is>
       </c>
       <c r="F46">
-        <v>682</v>
+        <v>476</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Li Zhang, Weimin Li</t>
+          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
         </is>
       </c>
     </row>
@@ -2470,7 +2460,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>439–456</t>
+          <t>390–407</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2484,27 +2474,27 @@
         </is>
       </c>
       <c r="F47">
-        <v>1805</v>
+        <v>689</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Guoping Zhao, Guoqing Zhang</t>
+          <t>Li Zhang, Weimin Li</t>
         </is>
       </c>
     </row>
@@ -2514,12 +2504,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1–12</t>
+          <t>439–456</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2533,27 +2523,27 @@
         </is>
       </c>
       <c r="F48">
-        <v>2263</v>
+        <v>1815</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
+          <t>Guoping Zhao, Guoqing Zhang</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2558,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>138–145</t>
+          <t>1–12</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2582,27 +2572,27 @@
         </is>
       </c>
       <c r="F49">
-        <v>1622</v>
+        <v>2294</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Li Jin, Jiucun Wang</t>
+          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
         </is>
       </c>
     </row>
@@ -2612,17 +2602,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>360–374</t>
+          <t>138–145</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2631,27 +2621,27 @@
         </is>
       </c>
       <c r="F50">
-        <v>4512</v>
+        <v>1638</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
+          <t>Li Jin, Jiucun Wang</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2656,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>350–359</t>
+          <t>360–374</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2680,27 +2670,27 @@
         </is>
       </c>
       <c r="F51">
-        <v>614</v>
+        <v>4534</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
+          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
         </is>
       </c>
     </row>
@@ -2715,7 +2705,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>421–438</t>
+          <t>350–359</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2725,31 +2715,31 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F52">
-        <v>2504</v>
+        <v>617</v>
       </c>
       <c r="G52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
+          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
         </is>
       </c>
     </row>
@@ -2764,41 +2754,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>228–242</t>
+          <t>421–438</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F53">
-        <v>760</v>
+        <v>2514</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H53">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Lin Zhang, Dan Chen</t>
+          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2803,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>333–349</t>
+          <t>228–242</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2823,31 +2813,31 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F54">
-        <v>3848</v>
+        <v>764</v>
       </c>
       <c r="G54">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Jianping Jia</t>
+          <t>Lin Zhang, Dan Chen</t>
         </is>
       </c>
     </row>
@@ -2862,41 +2852,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>217–227</t>
+          <t>333–349</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F55">
-        <v>3974</v>
+        <v>3865</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H55">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Jianping Jia</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2901,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>300–308</t>
+          <t>217–227</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2921,31 +2911,31 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F56">
-        <v>1305</v>
+        <v>3986</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2950,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>457–468</t>
+          <t>300–308</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2970,31 +2960,31 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F57">
-        <v>695</v>
+        <v>1311</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H57">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+          <t>Zhexue Quan, Yan Zheng</t>
         </is>
       </c>
     </row>
@@ -3009,7 +2999,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>408–420</t>
+          <t>457–468</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3023,27 +3013,27 @@
         </is>
       </c>
       <c r="F58">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3048,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>268–284</t>
+          <t>408–420</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3068,17 +3058,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F59">
-        <v>1518</v>
+        <v>707</v>
       </c>
       <c r="G59">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3087,12 +3077,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
+          <t>Dean Ta</t>
         </is>
       </c>
     </row>
@@ -3107,41 +3097,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>309–328</t>
+          <t>268–284</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F60">
-        <v>6909</v>
+        <v>1523</v>
       </c>
       <c r="G60">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Shangyu Hong, Yan Sun</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3146,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>190–203</t>
+          <t>309–328</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3166,31 +3156,31 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F61">
-        <v>802</v>
+        <v>6928</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3195,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>167–181</t>
+          <t>190–203</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3215,31 +3205,31 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F62">
-        <v>1044</v>
+        <v>804</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
+          <t>Hongfeng Chen</t>
         </is>
       </c>
     </row>
@@ -3254,41 +3244,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>642–656</t>
+          <t>167–181</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F63">
-        <v>1097</v>
+        <v>1046</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
         </is>
       </c>
     </row>
@@ -3303,7 +3293,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>285–299</t>
+          <t>642–656</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3313,17 +3303,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F64">
-        <v>3919</v>
+        <v>1099</v>
       </c>
       <c r="G64">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3332,12 +3322,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
@@ -3352,7 +3342,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>502–518</t>
+          <t>285–299</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3362,17 +3352,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F65">
-        <v>1210</v>
+        <v>3927</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3381,12 +3371,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Hui Li</t>
+          <t>Weihai Ying</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3391,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>243–254</t>
+          <t>502–518</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3411,17 +3401,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F66">
-        <v>1296</v>
+        <v>1212</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3430,18 +3420,18 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
+          <t>Hui Li</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3450,12 +3440,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>148–166</t>
+          <t>243–254</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3464,27 +3454,27 @@
         </is>
       </c>
       <c r="F67">
-        <v>1623</v>
+        <v>1298</v>
       </c>
       <c r="G67">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3489,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>130–137</t>
+          <t>148–166</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3513,27 +3503,27 @@
         </is>
       </c>
       <c r="F68">
-        <v>1221</v>
+        <v>1625</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Wei Yan, Jie Jin</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3538,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>101–118</t>
+          <t>130–137</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3558,31 +3548,31 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F69">
-        <v>1287</v>
+        <v>1223</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>He Wang</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3587,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>255–267</t>
+          <t>101–118</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3607,17 +3597,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F70">
-        <v>1438</v>
+        <v>1290</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3626,12 +3616,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>He Wang</t>
         </is>
       </c>
     </row>
@@ -3639,38 +3629,48 @@
       <c r="A71">
         <v>2022</v>
       </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>255–267</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F71">
-        <v>1316</v>
+        <v>1440</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
         </is>
       </c>
     </row>
@@ -3678,16 +3678,6 @@
       <c r="A72">
         <v>2022</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>119–129</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>2022-11</t>
@@ -3695,31 +3685,31 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F72">
-        <v>3397</v>
+        <v>1320</v>
       </c>
       <c r="G72">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3724,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>64–76</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3748,27 +3738,27 @@
         </is>
       </c>
       <c r="F73">
-        <v>4125</v>
+        <v>3404</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H73">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
     </row>
@@ -3783,12 +3773,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>34–49</t>
+          <t>64–76</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3797,27 +3787,27 @@
         </is>
       </c>
       <c r="F74">
-        <v>1771</v>
+        <v>4132</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3822,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>34–49</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3846,27 +3836,27 @@
         </is>
       </c>
       <c r="F75">
-        <v>1421</v>
+        <v>1773</v>
       </c>
       <c r="G75">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3871,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>22–33</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3895,27 +3885,27 @@
         </is>
       </c>
       <c r="F76">
-        <v>1544</v>
+        <v>1423</v>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H76">
         <v>3</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
     </row>
@@ -3925,12 +3915,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>383–388</t>
+          <t>22–33</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3940,31 +3930,31 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F77">
-        <v>3352</v>
+        <v>1546</v>
       </c>
       <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
         <v>3</v>
       </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
     </row>
@@ -3974,12 +3964,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>565–575</t>
+          <t>383–388</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3989,31 +3979,31 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F78">
-        <v>1299</v>
+        <v>3359</v>
       </c>
       <c r="G78">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
     </row>
@@ -4023,12 +4013,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>363–382</t>
+          <t>565–575</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4038,17 +4028,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F79">
-        <v>8839</v>
+        <v>1303</v>
       </c>
       <c r="G79">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H79">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -4057,12 +4047,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
     </row>
@@ -4077,41 +4067,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>430–437</t>
+          <t>363–382</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F80">
-        <v>2070</v>
+        <v>8872</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4116,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>404–418</t>
+          <t>430–437</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4140,27 +4130,27 @@
         </is>
       </c>
       <c r="F81">
-        <v>1761</v>
+        <v>2078</v>
       </c>
       <c r="G81">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
         </is>
       </c>
     </row>
@@ -4170,12 +4160,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>204–215</t>
+          <t>404–418</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4185,31 +4175,31 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F82">
-        <v>1368</v>
+        <v>1765</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
         </is>
       </c>
     </row>
@@ -4224,41 +4214,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>375–389</t>
+          <t>204–215</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F83">
-        <v>5121</v>
+        <v>1370</v>
       </c>
       <c r="G83">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
     </row>
@@ -4268,12 +4258,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>419–429</t>
+          <t>375–389</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4287,27 +4277,27 @@
         </is>
       </c>
       <c r="F84">
-        <v>1516</v>
+        <v>5138</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4307,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>138–147</t>
+          <t>419–429</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4336,27 +4326,27 @@
         </is>
       </c>
       <c r="F85">
-        <v>1243</v>
+        <v>1521</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Shouling Wu, An Pan</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4356,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>389–403</t>
+          <t>138–147</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4385,27 +4375,27 @@
         </is>
       </c>
       <c r="F86">
-        <v>2853</v>
+        <v>1245</v>
       </c>
       <c r="G86">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
     </row>
@@ -4415,46 +4405,46 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>77–82</t>
+          <t>389–403</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F87">
-        <v>3913</v>
+        <v>2858</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H87">
         <v>4</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Yong Wang</t>
         </is>
       </c>
     </row>
@@ -4464,12 +4454,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>219–229</t>
+          <t>77–82</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4479,14 +4469,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="F88">
-        <v>1607</v>
+        <v>3917</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -4498,12 +4488,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
@@ -4518,7 +4508,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>336–348</t>
+          <t>219–229</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4528,31 +4518,31 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F89">
-        <v>3285</v>
+        <v>1609</v>
       </c>
       <c r="G89">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
     </row>
@@ -4562,12 +4552,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1–21</t>
+          <t>336–348</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4577,31 +4567,31 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F90">
-        <v>1966</v>
+        <v>3289</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
         </is>
       </c>
     </row>
@@ -4611,12 +4601,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>283–294</t>
+          <t>1–21</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4630,27 +4620,27 @@
         </is>
       </c>
       <c r="F91">
-        <v>1932</v>
+        <v>1970</v>
       </c>
       <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
         <v>4</v>
       </c>
-      <c r="H91">
-        <v>2</v>
-      </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
     </row>
@@ -4660,12 +4650,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>182–189</t>
+          <t>283–294</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4679,27 +4669,27 @@
         </is>
       </c>
       <c r="F92">
-        <v>2089</v>
+        <v>1936</v>
       </c>
       <c r="G92">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
     </row>
@@ -4709,12 +4699,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>312–322</t>
+          <t>182–189</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4728,27 +4718,27 @@
         </is>
       </c>
       <c r="F93">
-        <v>2786</v>
+        <v>2098</v>
       </c>
       <c r="G93">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4753,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>261–271</t>
+          <t>312–322</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4777,27 +4767,27 @@
         </is>
       </c>
       <c r="F94">
-        <v>1581</v>
+        <v>2798</v>
       </c>
       <c r="G94">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -4807,46 +4797,46 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>83–100</t>
+          <t>261–271</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F95">
-        <v>2426</v>
+        <v>1583</v>
       </c>
       <c r="G95">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
         </is>
       </c>
     </row>
@@ -4856,12 +4846,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>349–361</t>
+          <t>83–100</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4875,27 +4865,27 @@
         </is>
       </c>
       <c r="F96">
-        <v>1906</v>
+        <v>2428</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H96">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4900,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>323–335</t>
+          <t>349–361</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4920,31 +4910,31 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F97">
-        <v>1511</v>
+        <v>1909</v>
       </c>
       <c r="G97">
         <v>4</v>
       </c>
       <c r="H97">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Jian Wang</t>
         </is>
       </c>
     </row>
@@ -4959,7 +4949,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>230–241</t>
+          <t>323–335</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4973,27 +4963,27 @@
         </is>
       </c>
       <c r="F98">
-        <v>1885</v>
+        <v>1513</v>
       </c>
       <c r="G98">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
@@ -5008,7 +4998,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>184–193</t>
+          <t>230–241</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5022,27 +5012,27 @@
         </is>
       </c>
       <c r="F99">
-        <v>4177</v>
+        <v>1887</v>
       </c>
       <c r="G99">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5047,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>254–260</t>
+          <t>184–193</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5071,27 +5061,27 @@
         </is>
       </c>
       <c r="F100">
-        <v>1291</v>
+        <v>4188</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5096,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>242–253</t>
+          <t>254–260</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5120,13 +5110,13 @@
         </is>
       </c>
       <c r="F101">
-        <v>2322</v>
+        <v>1293</v>
       </c>
       <c r="G101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -5135,12 +5125,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Yi Lu, Tianyu Zheng</t>
         </is>
       </c>
     </row>
@@ -5148,6 +5138,16 @@
       <c r="A102">
         <v>2022</v>
       </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>242–253</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>2022-05</t>
@@ -5155,31 +5155,31 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F102">
-        <v>1478</v>
+        <v>2328</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
     </row>
@@ -5187,48 +5187,38 @@
       <c r="A103">
         <v>2022</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>156–183</t>
-        </is>
-      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F103">
-        <v>6004</v>
+        <v>1484</v>
       </c>
       <c r="G103">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
+          <t>Li Jin</t>
         </is>
       </c>
     </row>
@@ -5243,41 +5233,41 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>201–210</t>
+          <t>156–183</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F104">
-        <v>1394</v>
+        <v>6015</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
     </row>
@@ -5292,12 +5282,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>211–218</t>
+          <t>201–210</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5306,27 +5296,27 @@
         </is>
       </c>
       <c r="F105">
-        <v>1282</v>
+        <v>1396</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
     </row>
@@ -5341,7 +5331,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>130–135</t>
+          <t>211–218</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5355,22 +5345,22 @@
         </is>
       </c>
       <c r="F106">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -5390,7 +5380,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>102–118</t>
+          <t>130–135</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5400,31 +5390,31 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F107">
-        <v>2162</v>
+        <v>1294</v>
       </c>
       <c r="G107">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5429,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>194–200</t>
+          <t>102–118</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5449,31 +5439,31 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F108">
-        <v>1907</v>
+        <v>2164</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5478,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>136–144</t>
+          <t>194–200</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5502,27 +5492,27 @@
         </is>
       </c>
       <c r="F109">
-        <v>1148</v>
+        <v>1909</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5527,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1–17</t>
+          <t>136–144</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5547,17 +5537,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F110">
-        <v>3549</v>
+        <v>1150</v>
       </c>
       <c r="G110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -5566,12 +5556,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Yi Lu</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5576,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>1–17</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5596,31 +5586,31 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F111">
-        <v>1805</v>
+        <v>3554</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H111">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5625,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5649,27 +5639,27 @@
         </is>
       </c>
       <c r="F112">
-        <v>3177</v>
+        <v>1807</v>
       </c>
       <c r="G112">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Lin Li</t>
         </is>
       </c>
     </row>
@@ -5684,7 +5674,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>88–101</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5694,31 +5684,31 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F113">
-        <v>2425</v>
+        <v>3180</v>
       </c>
       <c r="G113">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H113">
         <v>7</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
     </row>
@@ -5733,41 +5723,41 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>64–71</t>
+          <t>88–101</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F114">
-        <v>1414</v>
+        <v>2427</v>
       </c>
       <c r="G114">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
     </row>
@@ -5782,7 +5772,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>145–155</t>
+          <t>64–71</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5792,31 +5782,31 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F115">
-        <v>3501</v>
+        <v>1416</v>
       </c>
       <c r="G115">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H115">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5821,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>18–32</t>
+          <t>145–155</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5841,31 +5831,31 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F116">
-        <v>2590</v>
+        <v>3503</v>
       </c>
       <c r="G116">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Martin Picard</t>
         </is>
       </c>
     </row>
@@ -5880,7 +5870,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>33–49</t>
+          <t>18–32</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5890,31 +5880,31 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F117">
-        <v>2305</v>
+        <v>2594</v>
       </c>
       <c r="G117">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
@@ -5922,6 +5912,16 @@
       <c r="A118">
         <v>2022</v>
       </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>33–49</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>2022-01</t>
@@ -5929,31 +5929,31 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F118">
-        <v>1550</v>
+        <v>2309</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Jixi Li</t>
         </is>
       </c>
     </row>
@@ -5961,16 +5961,6 @@
       <c r="A119">
         <v>2022</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>295–311</t>
-        </is>
-      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>2022-01</t>
@@ -5978,31 +5968,31 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F119">
-        <v>2972</v>
+        <v>1553</v>
       </c>
       <c r="G119">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6007,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>272–281</t>
+          <t>295–311</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6027,37 +6017,37 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F120">
-        <v>4466</v>
+        <v>2975</v>
       </c>
       <c r="G120">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -6066,12 +6056,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>79–87</t>
+          <t>272–281</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6080,27 +6070,27 @@
         </is>
       </c>
       <c r="F121">
-        <v>5055</v>
+        <v>4471</v>
       </c>
       <c r="G121">
         <v>5</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
     </row>
@@ -6115,41 +6105,41 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>72–77</t>
+          <t>79–87</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F122">
-        <v>1534</v>
+        <v>5060</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
     </row>
@@ -6159,12 +6149,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>285–298</t>
+          <t>72–77</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6174,31 +6164,31 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F123">
-        <v>2212</v>
+        <v>1536</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
     </row>
@@ -6213,12 +6203,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>243–256</t>
+          <t>285–298</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6227,27 +6217,27 @@
         </is>
       </c>
       <c r="F124">
-        <v>2354</v>
+        <v>2214</v>
       </c>
       <c r="G124">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H124">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6252,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>269–284</t>
+          <t>243–256</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -6276,27 +6266,27 @@
         </is>
       </c>
       <c r="F125">
-        <v>2271</v>
+        <v>2356</v>
       </c>
       <c r="G125">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H125">
         <v>6</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6301,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>257–268</t>
+          <t>269–284</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6325,27 +6315,27 @@
         </is>
       </c>
       <c r="F126">
-        <v>2249</v>
+        <v>2273</v>
       </c>
       <c r="G126">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6350,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>199–210</t>
+          <t>257–268</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6374,27 +6364,27 @@
         </is>
       </c>
       <c r="F127">
-        <v>2206</v>
+        <v>2252</v>
       </c>
       <c r="G127">
+        <v>18</v>
+      </c>
+      <c r="H127">
         <v>4</v>
       </c>
-      <c r="H127">
-        <v>3</v>
-      </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
     </row>
@@ -6409,12 +6399,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>211–221</t>
+          <t>199–210</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6423,27 +6413,27 @@
         </is>
       </c>
       <c r="F128">
-        <v>1908</v>
+        <v>2215</v>
       </c>
       <c r="G128">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H128">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6448,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>222–228</t>
+          <t>211–221</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6468,31 +6458,31 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F129">
-        <v>4480</v>
+        <v>1912</v>
       </c>
       <c r="G129">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
     </row>
@@ -6507,12 +6497,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>229–241</t>
+          <t>222–228</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6521,27 +6511,27 @@
         </is>
       </c>
       <c r="F130">
-        <v>2164</v>
+        <v>4488</v>
       </c>
       <c r="G130">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6546,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>186–198</t>
+          <t>229–241</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6566,31 +6556,31 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F131">
-        <v>2015</v>
+        <v>2166</v>
       </c>
       <c r="G131">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
     </row>
@@ -6605,7 +6595,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>171–185</t>
+          <t>186–198</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6615,31 +6605,31 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F132">
-        <v>2523</v>
+        <v>2017</v>
       </c>
       <c r="G132">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
     </row>
@@ -6654,12 +6644,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>151–170</t>
+          <t>171–185</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6668,27 +6658,27 @@
         </is>
       </c>
       <c r="F133">
-        <v>5448</v>
+        <v>2525</v>
       </c>
       <c r="G133">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
     </row>
@@ -6703,7 +6693,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>143–150</t>
+          <t>151–170</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6717,27 +6707,27 @@
         </is>
       </c>
       <c r="F134">
-        <v>5130</v>
+        <v>5457</v>
       </c>
       <c r="G134">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H134">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
     </row>
@@ -6752,7 +6742,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>91–104</t>
+          <t>143–150</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6762,31 +6752,31 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F135">
-        <v>4604</v>
+        <v>5134</v>
       </c>
       <c r="G135">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
     </row>
@@ -6801,7 +6791,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>113–128</t>
+          <t>91–104</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6811,31 +6801,31 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F136">
-        <v>5259</v>
+        <v>4617</v>
       </c>
       <c r="G136">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H136">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
     </row>
@@ -6850,12 +6840,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>129–142</t>
+          <t>113–128</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6864,27 +6854,27 @@
         </is>
       </c>
       <c r="F137">
-        <v>4402</v>
+        <v>5268</v>
       </c>
       <c r="G137">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Xinhua Lin, Bing Zhao</t>
         </is>
       </c>
     </row>
@@ -6899,7 +6889,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>105–112</t>
+          <t>129–142</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6909,17 +6899,17 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F138">
-        <v>1656</v>
+        <v>4406</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -6928,12 +6918,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -6948,12 +6938,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>73–89</t>
+          <t>105–112</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6962,27 +6952,27 @@
         </is>
       </c>
       <c r="F139">
-        <v>2353</v>
+        <v>1658</v>
       </c>
       <c r="G139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Xun Gu</t>
         </is>
       </c>
     </row>
@@ -6997,7 +6987,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>62–72</t>
+          <t>73–89</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -7011,10 +7001,10 @@
         </is>
       </c>
       <c r="F140">
-        <v>3835</v>
+        <v>2357</v>
       </c>
       <c r="G140">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -7026,12 +7016,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
     </row>
@@ -7046,7 +7036,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>31–53</t>
+          <t>62–72</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -7056,14 +7046,14 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F141">
-        <v>5586</v>
+        <v>3840</v>
       </c>
       <c r="G141">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -7075,12 +7065,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Shenghong Ju</t>
         </is>
       </c>
     </row>
@@ -7095,41 +7085,41 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>54–61</t>
+          <t>31–53</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F142">
-        <v>4591</v>
+        <v>5593</v>
       </c>
       <c r="G142">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Neelam R. Yadav</t>
         </is>
       </c>
     </row>
@@ -7144,12 +7134,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>22–30</t>
+          <t>54–61</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7158,27 +7148,27 @@
         </is>
       </c>
       <c r="F143">
-        <v>5837</v>
+        <v>4600</v>
       </c>
       <c r="G143">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H143">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Wei Chen</t>
         </is>
       </c>
     </row>
@@ -7193,7 +7183,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>15–21</t>
+          <t>22–30</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7203,17 +7193,17 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F144">
-        <v>2951</v>
+        <v>5844</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -7222,12 +7212,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Gong Zhang, Jingjie Jin</t>
         </is>
       </c>
     </row>
@@ -7242,7 +7232,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>3–14</t>
+          <t>15–21</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7252,17 +7242,17 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F145">
-        <v>7563</v>
+        <v>2953</v>
       </c>
       <c r="G145">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H145">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -7271,12 +7261,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Qiurong Ding</t>
         </is>
       </c>
     </row>
@@ -7291,39 +7281,88 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>3–14</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F146">
+        <v>7566</v>
+      </c>
+      <c r="G146">
+        <v>5</v>
+      </c>
+      <c r="H146">
+        <v>16</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Jiucun Wang, Li Jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>2021</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
           <t>1–2</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>Editorial</t>
         </is>
       </c>
-      <c r="F146">
-        <v>6277</v>
-      </c>
-      <c r="G146">
-        <v>12</v>
-      </c>
-      <c r="H146">
+      <c r="F147">
+        <v>6290</v>
+      </c>
+      <c r="G147">
+        <v>11</v>
+      </c>
+      <c r="H147">
         <v>7</v>
       </c>
-      <c r="I146" t="inlineStr">
+      <c r="I147" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>https://link.springer.com/article/10.1007/s43657-020-00009-4</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>Li Jin</t>
         </is>

--- a/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -468,13 +468,13 @@
         </is>
       </c>
       <c r="F3">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="F5">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="F6">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="F7">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="F9">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="F11">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="F12">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="F13">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="F14">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="F15">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="F16">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>9</v>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="F17">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="F18">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="F19">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="F20">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="F21">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="F22">
-        <v>1832</v>
+        <v>1859</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="F23">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="F24">
-        <v>886</v>
+        <v>912</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="F25">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="F26">
-        <v>1913</v>
+        <v>1934</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="F27">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="F28">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F29">
-        <v>1901</v>
+        <v>1939</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="F30">
-        <v>921</v>
+        <v>936</v>
       </c>
       <c r="G30">
         <v>6</v>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="F31">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1749,10 +1749,10 @@
         </is>
       </c>
       <c r="F32">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="F33">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="F34">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="F35">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="F36">
-        <v>1812</v>
+        <v>1847</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="F37">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="F38">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="F39">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="F40">
-        <v>990</v>
+        <v>1036</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="F41">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -2239,13 +2239,13 @@
         </is>
       </c>
       <c r="F42">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="F43">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <v>9</v>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="F44">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="F45">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="F46">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2474,10 +2474,10 @@
         </is>
       </c>
       <c r="F47">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47">
         <v>6</v>
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="F48">
-        <v>1815</v>
+        <v>1832</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="F49">
-        <v>2294</v>
+        <v>2314</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="F50">
-        <v>1638</v>
+        <v>1672</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="F51">
-        <v>4534</v>
+        <v>4581</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="F52">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="F53">
-        <v>2514</v>
+        <v>2525</v>
       </c>
       <c r="G53">
         <v>7</v>
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="F54">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="G54">
         <v>3</v>
       </c>
       <c r="H54">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="F55">
-        <v>3865</v>
+        <v>3883</v>
       </c>
       <c r="G55">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H55">
         <v>18</v>
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="F56">
-        <v>3986</v>
+        <v>4024</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="F57">
-        <v>1311</v>
+        <v>1327</v>
       </c>
       <c r="G57">
         <v>6</v>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="F58">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58">
         <v>19</v>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="F59">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="F60">
-        <v>1523</v>
+        <v>1529</v>
       </c>
       <c r="G60">
         <v>11</v>
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="F61">
-        <v>6928</v>
+        <v>6992</v>
       </c>
       <c r="G61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="F62">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="F63">
-        <v>1046</v>
+        <v>1055</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="F64">
-        <v>1099</v>
+        <v>1106</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -3356,10 +3356,10 @@
         </is>
       </c>
       <c r="F65">
-        <v>3927</v>
+        <v>3950</v>
       </c>
       <c r="G65">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="F66">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="F67">
-        <v>1298</v>
+        <v>1304</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="F68">
-        <v>1625</v>
+        <v>1634</v>
       </c>
       <c r="G68">
         <v>7</v>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="F69">
-        <v>1223</v>
+        <v>1230</v>
       </c>
       <c r="G69">
         <v>4</v>
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="F70">
-        <v>1290</v>
+        <v>1303</v>
       </c>
       <c r="G70">
         <v>3</v>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="F71">
-        <v>1440</v>
+        <v>1455</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="F72">
-        <v>1320</v>
+        <v>1325</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="F73">
-        <v>3404</v>
+        <v>3423</v>
       </c>
       <c r="G73">
         <v>6</v>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="F74">
-        <v>4132</v>
+        <v>4161</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="F75">
-        <v>1773</v>
+        <v>1783</v>
       </c>
       <c r="G75">
         <v>5</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="F76">
-        <v>1423</v>
+        <v>1430</v>
       </c>
       <c r="G76">
         <v>10</v>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="F77">
-        <v>1546</v>
+        <v>1551</v>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -3983,7 +3983,7 @@
         </is>
       </c>
       <c r="F78">
-        <v>3359</v>
+        <v>3383</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="F79">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="G79">
         <v>7</v>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="F80">
-        <v>8872</v>
+        <v>8953</v>
       </c>
       <c r="G80">
         <v>15</v>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="F81">
-        <v>2078</v>
+        <v>2087</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="F82">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="G82">
         <v>14</v>
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="F83">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="F84">
-        <v>5138</v>
+        <v>5189</v>
       </c>
       <c r="G84">
         <v>16</v>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="F85">
-        <v>1521</v>
+        <v>1532</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         </is>
       </c>
       <c r="F86">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -4424,7 +4424,7 @@
         </is>
       </c>
       <c r="F87">
-        <v>2858</v>
+        <v>2874</v>
       </c>
       <c r="G87">
         <v>7</v>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="F88">
-        <v>3917</v>
+        <v>3929</v>
       </c>
       <c r="G88">
         <v>6</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="F89">
-        <v>1609</v>
+        <v>1614</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -4571,10 +4571,10 @@
         </is>
       </c>
       <c r="F90">
-        <v>3289</v>
+        <v>3297</v>
       </c>
       <c r="G90">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="F91">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -4669,10 +4669,10 @@
         </is>
       </c>
       <c r="F92">
-        <v>1936</v>
+        <v>1946</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="F93">
-        <v>2098</v>
+        <v>2107</v>
       </c>
       <c r="G93">
         <v>6</v>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="F94">
-        <v>2798</v>
+        <v>2813</v>
       </c>
       <c r="G94">
         <v>15</v>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="F95">
-        <v>1583</v>
+        <v>1593</v>
       </c>
       <c r="G95">
         <v>6</v>
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="F96">
-        <v>2428</v>
+        <v>2440</v>
       </c>
       <c r="G96">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -4914,7 +4914,7 @@
         </is>
       </c>
       <c r="F97">
-        <v>1909</v>
+        <v>1914</v>
       </c>
       <c r="G97">
         <v>4</v>
@@ -4963,10 +4963,10 @@
         </is>
       </c>
       <c r="F98">
-        <v>1513</v>
+        <v>1519</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H98">
         <v>7</v>
@@ -5012,10 +5012,10 @@
         </is>
       </c>
       <c r="F99">
-        <v>1887</v>
+        <v>1894</v>
       </c>
       <c r="G99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -5061,7 +5061,7 @@
         </is>
       </c>
       <c r="F100">
-        <v>4188</v>
+        <v>4203</v>
       </c>
       <c r="G100">
         <v>11</v>
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="F101">
-        <v>1293</v>
+        <v>1300</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -5159,10 +5159,10 @@
         </is>
       </c>
       <c r="F102">
-        <v>2328</v>
+        <v>2339</v>
       </c>
       <c r="G102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="F103">
-        <v>1484</v>
+        <v>1492</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="F104">
-        <v>6015</v>
+        <v>6034</v>
       </c>
       <c r="G104">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H104">
         <v>11</v>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="F105">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="F106">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="F107">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="F108">
-        <v>2164</v>
+        <v>2176</v>
       </c>
       <c r="G108">
         <v>10</v>
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="F109">
-        <v>1909</v>
+        <v>1918</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="F110">
-        <v>1150</v>
+        <v>1162</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="F111">
-        <v>3554</v>
+        <v>3564</v>
       </c>
       <c r="G111">
         <v>11</v>
@@ -5639,13 +5639,13 @@
         </is>
       </c>
       <c r="F112">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="G112">
         <v>2</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="F113">
-        <v>3180</v>
+        <v>3185</v>
       </c>
       <c r="G113">
         <v>6</v>
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="F114">
-        <v>2427</v>
+        <v>2432</v>
       </c>
       <c r="G114">
         <v>10</v>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="F115">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="F116">
-        <v>3503</v>
+        <v>3512</v>
       </c>
       <c r="G116">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H116">
         <v>40</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="F117">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="G117">
         <v>13</v>
@@ -5933,7 +5933,7 @@
         </is>
       </c>
       <c r="F118">
-        <v>2309</v>
+        <v>2320</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="F119">
-        <v>1553</v>
+        <v>1559</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6021,10 +6021,10 @@
         </is>
       </c>
       <c r="F120">
-        <v>2975</v>
+        <v>2991</v>
       </c>
       <c r="G120">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H120">
         <v>7</v>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="F121">
-        <v>4471</v>
+        <v>4477</v>
       </c>
       <c r="G121">
         <v>5</v>
@@ -6119,7 +6119,7 @@
         </is>
       </c>
       <c r="F122">
-        <v>5060</v>
+        <v>5081</v>
       </c>
       <c r="G122">
         <v>6</v>
@@ -6168,7 +6168,7 @@
         </is>
       </c>
       <c r="F123">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -6217,7 +6217,7 @@
         </is>
       </c>
       <c r="F124">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="F125">
-        <v>2356</v>
+        <v>2361</v>
       </c>
       <c r="G125">
         <v>14</v>
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="F126">
-        <v>2273</v>
+        <v>2278</v>
       </c>
       <c r="G126">
         <v>8</v>
@@ -6364,10 +6364,10 @@
         </is>
       </c>
       <c r="F127">
-        <v>2252</v>
+        <v>2257</v>
       </c>
       <c r="G127">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -6413,7 +6413,7 @@
         </is>
       </c>
       <c r="F128">
-        <v>2215</v>
+        <v>2228</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="F129">
-        <v>1912</v>
+        <v>1918</v>
       </c>
       <c r="G129">
         <v>6</v>
@@ -6511,7 +6511,7 @@
         </is>
       </c>
       <c r="F130">
-        <v>4488</v>
+        <v>4519</v>
       </c>
       <c r="G130">
         <v>8</v>
@@ -6560,7 +6560,7 @@
         </is>
       </c>
       <c r="F131">
-        <v>2166</v>
+        <v>2175</v>
       </c>
       <c r="G131">
         <v>13</v>
@@ -6609,7 +6609,7 @@
         </is>
       </c>
       <c r="F132">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="G132">
         <v>7</v>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="F133">
-        <v>2525</v>
+        <v>2530</v>
       </c>
       <c r="G133">
         <v>8</v>
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="F134">
-        <v>5457</v>
+        <v>5475</v>
       </c>
       <c r="G134">
         <v>15</v>
@@ -6756,7 +6756,7 @@
         </is>
       </c>
       <c r="F135">
-        <v>5134</v>
+        <v>5145</v>
       </c>
       <c r="G135">
         <v>17</v>
@@ -6805,7 +6805,7 @@
         </is>
       </c>
       <c r="F136">
-        <v>4617</v>
+        <v>4642</v>
       </c>
       <c r="G136">
         <v>8</v>
@@ -6854,7 +6854,7 @@
         </is>
       </c>
       <c r="F137">
-        <v>5268</v>
+        <v>5282</v>
       </c>
       <c r="G137">
         <v>9</v>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="F138">
-        <v>4406</v>
+        <v>4416</v>
       </c>
       <c r="G138">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H138">
         <v>4</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="F139">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -7001,7 +7001,7 @@
         </is>
       </c>
       <c r="F140">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="G140">
         <v>4</v>
@@ -7050,7 +7050,7 @@
         </is>
       </c>
       <c r="F141">
-        <v>3840</v>
+        <v>3853</v>
       </c>
       <c r="G141">
         <v>6</v>
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="F142">
-        <v>5593</v>
+        <v>5604</v>
       </c>
       <c r="G142">
         <v>38</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="F143">
-        <v>4600</v>
+        <v>4617</v>
       </c>
       <c r="G143">
         <v>5</v>
@@ -7197,10 +7197,10 @@
         </is>
       </c>
       <c r="F144">
-        <v>5844</v>
+        <v>5861</v>
       </c>
       <c r="G144">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H144">
         <v>12</v>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="F145">
-        <v>2953</v>
+        <v>2964</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -7295,10 +7295,10 @@
         </is>
       </c>
       <c r="F146">
-        <v>7566</v>
+        <v>7581</v>
       </c>
       <c r="G146">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H146">
         <v>16</v>
@@ -7344,10 +7344,10 @@
         </is>
       </c>
       <c r="F147">
-        <v>6290</v>
+        <v>6301</v>
       </c>
       <c r="G147">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H147">
         <v>7</v>

--- a/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K147"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,36 +420,36 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Correspondence/Letter to the Editor</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00164-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00144-8</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Binhao Shi, Dezhi Tang, Yongjun Wang</t>
+          <t>Xiangdong Tang, Huan Song</t>
         </is>
       </c>
     </row>
@@ -459,7 +459,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -468,27 +468,27 @@
         </is>
       </c>
       <c r="F3">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00134-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00169-7</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Huan Song</t>
+          <t>Hai-Liang Zhang, Yan Shi, Yuan-Yuan Qu, Ding-Wei Ye</t>
         </is>
       </c>
     </row>
@@ -507,27 +507,27 @@
         </is>
       </c>
       <c r="F4">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00132-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00157-x</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Yongjun Wang, Yanping Yang</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
     </row>
@@ -542,31 +542,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F5">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00149-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00185-7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Hao Yang</t>
         </is>
       </c>
     </row>
@@ -576,16 +576,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correspondence/Letter to the Editor</t>
         </is>
       </c>
       <c r="F6">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -595,17 +595,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00154-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00164-y</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Zheng Liu, Zhihong Zhang</t>
+          <t>Binhao Shi, Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
     </row>
@@ -615,36 +615,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F7">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00140-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00134-w</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Zhifei Dai, Desheng Sun</t>
+          <t>Huan Song</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -663,27 +663,27 @@
         </is>
       </c>
       <c r="F8">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00132-y</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
+          <t>Yongjun Wang, Yanping Yang</t>
         </is>
       </c>
     </row>
@@ -693,36 +693,36 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F9">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-06-01</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00149-3</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -732,16 +732,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F10">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -751,17 +751,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00154-6</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Zheng Liu, Zhihong Zhang</t>
         </is>
       </c>
     </row>
@@ -771,36 +771,36 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F11">
-        <v>104</v>
+        <v>365</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00140-y</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Hao Cheng, Bin Li</t>
+          <t>Zhifei Dai, Desheng Sun</t>
         </is>
       </c>
     </row>
@@ -808,19 +808,9 @@
       <c r="A12">
         <v>2024</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>125–137</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -829,27 +819,27 @@
         </is>
       </c>
       <c r="F12">
-        <v>319</v>
+        <v>178</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-05-04</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bi Chen, Bing Gu</t>
+          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
         </is>
       </c>
     </row>
@@ -859,7 +849,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -868,27 +858,27 @@
         </is>
       </c>
       <c r="F13">
-        <v>302</v>
+        <v>102</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Jie Chen</t>
+          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
         </is>
       </c>
     </row>
@@ -898,7 +888,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -907,27 +897,27 @@
         </is>
       </c>
       <c r="F14">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Yan Zheng, Zhonghan Sun</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
@@ -937,16 +927,16 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F15">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -956,17 +946,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Yong Zhang</t>
+          <t>Hao Cheng, Bin Li</t>
         </is>
       </c>
     </row>
@@ -981,12 +971,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>91–108</t>
+          <t>125–137</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -995,27 +985,27 @@
         </is>
       </c>
       <c r="F16">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
+          <t>Bi Chen, Bing Gu</t>
         </is>
       </c>
     </row>
@@ -1023,19 +1013,9 @@
       <c r="A17">
         <v>2024</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>146–157</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1044,27 +1024,27 @@
         </is>
       </c>
       <c r="F17">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Xujie Zhou</t>
+          <t>Jie Chen</t>
         </is>
       </c>
     </row>
@@ -1072,48 +1052,38 @@
       <c r="A18">
         <v>2024</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>34–45</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F18">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
+          <t>Yan Zheng, Zhonghan Sun</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1093,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1132,27 +1102,27 @@
         </is>
       </c>
       <c r="F19">
-        <v>510</v>
+        <v>319</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
+          <t>Yong Zhang</t>
         </is>
       </c>
     </row>
@@ -1167,41 +1137,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>203–212</t>
+          <t>91–108</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F20">
-        <v>301</v>
+        <v>374</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1186,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>187–202</t>
+          <t>146–157</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1226,31 +1196,31 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F21">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
+          <t>Xujie Zhou</t>
         </is>
       </c>
     </row>
@@ -1258,6 +1228,16 @@
       <c r="A22">
         <v>2024</v>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34–45</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>2024-03</t>
@@ -1265,31 +1245,31 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F22">
-        <v>1859</v>
+        <v>354</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Leming Shi, Yuanting Zheng</t>
+          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
         </is>
       </c>
     </row>
@@ -1297,48 +1277,38 @@
       <c r="A23">
         <v>2024</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>56–71</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F23">
-        <v>642</v>
+        <v>592</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
+          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
         </is>
       </c>
     </row>
@@ -1353,41 +1323,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>24–33</t>
+          <t>203–212</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F24">
-        <v>912</v>
+        <v>341</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Wei Sheng, Guoying Huang</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
     </row>
@@ -1402,21 +1372,21 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13–23</t>
+          <t>187–202</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F25">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1426,86 +1396,76 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2023</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>549–564</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F26">
-        <v>1934</v>
+        <v>2030</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
+          <t>Leming Shi, Yuanting Zheng</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>586–596</t>
+          <t>56–71</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1514,125 +1474,125 @@
         </is>
       </c>
       <c r="F27">
-        <v>506</v>
+        <v>727</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Guifen Yang, Longjiang Zhang</t>
+          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>639–641</t>
+          <t>24–33</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F28">
-        <v>764</v>
+        <v>986</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Michael C. Kreissl</t>
+          <t>Wei Sheng, Guoying Huang</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>597–612</t>
+          <t>13–23</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F29">
-        <v>1939</v>
+        <v>394</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
     </row>
@@ -1647,41 +1607,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>613–638</t>
+          <t>549–564</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F30">
-        <v>936</v>
+        <v>2023</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Cong Li</t>
+          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
         </is>
       </c>
     </row>
@@ -1689,38 +1649,48 @@
       <c r="A31">
         <v>2023</v>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>586–596</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F31">
-        <v>680</v>
+        <v>533</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Hao Wu, Guoping Zhao</t>
+          <t>Guifen Yang, Longjiang Zhang</t>
         </is>
       </c>
     </row>
@@ -1735,41 +1705,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>535–547</t>
+          <t>639–641</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F32">
-        <v>626</v>
+        <v>790</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Ning-Ning Liu</t>
+          <t>Michael C. Kreissl</t>
         </is>
       </c>
     </row>
@@ -1779,17 +1749,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>171–186</t>
+          <t>597–612</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1798,27 +1768,27 @@
         </is>
       </c>
       <c r="F33">
-        <v>421</v>
+        <v>2064</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Xiaolei Ren, Zhihong Li</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1798,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>72–80</t>
+          <t>613–638</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F34">
-        <v>468</v>
+        <v>1020</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Boyi Li, Dean Ta</t>
+          <t>Cong Li</t>
         </is>
       </c>
     </row>
@@ -1875,48 +1845,38 @@
       <c r="A35">
         <v>2023</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>51–55</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Editorial</t>
         </is>
       </c>
       <c r="F35">
-        <v>799</v>
+        <v>726</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
+          <t>Hao Wu, Guoping Zhao</t>
         </is>
       </c>
     </row>
@@ -1926,46 +1886,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>109–124</t>
+          <t>535–547</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F36">
-        <v>1847</v>
+        <v>677</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
+          <t>Ning-Ning Liu</t>
         </is>
       </c>
     </row>
@@ -1980,41 +1940,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>81–89</t>
+          <t>171–186</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F37">
-        <v>549</v>
+        <v>467</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Xiaolei Ren, Zhihong Li</t>
         </is>
       </c>
     </row>
@@ -2024,12 +1984,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>496–501</t>
+          <t>72–80</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2039,31 +1999,31 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F38">
-        <v>659</v>
+        <v>506</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Weimin Ye</t>
+          <t>Boyi Li, Dean Ta</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2038,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>158–170</t>
+          <t>51–55</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2088,31 +2048,31 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F39">
-        <v>459</v>
+        <v>856</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Ying Xu, Jiaxue Wu</t>
+          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
         </is>
       </c>
     </row>
@@ -2127,41 +2087,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>46–50</t>
+          <t>109–124</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F40">
-        <v>1036</v>
+        <v>2039</v>
       </c>
       <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
         <v>2</v>
       </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
+          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
         </is>
       </c>
     </row>
@@ -2171,46 +2131,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>469–484</t>
+          <t>81–89</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F41">
-        <v>422</v>
+        <v>577</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Menghan Hu, Min Dai</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -2225,41 +2185,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>519–534</t>
+          <t>496–501</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F42">
-        <v>557</v>
+        <v>691</v>
       </c>
       <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>3</v>
       </c>
-      <c r="H42">
-        <v>13</v>
-      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Jingjing Luo</t>
+          <t>Weimin Ye</t>
         </is>
       </c>
     </row>
@@ -2269,17 +2229,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>576–585</t>
+          <t>158–170</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2288,27 +2248,27 @@
         </is>
       </c>
       <c r="F43">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Xin Li, Xiang Li</t>
+          <t>Ying Xu, Jiaxue Wu</t>
         </is>
       </c>
     </row>
@@ -2318,17 +2278,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>329–332</t>
+          <t>46–50</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2337,27 +2297,27 @@
         </is>
       </c>
       <c r="F44">
-        <v>750</v>
+        <v>1164</v>
       </c>
       <c r="G44">
         <v>2</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bing Su</t>
+          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
         </is>
       </c>
     </row>
@@ -2365,38 +2325,48 @@
       <c r="A45">
         <v>2023</v>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>469–484</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F45">
-        <v>939</v>
+        <v>442</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Menghan Hu, Min Dai</t>
         </is>
       </c>
     </row>
@@ -2411,41 +2381,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>485–495</t>
+          <t>519–534</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F46">
-        <v>481</v>
+        <v>579</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
+          <t>Jingjing Luo</t>
         </is>
       </c>
     </row>
@@ -2460,12 +2430,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>390–407</t>
+          <t>576–585</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2474,27 +2444,27 @@
         </is>
       </c>
       <c r="F47">
-        <v>701</v>
+        <v>524</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Li Zhang, Weimin Li</t>
+          <t>Xin Li, Xiang Li</t>
         </is>
       </c>
     </row>
@@ -2509,41 +2479,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>439–456</t>
+          <t>329–332</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F48">
-        <v>1832</v>
+        <v>772</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Guoping Zhao, Guoqing Zhang</t>
+          <t>Bing Su</t>
         </is>
       </c>
     </row>
@@ -2551,48 +2521,38 @@
       <c r="A49">
         <v>2023</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1–12</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F49">
-        <v>2314</v>
+        <v>970</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
@@ -2602,12 +2562,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>138–145</t>
+          <t>485–495</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2621,27 +2581,27 @@
         </is>
       </c>
       <c r="F50">
-        <v>1672</v>
+        <v>500</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Li Jin, Jiucun Wang</t>
+          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
         </is>
       </c>
     </row>
@@ -2656,12 +2616,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>360–374</t>
+          <t>390–407</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2670,27 +2630,27 @@
         </is>
       </c>
       <c r="F51">
-        <v>4581</v>
+        <v>751</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
+          <t>Li Zhang, Weimin Li</t>
         </is>
       </c>
     </row>
@@ -2705,12 +2665,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>350–359</t>
+          <t>439–456</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2719,27 +2679,27 @@
         </is>
       </c>
       <c r="F52">
-        <v>626</v>
+        <v>1939</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
+          <t>Guoping Zhao, Guoqing Zhang</t>
         </is>
       </c>
     </row>
@@ -2749,46 +2709,46 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>421–438</t>
+          <t>1–12</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F53">
-        <v>2525</v>
+        <v>2409</v>
       </c>
       <c r="G53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
+          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
         </is>
       </c>
     </row>
@@ -2798,17 +2758,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>228–242</t>
+          <t>138–145</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2817,27 +2777,27 @@
         </is>
       </c>
       <c r="F54">
-        <v>768</v>
+        <v>1830</v>
       </c>
       <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
         <v>3</v>
       </c>
-      <c r="H54">
-        <v>61</v>
-      </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Lin Zhang, Dan Chen</t>
+          <t>Li Jin, Jiucun Wang</t>
         </is>
       </c>
     </row>
@@ -2852,41 +2812,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>333–349</t>
+          <t>360–374</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F55">
-        <v>3883</v>
+        <v>4764</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H55">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Jianping Jia</t>
+          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
         </is>
       </c>
     </row>
@@ -2901,41 +2861,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>217–227</t>
+          <t>350–359</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F56">
-        <v>4024</v>
+        <v>660</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H56">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
         </is>
       </c>
     </row>
@@ -2950,12 +2910,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>300–308</t>
+          <t>421–438</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2964,27 +2924,27 @@
         </is>
       </c>
       <c r="F57">
-        <v>1327</v>
+        <v>2614</v>
       </c>
       <c r="G57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
+          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
         </is>
       </c>
     </row>
@@ -2999,12 +2959,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>457–468</t>
+          <t>228–242</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3013,27 +2973,27 @@
         </is>
       </c>
       <c r="F58">
-        <v>704</v>
+        <v>788</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+          <t>Lin Zhang, Dan Chen</t>
         </is>
       </c>
     </row>
@@ -3048,41 +3008,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>408–420</t>
+          <t>333–349</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F59">
-        <v>711</v>
+        <v>4046</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
+          <t>Jianping Jia</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3057,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>268–284</t>
+          <t>217–227</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3107,31 +3067,31 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F60">
-        <v>1529</v>
+        <v>4091</v>
       </c>
       <c r="G60">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
@@ -3146,12 +3106,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>309–328</t>
+          <t>300–308</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3160,27 +3120,27 @@
         </is>
       </c>
       <c r="F61">
-        <v>6992</v>
+        <v>1356</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Zhexue Quan, Yan Zheng</t>
         </is>
       </c>
     </row>
@@ -3195,41 +3155,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>190–203</t>
+          <t>457–468</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F62">
-        <v>808</v>
+        <v>722</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
         </is>
       </c>
     </row>
@@ -3244,12 +3204,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>167–181</t>
+          <t>408–420</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3258,27 +3218,27 @@
         </is>
       </c>
       <c r="F63">
-        <v>1055</v>
+        <v>723</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
+          <t>Dean Ta</t>
         </is>
       </c>
     </row>
@@ -3293,41 +3253,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>642–656</t>
+          <t>268–284</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F64">
-        <v>1106</v>
+        <v>1564</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Shangyu Hong, Yan Sun</t>
         </is>
       </c>
     </row>
@@ -3342,41 +3302,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>285–299</t>
+          <t>309–328</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F65">
-        <v>3950</v>
+        <v>7332</v>
       </c>
       <c r="G65">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H65">
         <v>3</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -3391,41 +3351,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>502–518</t>
+          <t>190–203</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F66">
-        <v>1217</v>
+        <v>830</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Hui Li</t>
+          <t>Hongfeng Chen</t>
         </is>
       </c>
     </row>
@@ -3440,12 +3400,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>243–254</t>
+          <t>167–181</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3454,33 +3414,33 @@
         </is>
       </c>
       <c r="F67">
-        <v>1304</v>
+        <v>1073</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3489,47 +3449,47 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>148–166</t>
+          <t>642–656</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F68">
-        <v>1634</v>
+        <v>1133</v>
       </c>
       <c r="G68">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3538,47 +3498,47 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>130–137</t>
+          <t>285–299</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F69">
-        <v>1230</v>
+        <v>4296</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Weihai Ying</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3587,47 +3547,47 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>101–118</t>
+          <t>502–518</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F70">
-        <v>1303</v>
+        <v>1239</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>He Wang</t>
+          <t>Hui Li</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3636,12 +3596,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>255–267</t>
+          <t>243–254</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3650,27 +3610,27 @@
         </is>
       </c>
       <c r="F71">
-        <v>1455</v>
+        <v>1328</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
         </is>
       </c>
     </row>
@@ -3678,38 +3638,48 @@
       <c r="A72">
         <v>2022</v>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>148–166</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F72">
-        <v>1325</v>
+        <v>1661</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
+          <t>Wei Yan, Jie Jin</t>
         </is>
       </c>
     </row>
@@ -3724,12 +3694,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>130–137</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3738,27 +3708,27 @@
         </is>
       </c>
       <c r="F73">
-        <v>3423</v>
+        <v>1252</v>
       </c>
       <c r="G73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H73">
         <v>5</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -3773,41 +3743,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>64–76</t>
+          <t>101–118</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F74">
-        <v>4161</v>
+        <v>1328</v>
       </c>
       <c r="G74">
+        <v>4</v>
+      </c>
+      <c r="H74">
         <v>3</v>
       </c>
-      <c r="H74">
-        <v>11</v>
-      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
+          <t>He Wang</t>
         </is>
       </c>
     </row>
@@ -3822,12 +3792,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>34–49</t>
+          <t>255–267</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3836,27 +3806,27 @@
         </is>
       </c>
       <c r="F75">
-        <v>1783</v>
+        <v>1493</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
         </is>
       </c>
     </row>
@@ -3864,48 +3834,38 @@
       <c r="A76">
         <v>2022</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>50–63</t>
-        </is>
-      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F76">
-        <v>1430</v>
+        <v>1347</v>
       </c>
       <c r="G76">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -3920,12 +3880,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>22–33</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3934,27 +3894,27 @@
         </is>
       </c>
       <c r="F77">
-        <v>1551</v>
+        <v>3499</v>
       </c>
       <c r="G77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
     </row>
@@ -3964,46 +3924,46 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>383–388</t>
+          <t>64–76</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F78">
-        <v>3383</v>
+        <v>4254</v>
       </c>
       <c r="G78">
         <v>3</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
     </row>
@@ -4018,7 +3978,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>565–575</t>
+          <t>34–49</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4032,27 +3992,27 @@
         </is>
       </c>
       <c r="F79">
-        <v>1309</v>
+        <v>1798</v>
       </c>
       <c r="G79">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -4062,12 +4022,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>363–382</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4077,31 +4037,31 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F80">
-        <v>8953</v>
+        <v>1453</v>
       </c>
       <c r="G80">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H80">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
     </row>
@@ -4111,17 +4071,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>430–437</t>
+          <t>22–33</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4130,27 +4090,27 @@
         </is>
       </c>
       <c r="F81">
-        <v>2087</v>
+        <v>1571</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
     </row>
@@ -4165,41 +4125,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>404–418</t>
+          <t>383–388</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F82">
-        <v>1768</v>
+        <v>3484</v>
       </c>
       <c r="G82">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
     </row>
@@ -4214,41 +4174,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>204–215</t>
+          <t>565–575</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F83">
-        <v>1373</v>
+        <v>1336</v>
       </c>
       <c r="G83">
+        <v>7</v>
+      </c>
+      <c r="H83">
         <v>2</v>
       </c>
-      <c r="H83">
-        <v>3</v>
-      </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
     </row>
@@ -4258,46 +4218,46 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>375–389</t>
+          <t>363–382</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F84">
-        <v>5189</v>
+        <v>9279</v>
       </c>
       <c r="G84">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H84">
         <v>12</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
         </is>
       </c>
     </row>
@@ -4312,12 +4272,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>419–429</t>
+          <t>430–437</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4326,27 +4286,27 @@
         </is>
       </c>
       <c r="F85">
-        <v>1532</v>
+        <v>2102</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
         </is>
       </c>
     </row>
@@ -4356,17 +4316,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>138–147</t>
+          <t>404–418</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4375,27 +4335,27 @@
         </is>
       </c>
       <c r="F86">
-        <v>1250</v>
+        <v>1794</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
         </is>
       </c>
     </row>
@@ -4405,46 +4365,46 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>389–403</t>
+          <t>204–215</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F87">
-        <v>2874</v>
+        <v>1389</v>
       </c>
       <c r="G87">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
     </row>
@@ -4459,41 +4419,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>77–82</t>
+          <t>375–389</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F88">
-        <v>3929</v>
+        <v>5399</v>
       </c>
       <c r="G88">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
     </row>
@@ -4508,12 +4468,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>219–229</t>
+          <t>419–429</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4522,27 +4482,27 @@
         </is>
       </c>
       <c r="F89">
-        <v>1614</v>
+        <v>1545</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
+          <t>Shouling Wu, An Pan</t>
         </is>
       </c>
     </row>
@@ -4552,46 +4512,46 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>336–348</t>
+          <t>138–147</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F90">
-        <v>3297</v>
+        <v>1262</v>
       </c>
       <c r="G90">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
     </row>
@@ -4601,17 +4561,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1–21</t>
+          <t>389–403</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4620,27 +4580,27 @@
         </is>
       </c>
       <c r="F91">
-        <v>1978</v>
+        <v>2919</v>
       </c>
       <c r="G91">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H91">
         <v>4</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Yong Wang</t>
         </is>
       </c>
     </row>
@@ -4650,12 +4610,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>283–294</t>
+          <t>77–82</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4665,31 +4625,31 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="F92">
-        <v>1946</v>
+        <v>3978</v>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
@@ -4699,12 +4659,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>182–189</t>
+          <t>219–229</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4718,27 +4678,27 @@
         </is>
       </c>
       <c r="F93">
-        <v>2107</v>
+        <v>1631</v>
       </c>
       <c r="G93">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4713,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>312–322</t>
+          <t>336–348</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4763,31 +4723,31 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F94">
-        <v>2813</v>
+        <v>3358</v>
       </c>
       <c r="G94">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H94">
         <v>4</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
         </is>
       </c>
     </row>
@@ -4797,12 +4757,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>261–271</t>
+          <t>1–21</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4816,27 +4776,27 @@
         </is>
       </c>
       <c r="F95">
-        <v>1593</v>
+        <v>1991</v>
       </c>
       <c r="G95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
     </row>
@@ -4846,46 +4806,46 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>83–100</t>
+          <t>283–294</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F96">
-        <v>2440</v>
+        <v>1970</v>
       </c>
       <c r="G96">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
     </row>
@@ -4895,46 +4855,46 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>349–361</t>
+          <t>182–189</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F97">
-        <v>1914</v>
+        <v>2155</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H97">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
     </row>
@@ -4949,12 +4909,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>323–335</t>
+          <t>312–322</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4963,27 +4923,27 @@
         </is>
       </c>
       <c r="F98">
-        <v>1519</v>
+        <v>2859</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -4998,12 +4958,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>230–241</t>
+          <t>261–271</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5012,27 +4972,27 @@
         </is>
       </c>
       <c r="F99">
-        <v>1894</v>
+        <v>1604</v>
       </c>
       <c r="G99">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
         </is>
       </c>
     </row>
@@ -5042,12 +5002,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>184–193</t>
+          <t>83–100</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5057,31 +5017,31 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F100">
-        <v>4203</v>
+        <v>2473</v>
       </c>
       <c r="G100">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5056,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>254–260</t>
+          <t>349–361</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5106,31 +5066,31 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F101">
-        <v>1300</v>
+        <v>1930</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Jian Wang</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5105,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>242–253</t>
+          <t>323–335</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5159,27 +5119,27 @@
         </is>
       </c>
       <c r="F102">
-        <v>2339</v>
+        <v>1533</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
@@ -5187,6 +5147,16 @@
       <c r="A103">
         <v>2022</v>
       </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>230–241</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>2022-05</t>
@@ -5194,31 +5164,31 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F103">
-        <v>1492</v>
+        <v>1917</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
     </row>
@@ -5233,41 +5203,41 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>156–183</t>
+          <t>184–193</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F104">
-        <v>6034</v>
+        <v>4285</v>
       </c>
       <c r="G104">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H104">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5252,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>201–210</t>
+          <t>254–260</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5296,27 +5266,27 @@
         </is>
       </c>
       <c r="F105">
-        <v>1399</v>
+        <v>1312</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
+          <t>Yi Lu, Tianyu Zheng</t>
         </is>
       </c>
     </row>
@@ -5331,12 +5301,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>211–218</t>
+          <t>242–253</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5345,27 +5315,27 @@
         </is>
       </c>
       <c r="F106">
-        <v>1289</v>
+        <v>2376</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
     </row>
@@ -5373,48 +5343,38 @@
       <c r="A107">
         <v>2022</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>130–135</t>
-        </is>
-      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F107">
-        <v>1298</v>
+        <v>1520</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Li Jin</t>
         </is>
       </c>
     </row>
@@ -5429,12 +5389,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>102–118</t>
+          <t>156–183</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5443,27 +5403,27 @@
         </is>
       </c>
       <c r="F108">
-        <v>2176</v>
+        <v>6167</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="H108">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
     </row>
@@ -5478,12 +5438,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>194–200</t>
+          <t>201–210</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5492,27 +5452,27 @@
         </is>
       </c>
       <c r="F109">
-        <v>1918</v>
+        <v>1409</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5487,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>136–144</t>
+          <t>211–218</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5541,27 +5501,27 @@
         </is>
       </c>
       <c r="F110">
-        <v>1162</v>
+        <v>1300</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5536,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1–17</t>
+          <t>130–135</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5586,31 +5546,31 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F111">
-        <v>3564</v>
+        <v>1307</v>
       </c>
       <c r="G111">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H111">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5585,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>102–118</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5635,31 +5595,31 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F112">
-        <v>1810</v>
+        <v>2206</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H112">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
     </row>
@@ -5674,7 +5634,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>194–200</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5688,27 +5648,27 @@
         </is>
       </c>
       <c r="F113">
-        <v>3185</v>
+        <v>1934</v>
       </c>
       <c r="G113">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5683,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>88–101</t>
+          <t>136–144</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5733,31 +5693,31 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F114">
-        <v>2432</v>
+        <v>1177</v>
       </c>
       <c r="G114">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Yi Lu</t>
         </is>
       </c>
     </row>
@@ -5772,41 +5732,41 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>64–71</t>
+          <t>1–17</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F115">
-        <v>1420</v>
+        <v>3585</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
     </row>
@@ -5821,41 +5781,41 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>145–155</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F116">
-        <v>3512</v>
+        <v>1824</v>
       </c>
       <c r="G116">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H116">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t>Lin Li</t>
         </is>
       </c>
     </row>
@@ -5870,41 +5830,41 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>18–32</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F117">
-        <v>2604</v>
+        <v>3254</v>
       </c>
       <c r="G117">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
     </row>
@@ -5919,41 +5879,41 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>33–49</t>
+          <t>88–101</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F118">
-        <v>2320</v>
+        <v>2442</v>
       </c>
       <c r="G118">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
     </row>
@@ -5961,6 +5921,16 @@
       <c r="A119">
         <v>2022</v>
       </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>64–71</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>2022-01</t>
@@ -5968,31 +5938,31 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F119">
-        <v>1559</v>
+        <v>1433</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
     </row>
@@ -6007,7 +5977,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>295–311</t>
+          <t>145–155</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6017,31 +5987,31 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F120">
-        <v>2991</v>
+        <v>3529</v>
       </c>
       <c r="G120">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H120">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
+          <t>Martin Picard</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6026,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>272–281</t>
+          <t>18–32</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -6070,33 +6040,33 @@
         </is>
       </c>
       <c r="F121">
-        <v>4477</v>
+        <v>2630</v>
       </c>
       <c r="G121">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -6105,110 +6075,100 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>79–87</t>
+          <t>33–49</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F122">
-        <v>5081</v>
+        <v>2346</v>
       </c>
       <c r="G122">
         <v>6</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Jixi Li</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>2021</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>72–77</t>
-        </is>
+        <v>2022</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F123">
-        <v>1539</v>
+        <v>1582</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>285–298</t>
+          <t>295–311</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6217,76 +6177,76 @@
         </is>
       </c>
       <c r="F124">
-        <v>2218</v>
+        <v>3032</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H124">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>243–256</t>
+          <t>272–281</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F125">
-        <v>2361</v>
+        <v>4543</v>
       </c>
       <c r="G125">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
     </row>
@@ -6296,46 +6256,46 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>269–284</t>
+          <t>79–87</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F126">
-        <v>2278</v>
+        <v>5187</v>
       </c>
       <c r="G126">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
     </row>
@@ -6345,46 +6305,46 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>257–268</t>
+          <t>72–77</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F127">
-        <v>2257</v>
+        <v>1551</v>
       </c>
       <c r="G127">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>4</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
     </row>
@@ -6399,12 +6359,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>199–210</t>
+          <t>285–298</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6413,27 +6373,27 @@
         </is>
       </c>
       <c r="F128">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="G128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
     </row>
@@ -6448,12 +6408,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>211–221</t>
+          <t>243–256</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6462,27 +6422,27 @@
         </is>
       </c>
       <c r="F129">
-        <v>1918</v>
+        <v>2386</v>
       </c>
       <c r="G129">
+        <v>13</v>
+      </c>
+      <c r="H129">
         <v>6</v>
       </c>
-      <c r="H129">
-        <v>16</v>
-      </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
     </row>
@@ -6497,41 +6457,41 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>222–228</t>
+          <t>269–284</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F130">
-        <v>4519</v>
+        <v>2300</v>
       </c>
       <c r="G130">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
     </row>
@@ -6546,41 +6506,41 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>229–241</t>
+          <t>257–268</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F131">
-        <v>2175</v>
+        <v>2272</v>
       </c>
       <c r="G131">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
     </row>
@@ -6595,12 +6555,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>186–198</t>
+          <t>199–210</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6609,27 +6569,27 @@
         </is>
       </c>
       <c r="F132">
-        <v>2022</v>
+        <v>2259</v>
       </c>
       <c r="G132">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
     </row>
@@ -6644,41 +6604,41 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>171–185</t>
+          <t>211–221</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F133">
-        <v>2530</v>
+        <v>1935</v>
       </c>
       <c r="G133">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
     </row>
@@ -6693,12 +6653,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>151–170</t>
+          <t>222–228</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6707,27 +6667,27 @@
         </is>
       </c>
       <c r="F134">
-        <v>5475</v>
+        <v>4649</v>
       </c>
       <c r="G134">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
     </row>
@@ -6742,12 +6702,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>143–150</t>
+          <t>229–241</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6756,27 +6716,27 @@
         </is>
       </c>
       <c r="F135">
-        <v>5145</v>
+        <v>2197</v>
       </c>
       <c r="G135">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H135">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
     </row>
@@ -6791,12 +6751,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>91–104</t>
+          <t>186–198</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6805,27 +6765,27 @@
         </is>
       </c>
       <c r="F136">
-        <v>4642</v>
+        <v>2033</v>
       </c>
       <c r="G136">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
     </row>
@@ -6840,12 +6800,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>113–128</t>
+          <t>171–185</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6854,27 +6814,27 @@
         </is>
       </c>
       <c r="F137">
-        <v>5282</v>
+        <v>2547</v>
       </c>
       <c r="G137">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H137">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
     </row>
@@ -6889,12 +6849,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>129–142</t>
+          <t>151–170</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6903,27 +6863,27 @@
         </is>
       </c>
       <c r="F138">
-        <v>4416</v>
+        <v>5548</v>
       </c>
       <c r="G138">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
     </row>
@@ -6938,41 +6898,41 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>105–112</t>
+          <t>143–150</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F139">
-        <v>1661</v>
+        <v>5207</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
     </row>
@@ -6987,12 +6947,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>73–89</t>
+          <t>91–104</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7001,27 +6961,27 @@
         </is>
       </c>
       <c r="F140">
-        <v>2360</v>
+        <v>4753</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H140">
         <v>3</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
     </row>
@@ -7036,41 +6996,41 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>62–72</t>
+          <t>113–128</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F141">
-        <v>3853</v>
+        <v>5356</v>
       </c>
       <c r="G141">
+        <v>9</v>
+      </c>
+      <c r="H141">
         <v>6</v>
       </c>
-      <c r="H141">
-        <v>3</v>
-      </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Xinhua Lin, Bing Zhao</t>
         </is>
       </c>
     </row>
@@ -7085,12 +7045,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>31–53</t>
+          <t>129–142</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7099,27 +7059,27 @@
         </is>
       </c>
       <c r="F142">
-        <v>5604</v>
+        <v>4466</v>
       </c>
       <c r="G142">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -7134,12 +7094,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>54–61</t>
+          <t>105–112</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7148,27 +7108,27 @@
         </is>
       </c>
       <c r="F143">
-        <v>4617</v>
+        <v>1669</v>
       </c>
       <c r="G143">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Xun Gu</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7143,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>22–30</t>
+          <t>73–89</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7197,27 +7157,27 @@
         </is>
       </c>
       <c r="F144">
-        <v>5861</v>
+        <v>2369</v>
       </c>
       <c r="G144">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H144">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
     </row>
@@ -7232,41 +7192,41 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>15–21</t>
+          <t>62–72</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F145">
-        <v>2964</v>
+        <v>3891</v>
       </c>
       <c r="G145">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H145">
         <v>3</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Shenghong Ju</t>
         </is>
       </c>
     </row>
@@ -7281,41 +7241,41 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>3–14</t>
+          <t>31–53</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F146">
-        <v>7581</v>
+        <v>5679</v>
       </c>
       <c r="G146">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Neelam R. Yadav</t>
         </is>
       </c>
     </row>
@@ -7330,39 +7290,235 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>54–61</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F147">
+        <v>4666</v>
+      </c>
+      <c r="G147">
+        <v>5</v>
+      </c>
+      <c r="H147">
+        <v>5</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Wei Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>2021</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>22–30</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F148">
+        <v>5928</v>
+      </c>
+      <c r="G148">
+        <v>15</v>
+      </c>
+      <c r="H148">
+        <v>12</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Gong Zhang, Jingjie Jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>2021</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>15–21</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Correspondence</t>
+        </is>
+      </c>
+      <c r="F149">
+        <v>2980</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>2021</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>3–14</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F150">
+        <v>7646</v>
+      </c>
+      <c r="G150">
+        <v>5</v>
+      </c>
+      <c r="H150">
+        <v>16</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Jiucun Wang, Li Jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>2021</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
           <t>1–2</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>Editorial</t>
         </is>
       </c>
-      <c r="F147">
-        <v>6301</v>
-      </c>
-      <c r="G147">
-        <v>12</v>
-      </c>
-      <c r="H147">
+      <c r="F151">
+        <v>6383</v>
+      </c>
+      <c r="G151">
+        <v>10</v>
+      </c>
+      <c r="H151">
         <v>7</v>
       </c>
-      <c r="I147" t="inlineStr">
+      <c r="I151" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr">
+      <c r="J151" t="inlineStr">
         <is>
           <t>https://link.springer.com/article/10.1007/s43657-020-00009-4</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>Li Jin</t>
         </is>

--- a/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,6 +413,11 @@
           <t>correspond_authors</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -420,36 +425,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00144-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Xiangdong Tang, Huan Song</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Measurement of Energy Expenditure by Indirect Calorimetry with a Whole-Room Calorimeter</t>
         </is>
       </c>
     </row>
@@ -459,36 +469,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00169-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hai-Liang Zhang, Yan Shi, Yuan-Yuan Qu, Ding-Wei Ye</t>
+          <t>Leming Shi, Yuanting Zheng</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Reference Materials for Improving Reliability of Multiomics Profiling</t>
         </is>
       </c>
     </row>
@@ -498,36 +513,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F4">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00157-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>The Critical Role of the Shroom Family Proteins in Morphogenesis, Organogenesis and Disease</t>
         </is>
       </c>
     </row>
@@ -537,36 +557,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00185-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hao Yang</t>
+          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Multimodal Omics Approaches to Aging and Age-Related Diseases</t>
         </is>
       </c>
     </row>
@@ -576,36 +601,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Correspondence/Letter to the Editor</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F6">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00164-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Binhao Shi, Dezhi Tang, Yongjun Wang</t>
+          <t>Wei Sheng, Guoying Huang</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Next-Generation Sequencing-Based Copy Number Variation Analysis in Chinese Patients with Primary Ciliary Dyskinesia Revealed Novel &lt;i&gt;DNAH5&lt;/i&gt; Copy Number Variations</t>
         </is>
       </c>
     </row>
@@ -615,7 +645,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -624,37 +654,52 @@
         </is>
       </c>
       <c r="F7">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00134-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Huan Song</t>
+          <t>Jiangping Song</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>A Heterozygous &lt;i&gt;Phospholamban&lt;/i&gt; Variant (p.R14del) Leads to Left Ventricular Involvement and Heart Failure Phenotypes in Arrhythmogenic Right Ventricular Cardiomyopathy</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>549–564</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -663,115 +708,160 @@
         </is>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>1279</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00132-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Yongjun Wang, Yanping Yang</t>
+          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>A Noninvasive Approach to Evaluate Tumor Immune Microenvironment and Predict Outcomes in Hepatocellular Carcinoma</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>586–596</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F9">
-        <v>121</v>
+        <v>298</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00149-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Guifen Yang, Longjiang Zhang</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence Empowered Nuclear Medicine and Molecular Imaging in Cardiology: A State-of-the-Art Review</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>639–641</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F10">
-        <v>133</v>
+        <v>464</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00154-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Zheng Liu, Zhihong Zhang</t>
+          <t>Michael C. Kreissl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Comments on Study of “Performance of 18F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study”</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>597–612</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -780,418 +870,468 @@
         </is>
       </c>
       <c r="F11">
-        <v>365</v>
+        <v>1131</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00140-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Zhifei Dai, Desheng Sun</t>
+          <t>Mei Tian</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Phenomic Imaging</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>613–638</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F12">
-        <v>178</v>
+        <v>564</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
+          <t>Cong Li</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Visualizing Macrophage Phenotypes and Polarization in Diseases: From Biomarkers to Molecular Probes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Editorial</t>
         </is>
       </c>
       <c r="F13">
-        <v>102</v>
+        <v>406</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-06-01</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
+          <t>Hao Wu, Guoping Zhao</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Human Gut Microbiome Researches Over the Last Decade: Current Challenges and Future Directions</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>535–547</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F14">
-        <v>108</v>
+        <v>386</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Ning-Ning Liu</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Oral Microbiota: A New Insight into Cancer Progression, Diagnosis and Treatment</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F15">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Hao Cheng, Bin Li</t>
+          <t>Xiaolei Ren, Zhihong Li</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>3D Models of Sarcomas: The Next-generation Tool for Personalized Medicine</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>125–137</t>
-        </is>
+        <v>2023</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F16">
-        <v>369</v>
+        <v>231</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-05-04</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bi Chen, Bing Gu</t>
+          <t>Boyi Li, Dean Ta</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>The Protocol of Ultrasonic Backscatter Measurements of Musculoskeletal Properties</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F17">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Jie Chen</t>
+          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Circulating Lipoproteins Mediate the Association Between Cardiovascular Risk Factors and Cognitive Decline: A Community-Based Cohort Study</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F18">
-        <v>174</v>
+        <v>1103</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Yan Zheng, Zhonghan Sun</t>
+          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Plasma-Free Blood as a Potential Alternative to Whole Blood for Transcriptomic Analysis</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F19">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Yong Zhang</t>
+          <t>Feng Qian</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Analysis of the Immune Response by Standardized Whole-Blood Stimulation with Metabolism Modulation</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>91–108</t>
+          <t>496–501</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F20">
-        <v>374</v>
+        <v>473</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
+          <t>Weimin Ye</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Inflammation as a Mediator of Microbiome Dysbiosis-Associated DNA Methylation Changes in Gastric Premalignant Lesions</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2024</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>146–157</t>
-        </is>
+        <v>2023</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1200,86 +1340,96 @@
         </is>
       </c>
       <c r="F21">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Xujie Zhou</t>
+          <t>Ying Xu, Jiaxue Wu</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Identification of Poly(ADP-ribose) Polymerase 9 (PARP9) as a Potent Suppressor for &lt;i&gt;Mycobacterium tuberculosis&lt;/i&gt; Infection</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2024</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>34–45</t>
-        </is>
+        <v>2023</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F22">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
+          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Allergic Phenotypes and Sarcopenia: Evidence from Observational Studies and Mendelian Randomization Analysis</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>469–484</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1288,47 +1438,52 @@
         </is>
       </c>
       <c r="F23">
-        <v>592</v>
+        <v>308</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
+          <t>Menghan Hu, Min Dai</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Auxiliary Diagnosis of Papillary Thyroid Carcinoma Based on Spectral Phenotype</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>203–212</t>
+          <t>519–534</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1337,184 +1492,204 @@
         </is>
       </c>
       <c r="F24">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Jingjing Luo</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>A Protocol for Digitalized Collection of Traditional Chinese Medicine (TCM) Pulse Information Using Bionic Pulse Diagnosis Equipment</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>187–202</t>
+          <t>576–585</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F25">
-        <v>402</v>
+        <v>335</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
+          <t>Xin Li, Xiang Li</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Performance of &lt;sup&gt;18&lt;/sup&gt;F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>329–332</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F26">
-        <v>2030</v>
+        <v>581</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Leming Shi, Yuanting Zheng</t>
+          <t>Bing Su</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>High Arterial Oxygen Saturation in the Acclimatized Lowlanders Living at High Altitude</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2024</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>56–71</t>
-        </is>
+        <v>2023</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F27">
-        <v>727</v>
+        <v>705</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
+          <t>Xia Shen</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Correction: Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>24–33</t>
+          <t>485–495</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1523,47 +1698,52 @@
         </is>
       </c>
       <c r="F28">
-        <v>986</v>
+        <v>336</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Wei Sheng, Guoying Huang</t>
+          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>A Common Functional Variant at the Enhancer of the Rheumatoid Arthritis Risk Gene &lt;i&gt;ORMDL3&lt;/i&gt; Regulates its Expression Through Allele-Specific JunD Binding</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13–23</t>
+          <t>390–407</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1572,27 +1752,32 @@
         </is>
       </c>
       <c r="F29">
-        <v>394</v>
+        <v>465</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Li Zhang, Weimin Li</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Integrative Identification by Hi-C Revealed Distinct Advanced Structural Variations in Lung Adenocarcinoma Tissue</t>
         </is>
       </c>
     </row>
@@ -1607,12 +1792,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>549–564</t>
+          <t>439–456</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1621,27 +1806,32 @@
         </is>
       </c>
       <c r="F30">
-        <v>2023</v>
+        <v>1463</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
+          <t>Guoping Zhao, Guoqing Zhang</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Mycobacteriaceae Phenome Atlas (MPA): A Standardized Atlas for the Mycobacteriaceae Phenome Based on Heterogeneous Sources</t>
         </is>
       </c>
     </row>
@@ -1649,48 +1839,43 @@
       <c r="A31">
         <v>2023</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>586–596</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F31">
-        <v>533</v>
+        <v>1500</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Guifen Yang, Longjiang Zhang</t>
+          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>De Novo Dissecting the Three-Dimensional Facial Morphology of 2379 Han Chinese Individuals</t>
         </is>
       </c>
     </row>
@@ -1698,48 +1883,43 @@
       <c r="A32">
         <v>2023</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>639–641</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F32">
-        <v>790</v>
+        <v>1197</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Michael C. Kreissl</t>
+          <t>Li Jin, Jiucun Wang</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Quantitative Assessment of Ultraviolet-Induced Erythema and Tanning Responses in the Han Chinese Population</t>
         </is>
       </c>
     </row>
@@ -1754,41 +1934,46 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>597–612</t>
+          <t>360–374</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F33">
-        <v>2064</v>
+        <v>3546</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Immune-Ageing Evaluation of Peripheral T and NK Lymphocyte Subsets in Chinese Healthy Adults</t>
         </is>
       </c>
     </row>
@@ -1803,41 +1988,46 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>613–638</t>
+          <t>350–359</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F34">
-        <v>1020</v>
+        <v>465</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <v>5</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Cong Li</t>
+          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>DBLiPro: A Database for Lipids and Proteins in Human Lipid Metabolism</t>
         </is>
       </c>
     </row>
@@ -1845,38 +2035,53 @@
       <c r="A35">
         <v>2023</v>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>421–438</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F35">
-        <v>726</v>
+        <v>1972</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H35">
         <v>5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Hao Wu, Guoping Zhao</t>
+          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Overview of a Sleep Monitoring Protocol for a Large Natural Population</t>
         </is>
       </c>
     </row>
@@ -1891,41 +2096,46 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>535–547</t>
+          <t>228–242</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F36">
-        <v>677</v>
+        <v>614</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Ning-Ning Liu</t>
+          <t>Lin Zhang, Dan Chen</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>RNA-Sequencing Reveals Gene Expression and Pathway Signatures in Umbilical Cord Blood Affected by Birth Delivery Mode</t>
         </is>
       </c>
     </row>
@@ -1935,17 +2145,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>171–186</t>
+          <t>333–349</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1954,27 +2164,32 @@
         </is>
       </c>
       <c r="F37">
-        <v>467</v>
+        <v>2730</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Xiaolei Ren, Zhihong Li</t>
+          <t>Jianping Jia</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Genetic Phenotypes of Alzheimer’s Disease: Mechanisms and Potential Therapy</t>
         </is>
       </c>
     </row>
@@ -1984,46 +2199,51 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>72–80</t>
+          <t>217–227</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F38">
-        <v>506</v>
+        <v>3412</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Boyi Li, Dean Ta</t>
+          <t>Xia Shen</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
         </is>
       </c>
     </row>
@@ -2033,46 +2253,51 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>51–55</t>
+          <t>300–308</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F39">
-        <v>856</v>
+        <v>1059</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
+          <t>Zhexue Quan, Yan Zheng</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
         </is>
       </c>
     </row>
@@ -2082,17 +2307,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>109–124</t>
+          <t>457–468</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2101,27 +2326,32 @@
         </is>
       </c>
       <c r="F40">
-        <v>2039</v>
+        <v>581</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
         </is>
       </c>
     </row>
@@ -2131,46 +2361,51 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>81–89</t>
+          <t>408–420</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F41">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Dean Ta</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
         </is>
       </c>
     </row>
@@ -2185,41 +2420,46 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>496–501</t>
+          <t>268–284</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F42">
-        <v>691</v>
+        <v>1243</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Weimin Ye</t>
+          <t>Shangyu Hong, Yan Sun</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Diets, Gut Microbiota and Metabolites</t>
         </is>
       </c>
     </row>
@@ -2229,46 +2469,51 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>158–170</t>
+          <t>309–328</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F43">
-        <v>507</v>
+        <v>5454</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Ying Xu, Jiaxue Wu</t>
+          <t>Feng Qian</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
         </is>
       </c>
     </row>
@@ -2278,46 +2523,51 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>46–50</t>
+          <t>190–203</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F44">
-        <v>1164</v>
+        <v>720</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>3</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
+          <t>Hongfeng Chen</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
         </is>
       </c>
     </row>
@@ -2332,12 +2582,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>469–484</t>
+          <t>167–181</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2346,27 +2596,32 @@
         </is>
       </c>
       <c r="F45">
-        <v>442</v>
+        <v>939</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Menghan Hu, Min Dai</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2636,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>519–534</t>
+          <t>642–656</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2395,27 +2650,32 @@
         </is>
       </c>
       <c r="F46">
-        <v>579</v>
+        <v>912</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Jingjing Luo</t>
+          <t>Mei Tian</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
         </is>
       </c>
     </row>
@@ -2430,41 +2690,46 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>576–585</t>
+          <t>285–299</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F47">
-        <v>524</v>
+        <v>3298</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Xin Li, Xiang Li</t>
+          <t>Weihai Ying</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
         </is>
       </c>
     </row>
@@ -2479,41 +2744,46 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>329–332</t>
+          <t>502–518</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F48">
-        <v>772</v>
+        <v>1047</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bing Su</t>
+          <t>Hui Li</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
         </is>
       </c>
     </row>
@@ -2521,44 +2791,59 @@
       <c r="A49">
         <v>2023</v>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>243–254</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F49">
-        <v>970</v>
+        <v>1101</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2567,12 +2852,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>485–495</t>
+          <t>148–166</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2581,33 +2866,38 @@
         </is>
       </c>
       <c r="F50">
-        <v>500</v>
+        <v>1455</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
+          <t>Wei Yan, Jie Jin</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2616,12 +2906,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>390–407</t>
+          <t>130–137</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2630,33 +2920,38 @@
         </is>
       </c>
       <c r="F51">
-        <v>751</v>
+        <v>1086</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Li Zhang, Weimin Li</t>
+          <t>Jose Arturo Molina-Mora</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2665,61 +2960,66 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>439–456</t>
+          <t>101–118</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F52">
-        <v>1939</v>
+        <v>1168</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Guoping Zhao, Guoqing Zhang</t>
+          <t>He Wang</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1–12</t>
+          <t>255–267</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2728,82 +3028,82 @@
         </is>
       </c>
       <c r="F53">
-        <v>2409</v>
+        <v>1280</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>2023</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>138–145</t>
-        </is>
+        <v>2022</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F54">
-        <v>1830</v>
+        <v>1202</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Li Jin, Jiucun Wang</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2812,12 +3112,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>360–374</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2826,33 +3126,38 @@
         </is>
       </c>
       <c r="F55">
-        <v>4764</v>
+        <v>2969</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
+          <t>Boxun Lu, Yuhua Fu</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2861,12 +3166,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>350–359</t>
+          <t>64–76</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2875,33 +3180,38 @@
         </is>
       </c>
       <c r="F56">
-        <v>660</v>
+        <v>3705</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
+          <t>Weihua Meng</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2910,47 +3220,52 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>421–438</t>
+          <t>34–49</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F57">
-        <v>2614</v>
+        <v>1631</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2959,12 +3274,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>228–242</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2973,33 +3288,38 @@
         </is>
       </c>
       <c r="F58">
-        <v>788</v>
+        <v>1263</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H58">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Lin Zhang, Dan Chen</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3008,96 +3328,106 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>333–349</t>
+          <t>22–33</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F59">
-        <v>4046</v>
+        <v>1388</v>
       </c>
       <c r="G59">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H59">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Jianping Jia</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>217–227</t>
+          <t>383–388</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F60">
-        <v>4091</v>
+        <v>2839</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3106,110 +3436,120 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>300–308</t>
+          <t>565–575</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F61">
-        <v>1356</v>
+        <v>1179</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>457–468</t>
+          <t>363–382</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F62">
-        <v>722</v>
+        <v>7452</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H62">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>408–420</t>
+          <t>430–437</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3218,82 +3558,92 @@
         </is>
       </c>
       <c r="F63">
-        <v>723</v>
+        <v>1889</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>268–284</t>
+          <t>404–418</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F64">
-        <v>1564</v>
+        <v>1596</v>
       </c>
       <c r="G64">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H64">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3302,47 +3652,52 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>309–328</t>
+          <t>204–215</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F65">
-        <v>7332</v>
+        <v>1296</v>
       </c>
       <c r="G65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H65">
         <v>3</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Wenhao Zhou</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3351,61 +3706,66 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>190–203</t>
+          <t>375–389</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F66">
-        <v>830</v>
+        <v>4149</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>167–181</t>
+          <t>419–429</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3414,33 +3774,38 @@
         </is>
       </c>
       <c r="F67">
-        <v>1073</v>
+        <v>1412</v>
       </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>1</v>
       </c>
-      <c r="H67">
-        <v>13</v>
-      </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
+          <t>Shouling Wu, An Pan</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3449,96 +3814,106 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>642–656</t>
+          <t>138–147</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F68">
-        <v>1133</v>
+        <v>1175</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>285–299</t>
+          <t>389–403</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F69">
-        <v>4296</v>
+        <v>2546</v>
       </c>
       <c r="G69">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
+          <t>Yong Wang</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3547,61 +3922,66 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>502–518</t>
+          <t>77–82</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="F70">
-        <v>1239</v>
+        <v>3630</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Hui Li</t>
+          <t>Mei Tian, Li Jin</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>243–254</t>
+          <t>219–229</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3610,27 +3990,32 @@
         </is>
       </c>
       <c r="F71">
-        <v>1328</v>
+        <v>1521</v>
       </c>
       <c r="G71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
         </is>
       </c>
     </row>
@@ -3640,46 +4025,51 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>148–166</t>
+          <t>336–348</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F72">
-        <v>1661</v>
+        <v>2940</v>
       </c>
       <c r="G72">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H72">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
         </is>
       </c>
     </row>
@@ -3694,12 +4084,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>130–137</t>
+          <t>1–21</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3708,27 +4098,32 @@
         </is>
       </c>
       <c r="F73">
-        <v>1252</v>
+        <v>1874</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Manoel Teixeira Souza Júnior</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Multi-omics Analysis of Young &lt;i&gt;Portulaca oleracea&lt;/i&gt; L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
         </is>
       </c>
     </row>
@@ -3738,46 +4133,51 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>101–118</t>
+          <t>283–294</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F74">
-        <v>1328</v>
+        <v>1812</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>He Wang</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
         </is>
       </c>
     </row>
@@ -3792,12 +4192,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>255–267</t>
+          <t>182–189</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3806,27 +4206,32 @@
         </is>
       </c>
       <c r="F75">
-        <v>1493</v>
+        <v>1884</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H75">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
         </is>
       </c>
     </row>
@@ -3834,38 +4239,53 @@
       <c r="A76">
         <v>2022</v>
       </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>312–322</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F76">
-        <v>1347</v>
+        <v>2563</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
+          <t>Jose Arturo Molina-Mora</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
         </is>
       </c>
     </row>
@@ -3875,17 +4295,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>261–271</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3894,27 +4314,32 @@
         </is>
       </c>
       <c r="F77">
-        <v>3499</v>
+        <v>1491</v>
       </c>
       <c r="G77">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
         </is>
       </c>
     </row>
@@ -3929,41 +4354,46 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>64–76</t>
+          <t>83–100</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F78">
-        <v>4254</v>
+        <v>2121</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H78">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
+          <t>Lunxiu Qin</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Emerging Regulatory Mechanisms of N&lt;sup&gt;6&lt;/sup&gt;-Methyladenosine Modification in Cancer Metastasis</t>
         </is>
       </c>
     </row>
@@ -3973,46 +4403,51 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>34–49</t>
+          <t>349–361</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F79">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>Jian Wang</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
         </is>
       </c>
     </row>
@@ -4022,17 +4457,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>323–335</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4041,27 +4476,32 @@
         </is>
       </c>
       <c r="F80">
-        <v>1453</v>
+        <v>1441</v>
       </c>
       <c r="G80">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Xianting Ding</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4511,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>22–33</t>
+          <t>230–241</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4090,27 +4530,32 @@
         </is>
       </c>
       <c r="F81">
-        <v>1571</v>
+        <v>1781</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Hong Shu, Haojie Lu</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
         </is>
       </c>
     </row>
@@ -4125,41 +4570,46 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>383–388</t>
+          <t>184–193</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F82">
-        <v>3484</v>
+        <v>3730</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
+          <t>Haomin Yang, Weimin Ye</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
         </is>
       </c>
     </row>
@@ -4169,17 +4619,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>565–575</t>
+          <t>254–260</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4188,27 +4638,32 @@
         </is>
       </c>
       <c r="F83">
-        <v>1336</v>
+        <v>1207</v>
       </c>
       <c r="G83">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Yi Lu, Tianyu Zheng</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
         </is>
       </c>
     </row>
@@ -4223,41 +4678,46 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>363–382</t>
+          <t>242–253</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F84">
-        <v>9279</v>
+        <v>2068</v>
       </c>
       <c r="G84">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Longman Li, Xiaobo Yang</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
         </is>
       </c>
     </row>
@@ -4265,48 +4725,43 @@
       <c r="A85">
         <v>2022</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>430–437</t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F85">
-        <v>2102</v>
+        <v>1379</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
+          <t>Li Jin</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Correction to: Welcome to the &lt;i&gt;Phenomics&lt;/i&gt; Journal</t>
         </is>
       </c>
     </row>
@@ -4321,41 +4776,46 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>404–418</t>
+          <t>156–183</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F86">
-        <v>1794</v>
+        <v>5356</v>
       </c>
       <c r="G86">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+          <t>Karansher S. Sandhu</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
         </is>
       </c>
     </row>
@@ -4365,46 +4825,51 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>204–215</t>
+          <t>201–210</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F87">
-        <v>1389</v>
+        <v>1312</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Yenan Yang</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
         </is>
       </c>
     </row>
@@ -4414,17 +4879,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>375–389</t>
+          <t>211–218</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4433,27 +4898,32 @@
         </is>
       </c>
       <c r="F88">
-        <v>5399</v>
+        <v>1221</v>
       </c>
       <c r="G88">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Feng Jiang</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
         </is>
       </c>
     </row>
@@ -4468,12 +4938,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>419–429</t>
+          <t>130–135</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4482,27 +4952,32 @@
         </is>
       </c>
       <c r="F89">
-        <v>1545</v>
+        <v>1240</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
+          <t>Feng Jiang</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
         </is>
       </c>
     </row>
@@ -4512,46 +4987,51 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>138–147</t>
+          <t>102–118</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F90">
-        <v>1262</v>
+        <v>2027</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
         </is>
       </c>
     </row>
@@ -4566,12 +5046,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>389–403</t>
+          <t>194–200</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4580,27 +5060,32 @@
         </is>
       </c>
       <c r="F91">
-        <v>2919</v>
+        <v>1806</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>4</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in &lt;i&gt;Drosophila melanogaster&lt;/i&gt;</t>
         </is>
       </c>
     </row>
@@ -4610,46 +5095,51 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>77–82</t>
+          <t>136–144</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F92">
-        <v>3978</v>
+        <v>1072</v>
       </c>
       <c r="G92">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Yi Lu</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
         </is>
       </c>
     </row>
@@ -4664,41 +5154,46 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>219–229</t>
+          <t>1–17</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F93">
-        <v>1631</v>
+        <v>3448</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
+          <t>Lingjun Li</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
         </is>
       </c>
     </row>
@@ -4713,41 +5208,46 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>336–348</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F94">
-        <v>3358</v>
+        <v>1680</v>
       </c>
       <c r="G94">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Lin Li</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
         </is>
       </c>
     </row>
@@ -4757,17 +5257,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1–21</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4776,27 +5276,32 @@
         </is>
       </c>
       <c r="F95">
-        <v>1991</v>
+        <v>2870</v>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Yandan Lin</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
         </is>
       </c>
     </row>
@@ -4811,41 +5316,46 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>283–294</t>
+          <t>88–101</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F96">
-        <v>1970</v>
+        <v>2299</v>
       </c>
       <c r="G96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Yang Du, Jie Tian</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
         </is>
       </c>
     </row>
@@ -4855,17 +5365,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>182–189</t>
+          <t>64–71</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4874,27 +5384,32 @@
         </is>
       </c>
       <c r="F97">
-        <v>2155</v>
+        <v>1333</v>
       </c>
       <c r="G97">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
         </is>
       </c>
     </row>
@@ -4909,41 +5424,46 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>312–322</t>
+          <t>145–155</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F98">
-        <v>2859</v>
+        <v>3396</v>
       </c>
       <c r="G98">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Martin Picard</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Why Do We Care More About Disease than Health?</t>
         </is>
       </c>
     </row>
@@ -4958,41 +5478,46 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>261–271</t>
+          <t>18–32</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F99">
-        <v>1604</v>
+        <v>2411</v>
       </c>
       <c r="G99">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Xianting Ding</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
         </is>
       </c>
     </row>
@@ -5002,46 +5527,51 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>83–100</t>
+          <t>33–49</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F100">
-        <v>2473</v>
+        <v>2145</v>
       </c>
       <c r="G100">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Jixi Li</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
         </is>
       </c>
     </row>
@@ -5049,48 +5579,43 @@
       <c r="A101">
         <v>2022</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>349–361</t>
-        </is>
-      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F101">
-        <v>1930</v>
+        <v>1448</v>
       </c>
       <c r="G101">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
+          <t>Yun Chen, Zhixin Tian</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
         </is>
       </c>
     </row>
@@ -5105,12 +5630,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>323–335</t>
+          <t>295–311</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5119,27 +5644,32 @@
         </is>
       </c>
       <c r="F102">
-        <v>1533</v>
+        <v>2767</v>
       </c>
       <c r="G102">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H102">
         <v>7</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Xingdong Chen</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
         </is>
       </c>
     </row>
@@ -5154,47 +5684,52 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>230–241</t>
+          <t>272–281</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F103">
-        <v>1917</v>
+        <v>4183</v>
       </c>
       <c r="G103">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -5203,47 +5738,52 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>184–193</t>
+          <t>79–87</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F104">
-        <v>4285</v>
+        <v>4494</v>
       </c>
       <c r="G104">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -5252,61 +5792,66 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>254–260</t>
+          <t>72–77</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F105">
-        <v>1312</v>
+        <v>1478</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Wenhao Zhou</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>242–253</t>
+          <t>285–298</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5315,135 +5860,160 @@
         </is>
       </c>
       <c r="F106">
-        <v>2376</v>
+        <v>2148</v>
       </c>
       <c r="G106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Yuguo Yu</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>2022</v>
+        <v>2021</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>243–256</t>
+        </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F107">
-        <v>1520</v>
+        <v>2226</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>156–183</t>
+          <t>269–284</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F108">
-        <v>6167</v>
+        <v>2162</v>
       </c>
       <c r="G108">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="H108">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
+          <t>Yun Chen, Zhixin Tian</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>&lt;i&gt;N&lt;/i&gt;-Glycoproteomics Study of Putative &lt;i&gt;N&lt;/i&gt;-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>201–210</t>
+          <t>257–268</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5452,47 +6022,52 @@
         </is>
       </c>
       <c r="F109">
-        <v>1409</v>
+        <v>2112</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
+          <t>Hongming Shan</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>211–218</t>
+          <t>199–210</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5501,47 +6076,52 @@
         </is>
       </c>
       <c r="F110">
-        <v>1300</v>
+        <v>2055</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H110">
         <v>2</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>130–135</t>
+          <t>211–221</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5550,47 +6130,52 @@
         </is>
       </c>
       <c r="F111">
-        <v>1307</v>
+        <v>1806</v>
       </c>
       <c r="G111">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Xiaobo Yang</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>102–118</t>
+          <t>222–228</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5599,96 +6184,106 @@
         </is>
       </c>
       <c r="F112">
-        <v>2206</v>
+        <v>3925</v>
       </c>
       <c r="G112">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H112">
         <v>4</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Aijun Sun</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>194–200</t>
+          <t>229–241</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F113">
-        <v>1934</v>
+        <v>2037</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Jiangping Song</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>136–144</t>
+          <t>186–198</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5697,47 +6292,52 @@
         </is>
       </c>
       <c r="F114">
-        <v>1177</v>
+        <v>1923</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1–17</t>
+          <t>171–185</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5746,341 +6346,376 @@
         </is>
       </c>
       <c r="F115">
-        <v>3585</v>
+        <v>2403</v>
       </c>
       <c r="G115">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H115">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Shanfeng Zhu</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>151–170</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F116">
-        <v>1824</v>
+        <v>4932</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Chengyan Wang, He Wang</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>143–150</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F117">
-        <v>3254</v>
+        <v>4936</v>
       </c>
       <c r="G117">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H117">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Jeremy K. Nicholson</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>88–101</t>
+          <t>91–104</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F118">
-        <v>2442</v>
+        <v>3933</v>
       </c>
       <c r="G118">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H118">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Jia Rao, Hong Xu</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>64–71</t>
+          <t>113–128</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F119">
-        <v>1433</v>
+        <v>4941</v>
       </c>
       <c r="G119">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Xinhua Lin, Bing Zhao</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Defense of COVID-19 by Human Organoids</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>145–155</t>
+          <t>129–142</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F120">
-        <v>3529</v>
+        <v>4116</v>
       </c>
       <c r="G120">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H120">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t>Jose Arturo Molina-Mora</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican &lt;i&gt;Pseudomonas aeruginosa &lt;/i&gt;AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>18–32</t>
+          <t>105–112</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F121">
-        <v>2630</v>
+        <v>1612</v>
       </c>
       <c r="G121">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Xun Gu</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>33–49</t>
+          <t>73–89</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6089,164 +6724,194 @@
         </is>
       </c>
       <c r="F122">
-        <v>2346</v>
+        <v>2294</v>
       </c>
       <c r="G122">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H122">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Comparison of Metabolic Profiling of &lt;i&gt;Arabidopsis&lt;/i&gt; Inflorescences Between Landsberg &lt;i&gt;erecta&lt;/i&gt; and Columbia, and Meiosis-Defective Mutants by &lt;sup&gt;1&lt;/sup&gt;H-NMR Spectroscopy</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>2022</v>
+        <v>2021</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>62–72</t>
+        </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F123">
-        <v>1582</v>
+        <v>3610</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Shenghong Ju</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>295–311</t>
+          <t>31–53</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F124">
-        <v>3032</v>
+        <v>5310</v>
       </c>
       <c r="G124">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
+          <t>Neelam R. Yadav</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>272–281</t>
+          <t>54–61</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F125">
-        <v>4543</v>
+        <v>4098</v>
       </c>
       <c r="G125">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H125">
         <v>4</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Wei Chen</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
         </is>
       </c>
     </row>
@@ -6256,46 +6921,51 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>79–87</t>
+          <t>22–30</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F126">
-        <v>5187</v>
+        <v>5441</v>
       </c>
       <c r="G126">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2021-02-22</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Gong Zhang, Jingjie Jin</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
         </is>
       </c>
     </row>
@@ -6305,17 +6975,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>72–77</t>
+          <t>15–21</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6324,27 +6994,32 @@
         </is>
       </c>
       <c r="F127">
-        <v>1551</v>
+        <v>2870</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2021-02-22</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>&lt;i&gt;In Situ&lt;/i&gt; Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates &lt;i&gt;Ucp1&lt;/i&gt; Expression</t>
         </is>
       </c>
     </row>
@@ -6359,12 +7034,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>285–298</t>
+          <t>3–14</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6373,27 +7048,32 @@
         </is>
       </c>
       <c r="F128">
-        <v>2229</v>
+        <v>7023</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H128">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2021-02-22</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Jiucun Wang, Li Jin</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
         </is>
       </c>
     </row>
@@ -6408,1119 +7088,46 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>243–256</t>
+          <t>1–2</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Editorial</t>
         </is>
       </c>
       <c r="F129">
-        <v>2386</v>
+        <v>5945</v>
       </c>
       <c r="G129">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H129">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-01-11</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00009-4</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>2021</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>269–284</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Article</t>
-        </is>
-      </c>
-      <c r="F130">
-        <v>2300</v>
-      </c>
-      <c r="G130">
-        <v>9</v>
-      </c>
-      <c r="H130">
-        <v>6</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>2021-10-28</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>Yun Chen, Zhixin Tian</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>2021</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>257–268</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Article</t>
-        </is>
-      </c>
-      <c r="F131">
-        <v>2272</v>
-      </c>
-      <c r="G131">
-        <v>19</v>
-      </c>
-      <c r="H131">
-        <v>4</v>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>2021-10-26</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>Hongming Shan</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>2021</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>199–210</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Article</t>
-        </is>
-      </c>
-      <c r="F132">
-        <v>2259</v>
-      </c>
-      <c r="G132">
-        <v>4</v>
-      </c>
-      <c r="H132">
-        <v>3</v>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>2021-10-19</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>2021</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>211–221</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Article</t>
-        </is>
-      </c>
-      <c r="F133">
-        <v>1935</v>
-      </c>
-      <c r="G133">
-        <v>6</v>
-      </c>
-      <c r="H133">
-        <v>16</v>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>2021-09-23</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Xiaobo Yang</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>2021</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>222–228</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="F134">
-        <v>4649</v>
-      </c>
-      <c r="G134">
-        <v>8</v>
-      </c>
-      <c r="H134">
-        <v>5</v>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>2021-09-20</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Aijun Sun</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>2021</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>229–241</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="F135">
-        <v>2197</v>
-      </c>
-      <c r="G135">
-        <v>13</v>
-      </c>
-      <c r="H135">
-        <v>3</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>2021-08-26</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Jiangping Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>2021</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>186–198</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Article</t>
-        </is>
-      </c>
-      <c r="F136">
-        <v>2033</v>
-      </c>
-      <c r="G136">
-        <v>10</v>
-      </c>
-      <c r="H136">
-        <v>2</v>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>2021-08-24</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>2021</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>171–185</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="F137">
-        <v>2547</v>
-      </c>
-      <c r="G137">
-        <v>8</v>
-      </c>
-      <c r="H137">
-        <v>5</v>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>2021-08-06</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Shanfeng Zhu</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>2021</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>151–170</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="F138">
-        <v>5548</v>
-      </c>
-      <c r="G138">
-        <v>16</v>
-      </c>
-      <c r="H138">
-        <v>2</v>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>2021-07-28</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Chengyan Wang, He Wang</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>2021</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>143–150</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="F139">
-        <v>5207</v>
-      </c>
-      <c r="G139">
-        <v>17</v>
-      </c>
-      <c r="H139">
-        <v>40</v>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>2021-07-22</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Jeremy K. Nicholson</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>2021</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>91–104</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Article</t>
-        </is>
-      </c>
-      <c r="F140">
-        <v>4753</v>
-      </c>
-      <c r="G140">
-        <v>8</v>
-      </c>
-      <c r="H140">
-        <v>3</v>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>2021-07-15</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>Jia Rao, Hong Xu</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>2021</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>113–128</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="F141">
-        <v>5356</v>
-      </c>
-      <c r="G141">
-        <v>9</v>
-      </c>
-      <c r="H141">
-        <v>6</v>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>2021-07-14</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>Xinhua Lin, Bing Zhao</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>2021</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>129–142</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="F142">
-        <v>4466</v>
-      </c>
-      <c r="G142">
-        <v>11</v>
-      </c>
-      <c r="H142">
-        <v>4</v>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>2021-06-17</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>Jose Arturo Molina-Mora</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143">
-        <v>2021</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>105–112</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Article</t>
-        </is>
-      </c>
-      <c r="F143">
-        <v>1669</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="H143">
-        <v>2</v>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>2021-06-17</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>Xun Gu</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144">
-        <v>2021</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>73–89</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Article</t>
-        </is>
-      </c>
-      <c r="F144">
-        <v>2369</v>
-      </c>
-      <c r="G144">
-        <v>4</v>
-      </c>
-      <c r="H144">
-        <v>3</v>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>2021-05-11</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145">
-        <v>2021</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>62–72</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Article</t>
-        </is>
-      </c>
-      <c r="F145">
-        <v>3891</v>
-      </c>
-      <c r="G145">
-        <v>6</v>
-      </c>
-      <c r="H145">
-        <v>3</v>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>2021-05-11</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>Shenghong Ju</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146">
-        <v>2021</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>31–53</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="F146">
-        <v>5679</v>
-      </c>
-      <c r="G146">
-        <v>40</v>
-      </c>
-      <c r="H146">
-        <v>3</v>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>2021-05-11</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>Neelam R. Yadav</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147">
-        <v>2021</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>54–61</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Article</t>
-        </is>
-      </c>
-      <c r="F147">
-        <v>4666</v>
-      </c>
-      <c r="G147">
-        <v>5</v>
-      </c>
-      <c r="H147">
-        <v>5</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>2021-04-19</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Wei Chen</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148">
-        <v>2021</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>22–30</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Article</t>
-        </is>
-      </c>
-      <c r="F148">
-        <v>5928</v>
-      </c>
-      <c r="G148">
-        <v>15</v>
-      </c>
-      <c r="H148">
-        <v>12</v>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>2021-02-22</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>Gong Zhang, Jingjie Jin</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149">
-        <v>2021</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>15–21</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Correspondence</t>
-        </is>
-      </c>
-      <c r="F149">
-        <v>2980</v>
-      </c>
-      <c r="G149">
-        <v>3</v>
-      </c>
-      <c r="H149">
-        <v>3</v>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>2021-02-22</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>Qiurong Ding</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150">
-        <v>2021</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>3–14</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Article</t>
-        </is>
-      </c>
-      <c r="F150">
-        <v>7646</v>
-      </c>
-      <c r="G150">
-        <v>5</v>
-      </c>
-      <c r="H150">
-        <v>16</v>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>2021-02-22</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>Jiucun Wang, Li Jin</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151">
-        <v>2021</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>1–2</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Editorial</t>
-        </is>
-      </c>
-      <c r="F151">
-        <v>6383</v>
-      </c>
-      <c r="G151">
-        <v>10</v>
-      </c>
-      <c r="H151">
-        <v>7</v>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>2021-01-11</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00009-4</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
           <t>Li Jin</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Welcome to the &lt;i&gt;Phenomics&lt;/i&gt; Journal</t>
         </is>
       </c>
     </row>

--- a/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,11 +413,6 @@
           <t>correspond_authors</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -425,16 +420,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -444,22 +439,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00156-y</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Measurement of Energy Expenditure by Indirect Calorimetry with a Whole-Room Calorimeter</t>
+          <t>Shigang Zhao</t>
         </is>
       </c>
     </row>
@@ -469,7 +459,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -478,32 +468,27 @@
         </is>
       </c>
       <c r="F3">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00146-6</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Leming Shi, Yuanting Zheng</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Reference Materials for Improving Reliability of Multiomics Profiling</t>
+          <t>Jiaxing Tian, Linhua Zhao, Xiaolin Tong, NA</t>
         </is>
       </c>
     </row>
@@ -513,16 +498,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -532,22 +517,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00141-x</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>The Critical Role of the Shroom Family Proteins in Morphogenesis, Organogenesis and Disease</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
@@ -557,16 +537,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F5">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,22 +556,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00187-5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Multimodal Omics Approaches to Aging and Age-Related Diseases</t>
+          <t>Gang Wei, Ting Ni</t>
         </is>
       </c>
     </row>
@@ -601,41 +576,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F6">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00142-w</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Wei Sheng, Guoying Huang</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Next-Generation Sequencing-Based Copy Number Variation Analysis in Chinese Patients with Primary Ciliary Dyskinesia Revealed Novel &lt;i&gt;DNAH5&lt;/i&gt; Copy Number Variations</t>
+          <t>Juan Su, Xuejun Zhang, Xiang Chen</t>
         </is>
       </c>
     </row>
@@ -645,7 +615,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -654,52 +624,37 @@
         </is>
       </c>
       <c r="F7">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00144-8</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>A Heterozygous &lt;i&gt;Phospholamban&lt;/i&gt; Variant (p.R14del) Leads to Left Ventricular Involvement and Heart Failure Phenotypes in Arrhythmogenic Right Ventricular Cardiomyopathy</t>
+          <t>Xiangdong Tang, Huan Song</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2023</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>549–564</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -708,61 +663,46 @@
         </is>
       </c>
       <c r="F8">
-        <v>1279</v>
+        <v>88</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00169-7</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>A Noninvasive Approach to Evaluate Tumor Immune Microenvironment and Predict Outcomes in Hepatocellular Carcinoma</t>
+          <t>Hai-Liang Zhang, Yan Shi, Yuan-Yuan Qu, Ding-Wei Ye</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2023</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>586–596</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F9">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -772,42 +712,27 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00157-x</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Guifen Yang, Longjiang Zhang</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence Empowered Nuclear Medicine and Molecular Imaging in Cardiology: A State-of-the-Art Review</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2023</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>639–641</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -816,248 +741,193 @@
         </is>
       </c>
       <c r="F10">
-        <v>464</v>
+        <v>78</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00185-7</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Michael C. Kreissl</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Comments on Study of “Performance of 18F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study”</t>
+          <t>Hao Yang</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2023</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>597–612</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correspondence/Letter to the Editor</t>
         </is>
       </c>
       <c r="F11">
-        <v>1131</v>
+        <v>394</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00164-y</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Phenomic Imaging</t>
+          <t>Binhao Shi, Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>613–638</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F12">
-        <v>564</v>
+        <v>442</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00134-w</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Cong Li</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Visualizing Macrophage Phenotypes and Polarization in Diseases: From Biomarkers to Molecular Probes</t>
+          <t>Huan Song</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F13">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00132-y</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Hao Wu, Guoping Zhao</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Human Gut Microbiome Researches Over the Last Decade: Current Challenges and Future Directions</t>
+          <t>Yongjun Wang, Yanping Yang</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2023</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>535–547</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F14">
-        <v>386</v>
+        <v>198</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00149-3</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Ning-Ning Liu</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Oral Microbiota: A New Insight into Cancer Progression, Diagnosis and Treatment</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1066,130 +936,115 @@
         </is>
       </c>
       <c r="F15">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00154-6</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Xiaolei Ren, Zhihong Li</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>3D Models of Sarcomas: The Next-generation Tool for Personalized Medicine</t>
+          <t>Zheng Liu, Zhihong Zhang</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F16">
-        <v>231</v>
+        <v>480</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00140-y</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Boyi Li, Dean Ta</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>The Protocol of Ultrasonic Backscatter Measurements of Musculoskeletal Properties</t>
+          <t>Zhifei Dai, Desheng Sun</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F17">
-        <v>396</v>
+        <v>219</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Circulating Lipoproteins Mediate the Association Between Cardiovascular Risk Factors and Cognitive Decline: A Community-Based Cohort Study</t>
+          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1198,140 +1053,125 @@
         </is>
       </c>
       <c r="F18">
-        <v>1103</v>
+        <v>137</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Plasma-Free Blood as a Potential Alternative to Whole Blood for Transcriptomic Analysis</t>
+          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F19">
-        <v>310</v>
+        <v>151</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Analysis of the Immune Response by Standardized Whole-Blood Stimulation with Metabolism Modulation</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2023</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>496–501</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F20">
-        <v>473</v>
+        <v>159</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Weimin Ye</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Inflammation as a Mediator of Microbiome Dysbiosis-Associated DNA Methylation Changes in Gastric Premalignant Lesions</t>
+          <t>Hao Cheng, Bin Li</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>125–137</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1340,204 +1180,164 @@
         </is>
       </c>
       <c r="F21">
-        <v>225</v>
+        <v>430</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Ying Xu, Jiaxue Wu</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Identification of Poly(ADP-ribose) Polymerase 9 (PARP9) as a Potent Suppressor for &lt;i&gt;Mycobacterium tuberculosis&lt;/i&gt; Infection</t>
+          <t>Bi Chen, Bing Gu</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F22">
-        <v>263</v>
+        <v>466</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Allergic Phenotypes and Sarcopenia: Evidence from Observational Studies and Mendelian Randomization Analysis</t>
+          <t>Jie Chen</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2023</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>469–484</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F23">
-        <v>308</v>
+        <v>212</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Menghan Hu, Min Dai</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Auxiliary Diagnosis of Papillary Thyroid Carcinoma Based on Spectral Phenotype</t>
+          <t>Yan Zheng, Zhonghan Sun</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2023</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>519–534</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F24">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Jingjing Luo</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>A Protocol for Digitalized Collection of Traditional Chinese Medicine (TCM) Pulse Information Using Bionic Pulse Diagnosis Equipment</t>
+          <t>Yong Zhang</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>576–585</t>
+          <t>91–108</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1546,150 +1346,135 @@
         </is>
       </c>
       <c r="F25">
-        <v>335</v>
+        <v>448</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Xin Li, Xiang Li</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Performance of &lt;sup&gt;18&lt;/sup&gt;F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study</t>
+          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>329–332</t>
+          <t>146–157</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F26">
-        <v>581</v>
+        <v>398</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bing Su</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>High Arterial Oxygen Saturation in the Acclimatized Lowlanders Living at High Altitude</t>
+          <t>Xujie Zhou</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>34–45</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F27">
-        <v>705</v>
+        <v>389</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Correction: Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
+          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2023</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>485–495</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1698,248 +1483,233 @@
         </is>
       </c>
       <c r="F28">
-        <v>336</v>
+        <v>675</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>A Common Functional Variant at the Enhancer of the Rheumatoid Arthritis Risk Gene &lt;i&gt;ORMDL3&lt;/i&gt; Regulates its Expression Through Allele-Specific JunD Binding</t>
+          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>390–407</t>
+          <t>203–212</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F29">
-        <v>465</v>
+        <v>399</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Li Zhang, Weimin Li</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Integrative Identification by Hi-C Revealed Distinct Advanced Structural Variations in Lung Adenocarcinoma Tissue</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>439–456</t>
+          <t>187–202</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F30">
-        <v>1463</v>
+        <v>498</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Guoping Zhao, Guoqing Zhang</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Mycobacteriaceae Phenome Atlas (MPA): A Standardized Atlas for the Mycobacteriaceae Phenome Based on Heterogeneous Sources</t>
+          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F31">
-        <v>1500</v>
+        <v>2217</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>De Novo Dissecting the Three-Dimensional Facial Morphology of 2379 Han Chinese Individuals</t>
+          <t>Leming Shi, Yuanting Zheng</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>56–71</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F32">
-        <v>1197</v>
+        <v>816</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Li Jin, Jiucun Wang</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Quantitative Assessment of Ultraviolet-Induced Erythema and Tanning Responses in the Han Chinese Population</t>
+          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>360–374</t>
+          <t>24–33</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1948,52 +1718,47 @@
         </is>
       </c>
       <c r="F33">
-        <v>3546</v>
+        <v>1092</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Immune-Ageing Evaluation of Peripheral T and NK Lymphocyte Subsets in Chinese Healthy Adults</t>
+          <t>Wei Sheng, Guoying Huang</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>350–359</t>
+          <t>13–23</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2002,32 +1767,27 @@
         </is>
       </c>
       <c r="F34">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>DBLiPro: A Database for Lipids and Proteins in Human Lipid Metabolism</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
     </row>
@@ -2042,46 +1802,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>421–438</t>
+          <t>549–564</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F35">
-        <v>1972</v>
+        <v>2153</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Overview of a Sleep Monitoring Protocol for a Large Natural Population</t>
+          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
         </is>
       </c>
     </row>
@@ -2096,46 +1851,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>228–242</t>
+          <t>586–596</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F36">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Lin Zhang, Dan Chen</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>RNA-Sequencing Reveals Gene Expression and Pathway Signatures in Umbilical Cord Blood Affected by Birth Delivery Mode</t>
+          <t>Guifen Yang, Longjiang Zhang</t>
         </is>
       </c>
     </row>
@@ -2150,46 +1900,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>333–349</t>
+          <t>639–641</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F37">
-        <v>2730</v>
+        <v>851</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Jianping Jia</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Genetic Phenotypes of Alzheimer’s Disease: Mechanisms and Potential Therapy</t>
+          <t>Michael C. Kreissl</t>
         </is>
       </c>
     </row>
@@ -2204,46 +1949,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>217–227</t>
+          <t>597–612</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F38">
-        <v>3412</v>
+        <v>2251</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
@@ -2258,46 +1998,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>300–308</t>
+          <t>613–638</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F39">
-        <v>1059</v>
+        <v>1107</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
+          <t>Cong Li</t>
         </is>
       </c>
     </row>
@@ -2305,53 +2040,38 @@
       <c r="A40">
         <v>2023</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>457–468</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Editorial</t>
         </is>
       </c>
       <c r="F40">
-        <v>581</v>
+        <v>811</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
+          <t>Hao Wu, Guoping Zhao</t>
         </is>
       </c>
     </row>
@@ -2366,46 +2086,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>408–420</t>
+          <t>535–547</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F41">
-        <v>613</v>
+        <v>752</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
+          <t>Ning-Ning Liu</t>
         </is>
       </c>
     </row>
@@ -2415,17 +2130,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>268–284</t>
+          <t>171–186</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2434,32 +2149,27 @@
         </is>
       </c>
       <c r="F42">
-        <v>1243</v>
+        <v>549</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Diets, Gut Microbiota and Metabolites</t>
+          <t>Xiaolei Ren, Zhihong Li</t>
         </is>
       </c>
     </row>
@@ -2469,17 +2179,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>309–328</t>
+          <t>72–80</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2488,32 +2198,27 @@
         </is>
       </c>
       <c r="F43">
-        <v>5454</v>
+        <v>569</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
+          <t>Boyi Li, Dean Ta</t>
         </is>
       </c>
     </row>
@@ -2523,51 +2228,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>190–203</t>
+          <t>51–55</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F44">
-        <v>720</v>
+        <v>925</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
+          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
         </is>
       </c>
     </row>
@@ -2577,17 +2277,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>167–181</t>
+          <t>109–124</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2596,32 +2296,27 @@
         </is>
       </c>
       <c r="F45">
-        <v>939</v>
+        <v>2222</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
+          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
         </is>
       </c>
     </row>
@@ -2631,17 +2326,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>642–656</t>
+          <t>81–89</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2650,32 +2345,27 @@
         </is>
       </c>
       <c r="F46">
-        <v>912</v>
+        <v>631</v>
       </c>
       <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
         <v>2</v>
       </c>
-      <c r="H46">
-        <v>5</v>
-      </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -2690,46 +2380,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>285–299</t>
+          <t>496–501</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F47">
-        <v>3298</v>
+        <v>742</v>
       </c>
       <c r="G47">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
+          <t>Weimin Ye</t>
         </is>
       </c>
     </row>
@@ -2739,51 +2424,46 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>502–518</t>
+          <t>158–170</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F48">
-        <v>1047</v>
+        <v>568</v>
       </c>
       <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
         <v>0</v>
       </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Hui Li</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
+          <t>Ying Xu, Jiaxue Wu</t>
         </is>
       </c>
     </row>
@@ -2793,57 +2473,52 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>243–254</t>
+          <t>46–50</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F49">
-        <v>1101</v>
+        <v>1329</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>4</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
+          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2852,12 +2527,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>148–166</t>
+          <t>469–484</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2866,38 +2541,33 @@
         </is>
       </c>
       <c r="F50">
-        <v>1455</v>
+        <v>483</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
+          <t>Menghan Hu, Min Dai</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2906,52 +2576,47 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>130–137</t>
+          <t>519–534</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F51">
-        <v>1086</v>
+        <v>629</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
+          <t>Jingjing Luo</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2960,52 +2625,47 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>101–118</t>
+          <t>576–585</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F52">
-        <v>1168</v>
+        <v>569</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>He Wang</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
+          <t>Xin Li, Xiang Li</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3014,56 +2674,51 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>255–267</t>
+          <t>329–332</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F53">
-        <v>1280</v>
+        <v>811</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
+          <t>Bing Su</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3072,7 +2727,7 @@
         </is>
       </c>
       <c r="F54">
-        <v>1202</v>
+        <v>1018</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3082,28 +2737,23 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3112,12 +2762,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>485–495</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3126,38 +2776,33 @@
         </is>
       </c>
       <c r="F55">
-        <v>2969</v>
+        <v>543</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>4</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
+          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3166,12 +2811,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>64–76</t>
+          <t>390–407</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3180,38 +2825,33 @@
         </is>
       </c>
       <c r="F56">
-        <v>3705</v>
+        <v>816</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
+          <t>Li Zhang, Weimin Li</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3220,12 +2860,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>34–49</t>
+          <t>439–456</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3234,52 +2874,47 @@
         </is>
       </c>
       <c r="F57">
-        <v>1631</v>
+        <v>2047</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>Guoping Zhao, Guoqing Zhang</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>1–12</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3288,52 +2923,47 @@
         </is>
       </c>
       <c r="F58">
-        <v>1263</v>
+        <v>2527</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
+          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>22–33</t>
+          <t>138–145</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3342,92 +2972,82 @@
         </is>
       </c>
       <c r="F59">
-        <v>1388</v>
+        <v>2001</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
+          <t>Li Jin, Jiucun Wang</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>383–388</t>
+          <t>360–374</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F60">
-        <v>2839</v>
+        <v>4972</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
+          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3436,12 +3056,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>565–575</t>
+          <t>350–359</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3450,106 +3070,96 @@
         </is>
       </c>
       <c r="F61">
-        <v>1179</v>
+        <v>706</v>
       </c>
       <c r="G61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
+          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>363–382</t>
+          <t>421–438</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F62">
-        <v>7452</v>
+        <v>2753</v>
       </c>
       <c r="G62">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H62">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
+          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>430–437</t>
+          <t>228–242</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3558,92 +3168,82 @@
         </is>
       </c>
       <c r="F63">
-        <v>1889</v>
+        <v>822</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
+          <t>Lin Zhang, Dan Chen</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>404–418</t>
+          <t>333–349</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F64">
-        <v>1596</v>
+        <v>4249</v>
       </c>
       <c r="G64">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
+          <t>Jianping Jia</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3652,52 +3252,47 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>204–215</t>
+          <t>217–227</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F65">
-        <v>1296</v>
+        <v>4211</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3706,66 +3301,61 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>375–389</t>
+          <t>300–308</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F66">
-        <v>4149</v>
+        <v>1410</v>
       </c>
       <c r="G66">
         <v>9</v>
       </c>
       <c r="H66">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
+          <t>Zhexue Quan, Yan Zheng</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>419–429</t>
+          <t>457–468</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3774,38 +3364,33 @@
         </is>
       </c>
       <c r="F67">
-        <v>1412</v>
+        <v>778</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3814,12 +3399,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>138–147</t>
+          <t>408–420</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3828,92 +3413,82 @@
         </is>
       </c>
       <c r="F68">
-        <v>1175</v>
+        <v>755</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
+          <t>Dean Ta</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>389–403</t>
+          <t>268–284</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F69">
-        <v>2546</v>
+        <v>1656</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
+          <t>Shangyu Hong, Yan Sun</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3922,160 +3497,145 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>77–82</t>
+          <t>309–328</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F70">
-        <v>3630</v>
+        <v>7676</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>219–229</t>
+          <t>190–203</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F71">
-        <v>1521</v>
+        <v>879</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
+          <t>Hongfeng Chen</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>336–348</t>
+          <t>167–181</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F72">
-        <v>2940</v>
+        <v>1107</v>
       </c>
       <c r="G72">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4084,106 +3644,96 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1–21</t>
+          <t>642–656</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F73">
-        <v>1874</v>
+        <v>1182</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Multi-omics Analysis of Young &lt;i&gt;Portulaca oleracea&lt;/i&gt; L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>283–294</t>
+          <t>285–299</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F74">
-        <v>1812</v>
+        <v>4476</v>
       </c>
       <c r="G74">
+        <v>26</v>
+      </c>
+      <c r="H74">
         <v>3</v>
       </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
+          <t>Weihai Ying</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4192,66 +3742,61 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>182–189</t>
+          <t>502–518</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F75">
-        <v>1884</v>
+        <v>1302</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
+          <t>Hui Li</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>312–322</t>
+          <t>243–254</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4260,32 +3805,27 @@
         </is>
       </c>
       <c r="F76">
-        <v>2563</v>
+        <v>1379</v>
       </c>
       <c r="G76">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H76">
         <v>4</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
         </is>
       </c>
     </row>
@@ -4295,17 +3835,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>261–271</t>
+          <t>148–166</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4314,32 +3854,27 @@
         </is>
       </c>
       <c r="F77">
-        <v>1491</v>
+        <v>1705</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
+          <t>Wei Yan, Jie Jin</t>
         </is>
       </c>
     </row>
@@ -4354,46 +3889,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>83–100</t>
+          <t>130–137</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F78">
-        <v>2121</v>
+        <v>1296</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Emerging Regulatory Mechanisms of N&lt;sup&gt;6&lt;/sup&gt;-Methyladenosine Modification in Cancer Metastasis</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -4403,17 +3933,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>349–361</t>
+          <t>101–118</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4422,32 +3952,27 @@
         </is>
       </c>
       <c r="F79">
-        <v>1793</v>
+        <v>1362</v>
       </c>
       <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
         <v>3</v>
       </c>
-      <c r="H79">
-        <v>120</v>
-      </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
+          <t>He Wang</t>
         </is>
       </c>
     </row>
@@ -4457,17 +3982,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>323–335</t>
+          <t>255–267</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4476,32 +4001,27 @@
         </is>
       </c>
       <c r="F80">
-        <v>1441</v>
+        <v>1548</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
         </is>
       </c>
     </row>
@@ -4509,53 +4029,38 @@
       <c r="A81">
         <v>2022</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>230–241</t>
-        </is>
-      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F81">
-        <v>1781</v>
+        <v>1394</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -4565,17 +4070,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>184–193</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4584,32 +4089,27 @@
         </is>
       </c>
       <c r="F82">
-        <v>3730</v>
+        <v>3623</v>
       </c>
       <c r="G82">
         <v>8</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
     </row>
@@ -4619,17 +4119,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>254–260</t>
+          <t>64–76</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4638,32 +4138,27 @@
         </is>
       </c>
       <c r="F83">
-        <v>1207</v>
+        <v>4387</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
     </row>
@@ -4673,17 +4168,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>242–253</t>
+          <t>34–49</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4692,32 +4187,27 @@
         </is>
       </c>
       <c r="F84">
-        <v>2068</v>
+        <v>1843</v>
       </c>
       <c r="G84">
+        <v>7</v>
+      </c>
+      <c r="H84">
         <v>3</v>
       </c>
-      <c r="H84">
-        <v>2</v>
-      </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -4725,43 +4215,48 @@
       <c r="A85">
         <v>2022</v>
       </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>50–63</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F85">
-        <v>1379</v>
+        <v>1491</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Li Jin</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Correction to: Welcome to the &lt;i&gt;Phenomics&lt;/i&gt; Journal</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
     </row>
@@ -4771,51 +4266,46 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>156–183</t>
+          <t>22–33</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F86">
-        <v>5356</v>
+        <v>1615</v>
       </c>
       <c r="G86">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="H86">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
     </row>
@@ -4830,46 +4320,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>201–210</t>
+          <t>383–388</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F87">
-        <v>1312</v>
+        <v>3617</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
     </row>
@@ -4879,17 +4364,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>211–218</t>
+          <t>565–575</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4898,32 +4383,27 @@
         </is>
       </c>
       <c r="F88">
-        <v>1221</v>
+        <v>1374</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
     </row>
@@ -4938,46 +4418,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>130–135</t>
+          <t>363–382</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F89">
-        <v>1240</v>
+        <v>9792</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
         </is>
       </c>
     </row>
@@ -4992,46 +4467,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>102–118</t>
+          <t>430–437</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F90">
-        <v>2027</v>
+        <v>2161</v>
       </c>
       <c r="G90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
         </is>
       </c>
     </row>
@@ -5046,12 +4516,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>194–200</t>
+          <t>404–418</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5060,32 +4530,27 @@
         </is>
       </c>
       <c r="F91">
-        <v>1806</v>
+        <v>1855</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in &lt;i&gt;Drosophila melanogaster&lt;/i&gt;</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
         </is>
       </c>
     </row>
@@ -5095,51 +4560,46 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>136–144</t>
+          <t>204–215</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F92">
-        <v>1072</v>
+        <v>1417</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
     </row>
@@ -5149,51 +4609,46 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1–17</t>
+          <t>375–389</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F93">
-        <v>3448</v>
+        <v>5628</v>
       </c>
       <c r="G93">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H93">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
     </row>
@@ -5208,12 +4663,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>419–429</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5222,32 +4677,27 @@
         </is>
       </c>
       <c r="F94">
-        <v>1680</v>
+        <v>1583</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Lin Li</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
+          <t>Shouling Wu, An Pan</t>
         </is>
       </c>
     </row>
@@ -5257,17 +4707,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>138–147</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5276,32 +4726,27 @@
         </is>
       </c>
       <c r="F95">
-        <v>2870</v>
+        <v>1290</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
     </row>
@@ -5316,46 +4761,41 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>88–101</t>
+          <t>389–403</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F96">
-        <v>2299</v>
+        <v>2999</v>
       </c>
       <c r="G96">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H96">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
+          <t>Yong Wang</t>
         </is>
       </c>
     </row>
@@ -5365,51 +4805,46 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>64–71</t>
+          <t>77–82</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="F97">
-        <v>1333</v>
+        <v>4059</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
@@ -5424,46 +4859,41 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>145–155</t>
+          <t>219–229</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F98">
-        <v>3396</v>
+        <v>1678</v>
       </c>
       <c r="G98">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H98">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Why Do We Care More About Disease than Health?</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
     </row>
@@ -5478,12 +4908,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>18–32</t>
+          <t>336–348</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5492,32 +4922,27 @@
         </is>
       </c>
       <c r="F99">
-        <v>2411</v>
+        <v>3440</v>
       </c>
       <c r="G99">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
         </is>
       </c>
     </row>
@@ -5527,17 +4952,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>33–49</t>
+          <t>1–21</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5546,32 +4971,27 @@
         </is>
       </c>
       <c r="F100">
-        <v>2145</v>
+        <v>2039</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H100">
         <v>4</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
     </row>
@@ -5579,43 +4999,48 @@
       <c r="A101">
         <v>2022</v>
       </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>283–294</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F101">
-        <v>1448</v>
+        <v>2007</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
     </row>
@@ -5625,17 +5050,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>295–311</t>
+          <t>182–189</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5644,32 +5069,27 @@
         </is>
       </c>
       <c r="F102">
-        <v>2767</v>
+        <v>2209</v>
       </c>
       <c r="G102">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H102">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
     </row>
@@ -5684,52 +5104,47 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>272–281</t>
+          <t>312–322</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F103">
-        <v>4183</v>
+        <v>2946</v>
       </c>
       <c r="G103">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -5738,174 +5153,159 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>79–87</t>
+          <t>261–271</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F104">
-        <v>4494</v>
+        <v>1634</v>
       </c>
       <c r="G104">
+        <v>6</v>
+      </c>
+      <c r="H104">
         <v>3</v>
       </c>
-      <c r="H104">
-        <v>2</v>
-      </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>72–77</t>
+          <t>83–100</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F105">
-        <v>1478</v>
+        <v>2511</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>285–298</t>
+          <t>349–361</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F106">
-        <v>2148</v>
+        <v>1974</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
+          <t>Jian Wang</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>243–256</t>
+          <t>323–335</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5914,52 +5314,47 @@
         </is>
       </c>
       <c r="F107">
-        <v>2226</v>
+        <v>1569</v>
       </c>
       <c r="G107">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>269–284</t>
+          <t>230–241</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5968,52 +5363,47 @@
         </is>
       </c>
       <c r="F108">
-        <v>2162</v>
+        <v>1956</v>
       </c>
       <c r="G108">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H108">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>&lt;i&gt;N&lt;/i&gt;-Glycoproteomics Study of Putative &lt;i&gt;N&lt;/i&gt;-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>257–268</t>
+          <t>184–193</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6022,52 +5412,47 @@
         </is>
       </c>
       <c r="F109">
-        <v>2112</v>
+        <v>4383</v>
       </c>
       <c r="G109">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>199–210</t>
+          <t>254–260</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6076,52 +5461,47 @@
         </is>
       </c>
       <c r="F110">
-        <v>2055</v>
+        <v>1348</v>
       </c>
       <c r="G110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>2</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
+          <t>Yi Lu, Tianyu Zheng</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>211–221</t>
+          <t>242–253</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6130,106 +5510,86 @@
         </is>
       </c>
       <c r="F111">
-        <v>1806</v>
+        <v>2429</v>
       </c>
       <c r="G111">
         <v>5</v>
       </c>
       <c r="H111">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>2021</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>222–228</t>
-        </is>
+        <v>2022</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F112">
-        <v>3925</v>
+        <v>1560</v>
       </c>
       <c r="G112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
+          <t>Li Jin</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>229–241</t>
+          <t>156–183</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6238,52 +5598,47 @@
         </is>
       </c>
       <c r="F113">
-        <v>2037</v>
+        <v>6434</v>
       </c>
       <c r="G113">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>186–198</t>
+          <t>201–210</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6292,160 +5647,145 @@
         </is>
       </c>
       <c r="F114">
-        <v>1923</v>
+        <v>1438</v>
       </c>
       <c r="G114">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>171–185</t>
+          <t>211–218</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F115">
-        <v>2403</v>
+        <v>1329</v>
       </c>
       <c r="G115">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>151–170</t>
+          <t>130–135</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F116">
-        <v>4932</v>
+        <v>1335</v>
       </c>
       <c r="G116">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>143–150</t>
+          <t>102–118</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6454,52 +5794,47 @@
         </is>
       </c>
       <c r="F117">
-        <v>4936</v>
+        <v>2254</v>
       </c>
       <c r="G117">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H117">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>91–104</t>
+          <t>194–200</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6508,106 +5843,96 @@
         </is>
       </c>
       <c r="F118">
-        <v>3933</v>
+        <v>1969</v>
       </c>
       <c r="G118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>113–128</t>
+          <t>136–144</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F119">
-        <v>4941</v>
+        <v>1206</v>
       </c>
       <c r="G119">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Defense of COVID-19 by Human Organoids</t>
+          <t>Yi Lu</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>129–142</t>
+          <t>1–17</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6616,52 +5941,47 @@
         </is>
       </c>
       <c r="F120">
-        <v>4116</v>
+        <v>3622</v>
       </c>
       <c r="G120">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican &lt;i&gt;Pseudomonas aeruginosa &lt;/i&gt;AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>105–112</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6670,52 +5990,47 @@
         </is>
       </c>
       <c r="F121">
-        <v>1612</v>
+        <v>1866</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
+          <t>Lin Li</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>73–89</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6724,410 +6039,1683 @@
         </is>
       </c>
       <c r="F122">
-        <v>2294</v>
+        <v>3360</v>
       </c>
       <c r="G122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Comparison of Metabolic Profiling of &lt;i&gt;Arabidopsis&lt;/i&gt; Inflorescences Between Landsberg &lt;i&gt;erecta&lt;/i&gt; and Columbia, and Meiosis-Defective Mutants by &lt;sup&gt;1&lt;/sup&gt;H-NMR Spectroscopy</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>62–72</t>
+          <t>88–101</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F123">
-        <v>3610</v>
+        <v>2476</v>
       </c>
       <c r="G123">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>31–53</t>
+          <t>64–71</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F124">
-        <v>5310</v>
+        <v>1474</v>
       </c>
       <c r="G124">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>54–61</t>
+          <t>145–155</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F125">
-        <v>4098</v>
+        <v>3576</v>
       </c>
       <c r="G125">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
+          <t>Martin Picard</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>22–30</t>
+          <t>18–32</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F126">
-        <v>5441</v>
+        <v>2680</v>
       </c>
       <c r="G126">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H126">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>15–21</t>
+          <t>33–49</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F127">
-        <v>2870</v>
+        <v>2411</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>&lt;i&gt;In Situ&lt;/i&gt; Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates &lt;i&gt;Ucp1&lt;/i&gt; Expression</t>
+          <t>Jixi Li</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>2021</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>3–14</t>
-        </is>
+        <v>2022</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F128">
-        <v>7023</v>
+        <v>1621</v>
       </c>
       <c r="G128">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1–2</t>
+          <t>295–311</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F129">
-        <v>5945</v>
+        <v>3086</v>
       </c>
       <c r="G129">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H129">
         <v>7</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
+          <t>2022-01-11</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Xingdong Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>2022</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>272–281</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F130">
+        <v>4611</v>
+      </c>
+      <c r="G130">
+        <v>7</v>
+      </c>
+      <c r="H130">
+        <v>4</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2022-01-09</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>2021</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>79–87</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F131">
+        <v>5314</v>
+      </c>
+      <c r="G131">
+        <v>6</v>
+      </c>
+      <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>2021</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>72–77</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Correspondence</t>
+        </is>
+      </c>
+      <c r="F132">
+        <v>1581</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2021-11-11</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Wenhao Zhou</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>2021</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>285–298</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F133">
+        <v>2258</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133">
+        <v>5</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2021-11-10</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Yuguo Yu</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>2021</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>243–256</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F134">
+        <v>2423</v>
+      </c>
+      <c r="G134">
+        <v>16</v>
+      </c>
+      <c r="H134">
+        <v>6</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2021-10-29</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>2021</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>269–284</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F135">
+        <v>2334</v>
+      </c>
+      <c r="G135">
+        <v>9</v>
+      </c>
+      <c r="H135">
+        <v>6</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Yun Chen, Zhixin Tian</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>2021</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>257–268</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F136">
+        <v>2303</v>
+      </c>
+      <c r="G136">
+        <v>19</v>
+      </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Hongming Shan</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>2021</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>199–210</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F137">
+        <v>2294</v>
+      </c>
+      <c r="G137">
+        <v>4</v>
+      </c>
+      <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2021-10-19</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Xingxing Kong, Tiemin Liu</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>2021</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>211–221</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F138">
+        <v>1967</v>
+      </c>
+      <c r="G138">
+        <v>7</v>
+      </c>
+      <c r="H138">
+        <v>16</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>2021-09-23</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Xiaobo Yang</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>2021</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>222–228</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F139">
+        <v>4790</v>
+      </c>
+      <c r="G139">
+        <v>8</v>
+      </c>
+      <c r="H139">
+        <v>5</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>2021-09-20</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Aijun Sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>2021</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>229–241</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F140">
+        <v>2232</v>
+      </c>
+      <c r="G140">
+        <v>15</v>
+      </c>
+      <c r="H140">
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2021-08-26</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Jiangping Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>2021</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>186–198</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F141">
+        <v>2072</v>
+      </c>
+      <c r="G141">
+        <v>11</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>2021-08-24</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>2021</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>171–185</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F142">
+        <v>2577</v>
+      </c>
+      <c r="G142">
+        <v>9</v>
+      </c>
+      <c r="H142">
+        <v>5</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>2021-08-06</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Shanfeng Zhu</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>2021</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>151–170</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F143">
+        <v>5705</v>
+      </c>
+      <c r="G143">
+        <v>17</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>2021-07-28</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Chengyan Wang, He Wang</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>2021</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>143–150</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F144">
+        <v>5273</v>
+      </c>
+      <c r="G144">
+        <v>18</v>
+      </c>
+      <c r="H144">
+        <v>40</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Jeremy K. Nicholson</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>2021</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>91–104</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F145">
+        <v>4929</v>
+      </c>
+      <c r="G145">
+        <v>8</v>
+      </c>
+      <c r="H145">
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Jia Rao, Hong Xu</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>2021</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>113–128</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F146">
+        <v>5444</v>
+      </c>
+      <c r="G146">
+        <v>10</v>
+      </c>
+      <c r="H146">
+        <v>6</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>2021-07-14</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Xinhua Lin, Bing Zhao</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>2021</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>129–142</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F147">
+        <v>4546</v>
+      </c>
+      <c r="G147">
+        <v>11</v>
+      </c>
+      <c r="H147">
+        <v>4</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Jose Arturo Molina-Mora</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>2021</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>105–112</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F148">
+        <v>1703</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Xun Gu</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>2021</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>73–89</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F149">
+        <v>2397</v>
+      </c>
+      <c r="G149">
+        <v>4</v>
+      </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>2021-05-11</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Limin Zhang, Yingxiang Wang</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>2021</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>62–72</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F150">
+        <v>3955</v>
+      </c>
+      <c r="G150">
+        <v>6</v>
+      </c>
+      <c r="H150">
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>2021-05-11</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Shenghong Ju</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>2021</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>31–53</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F151">
+        <v>5822</v>
+      </c>
+      <c r="G151">
+        <v>41</v>
+      </c>
+      <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>2021-05-11</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Neelam R. Yadav</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>2021</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>54–61</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F152">
+        <v>4765</v>
+      </c>
+      <c r="G152">
+        <v>5</v>
+      </c>
+      <c r="H152">
+        <v>5</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Wei Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>2021</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>22–30</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F153">
+        <v>6018</v>
+      </c>
+      <c r="G153">
+        <v>15</v>
+      </c>
+      <c r="H153">
+        <v>12</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Gong Zhang, Jingjie Jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>2021</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>15–21</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Correspondence</t>
+        </is>
+      </c>
+      <c r="F154">
+        <v>3021</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>2021</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>3–14</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F155">
+        <v>7773</v>
+      </c>
+      <c r="G155">
+        <v>6</v>
+      </c>
+      <c r="H155">
+        <v>16</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Jiucun Wang, Li Jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>2021</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1–2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Editorial</t>
+        </is>
+      </c>
+      <c r="F156">
+        <v>6509</v>
+      </c>
+      <c r="G156">
+        <v>13</v>
+      </c>
+      <c r="H156">
+        <v>7</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
           <t>https://link.springer.com/article/10.1007/s43657-020-00009-4</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="K156" t="inlineStr">
         <is>
           <t>Li Jin</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Welcome to the &lt;i&gt;Phenomics&lt;/i&gt; Journal</t>
         </is>
       </c>
     </row>

--- a/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K156"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,16 +420,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Perspective</t>
         </is>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,17 +439,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00156-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00196-4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Shigang Zhao</t>
+          <t>Qi-Rong Qin, Lianmin Chen, Evan Yi-Wen Yu</t>
         </is>
       </c>
     </row>
@@ -459,36 +459,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F3">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00146-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00183-9</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Jiaxing Tian, Linhua Zhao, Xiaolin Tong, NA</t>
+          <t>Guiying Wang, Xuelian Li, Chenqi Lu</t>
         </is>
       </c>
     </row>
@@ -498,36 +498,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F4">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00141-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00177-7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Peng Wu</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -546,27 +546,27 @@
         </is>
       </c>
       <c r="F5">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00187-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00171-z</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Gang Wei, Ting Ni</t>
+          <t>Bo Shen, Yuanlin Song, Junjie Wu</t>
         </is>
       </c>
     </row>
@@ -576,36 +576,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F6">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00142-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00163-z</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Juan Su, Xuejun Zhang, Xiang Chen</t>
+          <t>Wang Wei, Tian Hua</t>
         </is>
       </c>
     </row>
@@ -615,36 +615,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F7">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00144-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00156-y</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Xiangdong Tang, Huan Song</t>
+          <t>Shigang Zhao</t>
         </is>
       </c>
     </row>
@@ -652,38 +652,48 @@
       <c r="A8">
         <v>2024</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>257–268</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F8">
-        <v>88</v>
+        <v>605</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00169-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00146-6</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hai-Liang Zhang, Yan Shi, Yuan-Yuan Qu, Ding-Wei Ye</t>
+          <t>Jiaxing Tian, Linhua Zhao, Xiaolin Tong, NA</t>
         </is>
       </c>
     </row>
@@ -693,36 +703,36 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F9">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00157-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00141-x</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
@@ -732,36 +742,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F10">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00185-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00187-5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Hao Yang</t>
+          <t>Gang Wei, Ting Ni</t>
         </is>
       </c>
     </row>
@@ -769,38 +779,48 @@
       <c r="A11">
         <v>2024</v>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>269–292</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Correspondence/Letter to the Editor</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F11">
-        <v>394</v>
+        <v>268</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00164-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00142-w</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Binhao Shi, Dezhi Tang, Yongjun Wang</t>
+          <t>Juan Su, Xuejun Zhang, Xiang Chen</t>
         </is>
       </c>
     </row>
@@ -810,7 +830,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -819,27 +839,27 @@
         </is>
       </c>
       <c r="F12">
-        <v>442</v>
+        <v>124</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00134-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00144-8</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Huan Song</t>
+          <t>Xiangdong Tang, Huan Song</t>
         </is>
       </c>
     </row>
@@ -849,7 +869,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -858,27 +878,27 @@
         </is>
       </c>
       <c r="F13">
-        <v>329</v>
+        <v>123</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00132-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00169-7</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Yongjun Wang, Yanping Yang</t>
+          <t>Hai-Liang Zhang, Yan Shi, Yuan-Yuan Qu, Ding-Wei Ye</t>
         </is>
       </c>
     </row>
@@ -893,31 +913,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F14">
-        <v>198</v>
+        <v>373</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00149-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00157-x</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
     </row>
@@ -927,36 +947,36 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F15">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00154-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00185-7</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Zheng Liu, Zhihong Zhang</t>
+          <t>Hao Yang</t>
         </is>
       </c>
     </row>
@@ -964,18 +984,28 @@
       <c r="A16">
         <v>2024</v>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>293–297</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correspondence/Letter to the Editor</t>
         </is>
       </c>
       <c r="F16">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -985,17 +1015,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00140-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00164-y</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Zhifei Dai, Desheng Sun</t>
+          <t>Binhao Shi, Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1035,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1014,27 +1044,27 @@
         </is>
       </c>
       <c r="F17">
-        <v>219</v>
+        <v>544</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00134-w</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
+          <t>Huan Song</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1074,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1053,27 +1083,27 @@
         </is>
       </c>
       <c r="F18">
-        <v>137</v>
+        <v>406</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-06-01</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00132-y</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
+          <t>Yongjun Wang, Yanping Yang</t>
         </is>
       </c>
     </row>
@@ -1083,36 +1113,36 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F19">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00149-3</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -1120,38 +1150,48 @@
       <c r="A20">
         <v>2024</v>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>298–312</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F20">
-        <v>159</v>
+        <v>659</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00140-y</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Hao Cheng, Bin Li</t>
+          <t>Zhifei Dai, Desheng Sun</t>
         </is>
       </c>
     </row>
@@ -1159,48 +1199,38 @@
       <c r="A21">
         <v>2024</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>125–137</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F21">
-        <v>430</v>
+        <v>249</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-05-04</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00154-6</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bi Chen, Bing Gu</t>
+          <t>Zheng Liu, Zhihong Zhang</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1240,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1219,27 +1249,27 @@
         </is>
       </c>
       <c r="F22">
-        <v>466</v>
+        <v>262</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Jie Chen</t>
+          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
         </is>
       </c>
     </row>
@@ -1249,36 +1279,36 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F23">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Yan Zheng, Zhonghan Sun</t>
+          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
         </is>
       </c>
     </row>
@@ -1286,38 +1316,48 @@
       <c r="A24">
         <v>2024</v>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>254–256</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F24">
-        <v>379</v>
+        <v>203</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Yong Zhang</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
@@ -1325,48 +1365,38 @@
       <c r="A25">
         <v>2024</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>91–108</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F25">
-        <v>448</v>
+        <v>191</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>8</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
+          <t>Hao Cheng, Bin Li</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1411,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>146–157</t>
+          <t>125–137</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1395,27 +1425,27 @@
         </is>
       </c>
       <c r="F26">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Xujie Zhou</t>
+          <t>Bi Chen, Bing Gu</t>
         </is>
       </c>
     </row>
@@ -1430,12 +1460,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>34–45</t>
+          <t>234–249</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1444,27 +1474,27 @@
         </is>
       </c>
       <c r="F27">
-        <v>389</v>
+        <v>603</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
+          <t>Jie Chen</t>
         </is>
       </c>
     </row>
@@ -1472,38 +1502,48 @@
       <c r="A28">
         <v>2024</v>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>250–253</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F28">
-        <v>675</v>
+        <v>303</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
+          <t>Yan Zheng, Zhonghan Sun</t>
         </is>
       </c>
     </row>
@@ -1518,41 +1558,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>203–212</t>
+          <t>213–226</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F29">
-        <v>399</v>
+        <v>476</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Yong Zhang</t>
         </is>
       </c>
     </row>
@@ -1567,41 +1607,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>187–202</t>
+          <t>91–108</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F30">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
+          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
         </is>
       </c>
     </row>
@@ -1609,6 +1649,16 @@
       <c r="A31">
         <v>2024</v>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>146–157</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>2024-03</t>
@@ -1616,31 +1666,31 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F31">
-        <v>2217</v>
+        <v>445</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>11</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Leming Shi, Yuanting Zheng</t>
+          <t>Xujie Zhou</t>
         </is>
       </c>
     </row>
@@ -1655,41 +1705,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>56–71</t>
+          <t>34–45</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F32">
-        <v>816</v>
+        <v>426</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>13</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
+          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1754,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>24–33</t>
+          <t>227–233</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1718,27 +1768,27 @@
         </is>
       </c>
       <c r="F33">
-        <v>1092</v>
+        <v>802</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Wei Sheng, Guoying Huang</t>
+          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
         </is>
       </c>
     </row>
@@ -1753,110 +1803,100 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13–23</t>
+          <t>203–212</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F34">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>549–564</t>
+          <t>187–202</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F35">
-        <v>2153</v>
+        <v>571</v>
       </c>
       <c r="G35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
+          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>2023</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>586–596</t>
-        </is>
+        <v>2024</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1865,174 +1905,174 @@
         </is>
       </c>
       <c r="F36">
-        <v>591</v>
+        <v>2362</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Guifen Yang, Longjiang Zhang</t>
+          <t>Leming Shi, Yuanting Zheng</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>639–641</t>
+          <t>56–71</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F37">
-        <v>851</v>
+        <v>890</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Michael C. Kreissl</t>
+          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>597–612</t>
+          <t>24–33</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F38">
-        <v>2251</v>
+        <v>1179</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Wei Sheng, Guoying Huang</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>613–638</t>
+          <t>13–23</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F39">
-        <v>1107</v>
+        <v>477</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>10</v>
       </c>
-      <c r="H39">
-        <v>5</v>
-      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Cong Li</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
     </row>
@@ -2040,38 +2080,48 @@
       <c r="A40">
         <v>2023</v>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>549–564</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F40">
-        <v>811</v>
+        <v>2284</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Hao Wu, Guoping Zhao</t>
+          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2136,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>535–547</t>
+          <t>586–596</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2100,27 +2150,27 @@
         </is>
       </c>
       <c r="F41">
-        <v>752</v>
+        <v>647</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Ning-Ning Liu</t>
+          <t>Guifen Yang, Longjiang Zhang</t>
         </is>
       </c>
     </row>
@@ -2130,46 +2180,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>171–186</t>
+          <t>639–641</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F42">
-        <v>549</v>
+        <v>896</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Xiaolei Ren, Zhihong Li</t>
+          <t>Michael C. Kreissl</t>
         </is>
       </c>
     </row>
@@ -2179,46 +2229,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>72–80</t>
+          <t>597–612</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F43">
-        <v>569</v>
+        <v>2402</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Boyi Li, Dean Ta</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
@@ -2228,46 +2278,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>51–55</t>
+          <t>613–638</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F44">
-        <v>925</v>
+        <v>1210</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
+          <t>Cong Li</t>
         </is>
       </c>
     </row>
@@ -2275,48 +2325,38 @@
       <c r="A45">
         <v>2023</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>109–124</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Editorial</t>
         </is>
       </c>
       <c r="F45">
-        <v>2222</v>
+        <v>900</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
+          <t>Hao Wu, Guoping Zhao</t>
         </is>
       </c>
     </row>
@@ -2326,46 +2366,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>81–89</t>
+          <t>535–547</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F46">
-        <v>631</v>
+        <v>811</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Ning-Ning Liu</t>
         </is>
       </c>
     </row>
@@ -2375,46 +2415,46 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>496–501</t>
+          <t>171–186</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F47">
-        <v>742</v>
+        <v>602</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Weimin Ye</t>
+          <t>Xiaolei Ren, Zhihong Li</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2469,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>158–170</t>
+          <t>72–80</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2439,31 +2479,31 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F48">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
         <v>2</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Ying Xu, Jiaxue Wu</t>
+          <t>Boyi Li, Dean Ta</t>
         </is>
       </c>
     </row>
@@ -2478,12 +2518,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>46–50</t>
+          <t>51–55</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2492,27 +2532,27 @@
         </is>
       </c>
       <c r="F49">
-        <v>1329</v>
+        <v>991</v>
       </c>
       <c r="G49">
         <v>2</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
+          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
         </is>
       </c>
     </row>
@@ -2522,17 +2562,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>469–484</t>
+          <t>109–124</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2541,27 +2581,27 @@
         </is>
       </c>
       <c r="F50">
-        <v>483</v>
+        <v>2360</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Menghan Hu, Min Dai</t>
+          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
         </is>
       </c>
     </row>
@@ -2571,17 +2611,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>519–534</t>
+          <t>81–89</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2590,27 +2630,27 @@
         </is>
       </c>
       <c r="F51">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Jingjing Luo</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -2625,41 +2665,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>576–585</t>
+          <t>496–501</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F52">
-        <v>569</v>
+        <v>785</v>
       </c>
       <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
         <v>3</v>
       </c>
-      <c r="H52">
-        <v>10</v>
-      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Xin Li, Xiang Li</t>
+          <t>Weimin Ye</t>
         </is>
       </c>
     </row>
@@ -2669,46 +2709,46 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>329–332</t>
+          <t>158–170</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F53">
-        <v>811</v>
+        <v>622</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bing Su</t>
+          <t>Ying Xu, Jiaxue Wu</t>
         </is>
       </c>
     </row>
@@ -2716,38 +2756,48 @@
       <c r="A54">
         <v>2023</v>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>46–50</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F54">
-        <v>1018</v>
+        <v>1480</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
         </is>
       </c>
     </row>
@@ -2762,12 +2812,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>485–495</t>
+          <t>469–484</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2776,27 +2826,27 @@
         </is>
       </c>
       <c r="F55">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
+          <t>Menghan Hu, Min Dai</t>
         </is>
       </c>
     </row>
@@ -2811,41 +2861,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>390–407</t>
+          <t>519–534</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F56">
-        <v>816</v>
+        <v>682</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H56">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Li Zhang, Weimin Li</t>
+          <t>Jingjing Luo</t>
         </is>
       </c>
     </row>
@@ -2860,12 +2910,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>439–456</t>
+          <t>576–585</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2874,27 +2924,27 @@
         </is>
       </c>
       <c r="F57">
-        <v>2047</v>
+        <v>607</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Guoping Zhao, Guoqing Zhang</t>
+          <t>Xin Li, Xiang Li</t>
         </is>
       </c>
     </row>
@@ -2904,46 +2954,46 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1–12</t>
+          <t>329–332</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F58">
-        <v>2527</v>
+        <v>849</v>
       </c>
       <c r="G58">
         <v>2</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
+          <t>Bing Su</t>
         </is>
       </c>
     </row>
@@ -2951,48 +3001,38 @@
       <c r="A59">
         <v>2023</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>138–145</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F59">
-        <v>2001</v>
+        <v>1055</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Li Jin, Jiucun Wang</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
@@ -3007,12 +3047,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>360–374</t>
+          <t>485–495</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3021,27 +3061,27 @@
         </is>
       </c>
       <c r="F60">
-        <v>4972</v>
+        <v>587</v>
       </c>
       <c r="G60">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
+          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
         </is>
       </c>
     </row>
@@ -3056,12 +3096,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>350–359</t>
+          <t>390–407</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3070,27 +3110,27 @@
         </is>
       </c>
       <c r="F61">
-        <v>706</v>
+        <v>867</v>
       </c>
       <c r="G61">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
+          <t>Li Zhang, Weimin Li</t>
         </is>
       </c>
     </row>
@@ -3105,41 +3145,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>421–438</t>
+          <t>439–456</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F62">
-        <v>2753</v>
+        <v>2108</v>
       </c>
       <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
         <v>8</v>
       </c>
-      <c r="H62">
-        <v>5</v>
-      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
+          <t>Guoping Zhao, Guoqing Zhang</t>
         </is>
       </c>
     </row>
@@ -3149,17 +3189,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>228–242</t>
+          <t>1–12</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3168,27 +3208,27 @@
         </is>
       </c>
       <c r="F63">
-        <v>822</v>
+        <v>2652</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Lin Zhang, Dan Chen</t>
+          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
         </is>
       </c>
     </row>
@@ -3198,46 +3238,46 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>333–349</t>
+          <t>138–145</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F64">
-        <v>4249</v>
+        <v>2138</v>
       </c>
       <c r="G64">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Jianping Jia</t>
+          <t>Li Jin, Jiucun Wang</t>
         </is>
       </c>
     </row>
@@ -3252,41 +3292,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>217–227</t>
+          <t>360–374</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F65">
-        <v>4211</v>
+        <v>5157</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H65">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
         </is>
       </c>
     </row>
@@ -3301,41 +3341,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>300–308</t>
+          <t>350–359</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F66">
-        <v>1410</v>
+        <v>742</v>
       </c>
       <c r="G66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
+          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
         </is>
       </c>
     </row>
@@ -3350,41 +3390,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>457–468</t>
+          <t>421–438</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F67">
-        <v>778</v>
+        <v>2870</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H67">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3439,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>408–420</t>
+          <t>228–242</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3413,27 +3453,27 @@
         </is>
       </c>
       <c r="F68">
-        <v>755</v>
+        <v>862</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
+          <t>Lin Zhang, Dan Chen</t>
         </is>
       </c>
     </row>
@@ -3448,12 +3488,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>268–284</t>
+          <t>333–349</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3462,27 +3502,27 @@
         </is>
       </c>
       <c r="F69">
-        <v>1656</v>
+        <v>4405</v>
       </c>
       <c r="G69">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H69">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
+          <t>Jianping Jia</t>
         </is>
       </c>
     </row>
@@ -3497,41 +3537,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>309–328</t>
+          <t>217–227</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F70">
-        <v>7676</v>
+        <v>4293</v>
       </c>
       <c r="G70">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
@@ -3546,41 +3586,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>190–203</t>
+          <t>300–308</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F71">
-        <v>879</v>
+        <v>1464</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
+          <t>Zhexue Quan, Yan Zheng</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3635,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>167–181</t>
+          <t>457–468</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3609,27 +3649,27 @@
         </is>
       </c>
       <c r="F72">
-        <v>1107</v>
+        <v>828</v>
       </c>
       <c r="G72">
         <v>2</v>
       </c>
       <c r="H72">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
         </is>
       </c>
     </row>
@@ -3644,41 +3684,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>642–656</t>
+          <t>408–420</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F73">
-        <v>1182</v>
+        <v>791</v>
       </c>
       <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
         <v>3</v>
       </c>
-      <c r="H73">
-        <v>6</v>
-      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Dean Ta</t>
         </is>
       </c>
     </row>
@@ -3693,12 +3733,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>285–299</t>
+          <t>268–284</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3707,27 +3747,27 @@
         </is>
       </c>
       <c r="F74">
-        <v>4476</v>
+        <v>1743</v>
       </c>
       <c r="G74">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
+          <t>Shangyu Hong, Yan Sun</t>
         </is>
       </c>
     </row>
@@ -3742,41 +3782,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>502–518</t>
+          <t>309–328</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F75">
-        <v>1302</v>
+        <v>7954</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Hui Li</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -3791,47 +3831,47 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>243–254</t>
+          <t>190–203</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F76">
-        <v>1379</v>
+        <v>922</v>
       </c>
       <c r="G76">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>4</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
+          <t>Hongfeng Chen</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3840,12 +3880,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>148–166</t>
+          <t>167–181</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3854,33 +3894,33 @@
         </is>
       </c>
       <c r="F77">
-        <v>1705</v>
+        <v>1144</v>
       </c>
       <c r="G77">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H77">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3889,47 +3929,47 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>130–137</t>
+          <t>642–656</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F78">
-        <v>1296</v>
+        <v>1230</v>
       </c>
       <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
         <v>6</v>
       </c>
-      <c r="H78">
-        <v>5</v>
-      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3938,12 +3978,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>101–118</t>
+          <t>285–299</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3952,33 +3992,33 @@
         </is>
       </c>
       <c r="F79">
-        <v>1362</v>
+        <v>4590</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>He Wang</t>
+          <t>Weihai Ying</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3987,80 +4027,90 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>255–267</t>
+          <t>502–518</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F80">
-        <v>1548</v>
+        <v>1353</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>Hui Li</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>243–254</t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F81">
-        <v>1394</v>
+        <v>1409</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4125,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>148–166</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4089,27 +4139,27 @@
         </is>
       </c>
       <c r="F82">
-        <v>3623</v>
+        <v>1755</v>
       </c>
       <c r="G82">
+        <v>10</v>
+      </c>
+      <c r="H82">
         <v>8</v>
       </c>
-      <c r="H82">
-        <v>5</v>
-      </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
+          <t>Wei Yan, Jie Jin</t>
         </is>
       </c>
     </row>
@@ -4124,12 +4174,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>64–76</t>
+          <t>130–137</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4138,27 +4188,27 @@
         </is>
       </c>
       <c r="F83">
-        <v>4387</v>
+        <v>1330</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H83">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -4173,41 +4223,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>34–49</t>
+          <t>101–118</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F84">
-        <v>1843</v>
+        <v>1410</v>
       </c>
       <c r="G84">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>He Wang</t>
         </is>
       </c>
     </row>
@@ -4222,12 +4272,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>255–267</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4236,27 +4286,27 @@
         </is>
       </c>
       <c r="F85">
-        <v>1491</v>
+        <v>1592</v>
       </c>
       <c r="G85">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
         </is>
       </c>
     </row>
@@ -4264,48 +4314,38 @@
       <c r="A86">
         <v>2022</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>22–33</t>
-        </is>
-      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F86">
-        <v>1615</v>
+        <v>1426</v>
       </c>
       <c r="G86">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -4315,46 +4355,46 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>383–388</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F87">
-        <v>3617</v>
+        <v>3706</v>
       </c>
       <c r="G87">
+        <v>8</v>
+      </c>
+      <c r="H87">
         <v>5</v>
       </c>
-      <c r="H87">
-        <v>3</v>
-      </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4409,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>565–575</t>
+          <t>64–76</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4383,27 +4423,27 @@
         </is>
       </c>
       <c r="F88">
-        <v>1374</v>
+        <v>4501</v>
       </c>
       <c r="G88">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4453,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>363–382</t>
+          <t>34–49</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4428,31 +4468,31 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F89">
-        <v>9792</v>
+        <v>1876</v>
       </c>
       <c r="G89">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H89">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -4462,17 +4502,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>430–437</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4481,27 +4521,27 @@
         </is>
       </c>
       <c r="F90">
-        <v>2161</v>
+        <v>1540</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
     </row>
@@ -4511,17 +4551,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>404–418</t>
+          <t>22–33</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4530,27 +4570,27 @@
         </is>
       </c>
       <c r="F91">
-        <v>1855</v>
+        <v>1651</v>
       </c>
       <c r="G91">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
     </row>
@@ -4560,17 +4600,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>204–215</t>
+          <t>383–388</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4579,27 +4619,27 @@
         </is>
       </c>
       <c r="F92">
-        <v>1417</v>
+        <v>3725</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H92">
         <v>3</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
     </row>
@@ -4614,12 +4654,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>375–389</t>
+          <t>565–575</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4628,27 +4668,27 @@
         </is>
       </c>
       <c r="F93">
-        <v>5628</v>
+        <v>1410</v>
       </c>
       <c r="G93">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H93">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
     </row>
@@ -4663,41 +4703,41 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>419–429</t>
+          <t>363–382</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F94">
-        <v>1583</v>
+        <v>10000</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
         </is>
       </c>
     </row>
@@ -4707,17 +4747,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>138–147</t>
+          <t>430–437</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4726,27 +4766,27 @@
         </is>
       </c>
       <c r="F95">
-        <v>1290</v>
+        <v>2206</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95">
         <v>5</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
         </is>
       </c>
     </row>
@@ -4761,12 +4801,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>389–403</t>
+          <t>404–418</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4775,27 +4815,27 @@
         </is>
       </c>
       <c r="F96">
-        <v>2999</v>
+        <v>1910</v>
       </c>
       <c r="G96">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
         </is>
       </c>
     </row>
@@ -4810,41 +4850,41 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>77–82</t>
+          <t>204–215</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F97">
-        <v>4059</v>
+        <v>1444</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
     </row>
@@ -4854,17 +4894,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>219–229</t>
+          <t>375–389</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4873,27 +4913,27 @@
         </is>
       </c>
       <c r="F98">
-        <v>1678</v>
+        <v>5817</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
     </row>
@@ -4908,41 +4948,41 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>336–348</t>
+          <t>419–429</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F99">
-        <v>3440</v>
+        <v>1619</v>
       </c>
       <c r="G99">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Shouling Wu, An Pan</t>
         </is>
       </c>
     </row>
@@ -4957,12 +4997,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1–21</t>
+          <t>138–147</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4971,27 +5011,27 @@
         </is>
       </c>
       <c r="F100">
-        <v>2039</v>
+        <v>1315</v>
       </c>
       <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
         <v>5</v>
       </c>
-      <c r="H100">
-        <v>4</v>
-      </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
     </row>
@@ -5006,12 +5046,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>283–294</t>
+          <t>389–403</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5020,27 +5060,27 @@
         </is>
       </c>
       <c r="F101">
-        <v>2007</v>
+        <v>3044</v>
       </c>
       <c r="G101">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Yong Wang</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5095,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>182–189</t>
+          <t>77–82</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5065,31 +5105,31 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="F102">
-        <v>2209</v>
+        <v>4105</v>
       </c>
       <c r="G102">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H102">
         <v>5</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5144,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>312–322</t>
+          <t>219–229</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5118,27 +5158,27 @@
         </is>
       </c>
       <c r="F103">
-        <v>2946</v>
+        <v>1709</v>
       </c>
       <c r="G103">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H103">
         <v>4</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5193,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>261–271</t>
+          <t>336–348</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5163,31 +5203,31 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F104">
-        <v>1634</v>
+        <v>3506</v>
       </c>
       <c r="G104">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
         </is>
       </c>
     </row>
@@ -5202,41 +5242,41 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>83–100</t>
+          <t>1–21</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F105">
-        <v>2511</v>
+        <v>2071</v>
       </c>
       <c r="G105">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
     </row>
@@ -5251,41 +5291,41 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>349–361</t>
+          <t>283–294</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F106">
-        <v>1974</v>
+        <v>2042</v>
       </c>
       <c r="G106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H106">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
     </row>
@@ -5295,17 +5335,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>323–335</t>
+          <t>182–189</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5314,27 +5354,27 @@
         </is>
       </c>
       <c r="F107">
-        <v>1569</v>
+        <v>2256</v>
       </c>
       <c r="G107">
+        <v>8</v>
+      </c>
+      <c r="H107">
         <v>5</v>
       </c>
-      <c r="H107">
-        <v>7</v>
-      </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
     </row>
@@ -5349,12 +5389,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>230–241</t>
+          <t>312–322</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5363,27 +5403,27 @@
         </is>
       </c>
       <c r="F108">
-        <v>1956</v>
+        <v>2995</v>
       </c>
       <c r="G108">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -5398,12 +5438,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>184–193</t>
+          <t>261–271</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5412,27 +5452,27 @@
         </is>
       </c>
       <c r="F109">
-        <v>4383</v>
+        <v>1663</v>
       </c>
       <c r="G109">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5482,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>254–260</t>
+          <t>83–100</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5457,31 +5497,31 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F110">
-        <v>1348</v>
+        <v>2550</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H110">
         <v>2</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5536,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>242–253</t>
+          <t>349–361</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5506,31 +5546,31 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F111">
-        <v>2429</v>
+        <v>2006</v>
       </c>
       <c r="G111">
         <v>5</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Jian Wang</t>
         </is>
       </c>
     </row>
@@ -5538,6 +5578,16 @@
       <c r="A112">
         <v>2022</v>
       </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>323–335</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>2022-05</t>
@@ -5545,31 +5595,31 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F112">
-        <v>1560</v>
+        <v>1594</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
@@ -5584,41 +5634,41 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>156–183</t>
+          <t>230–241</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F113">
-        <v>6434</v>
+        <v>1995</v>
       </c>
       <c r="G113">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="H113">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
     </row>
@@ -5633,12 +5683,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>201–210</t>
+          <t>184–193</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5647,27 +5697,27 @@
         </is>
       </c>
       <c r="F114">
-        <v>1438</v>
+        <v>4501</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H114">
         <v>3</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
     </row>
@@ -5682,12 +5732,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>211–218</t>
+          <t>254–260</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5696,27 +5746,27 @@
         </is>
       </c>
       <c r="F115">
-        <v>1329</v>
+        <v>1376</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Yi Lu, Tianyu Zheng</t>
         </is>
       </c>
     </row>
@@ -5731,12 +5781,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>130–135</t>
+          <t>242–253</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5745,27 +5795,27 @@
         </is>
       </c>
       <c r="F116">
-        <v>1335</v>
+        <v>2479</v>
       </c>
       <c r="G116">
+        <v>5</v>
+      </c>
+      <c r="H116">
         <v>3</v>
       </c>
-      <c r="H116">
-        <v>2</v>
-      </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
     </row>
@@ -5773,48 +5823,38 @@
       <c r="A117">
         <v>2022</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>102–118</t>
-        </is>
-      </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F117">
-        <v>2254</v>
+        <v>1596</v>
       </c>
       <c r="G117">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Li Jin</t>
         </is>
       </c>
     </row>
@@ -5829,41 +5869,41 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>194–200</t>
+          <t>156–183</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F118">
-        <v>1969</v>
+        <v>6637</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
     </row>
@@ -5878,12 +5918,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>136–144</t>
+          <t>201–210</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5892,27 +5932,27 @@
         </is>
       </c>
       <c r="F119">
-        <v>1206</v>
+        <v>1469</v>
       </c>
       <c r="G119">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5967,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1–17</t>
+          <t>211–218</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5937,31 +5977,31 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F120">
-        <v>3622</v>
+        <v>1353</v>
       </c>
       <c r="G120">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
     </row>
@@ -5976,7 +6016,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>130–135</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5990,27 +6030,27 @@
         </is>
       </c>
       <c r="F121">
-        <v>1866</v>
+        <v>1370</v>
       </c>
       <c r="G121">
         <v>3</v>
       </c>
       <c r="H121">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
     </row>
@@ -6025,7 +6065,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>102–118</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6035,31 +6075,31 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F122">
-        <v>3360</v>
+        <v>2300</v>
       </c>
       <c r="G122">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H122">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
     </row>
@@ -6074,7 +6114,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>88–101</t>
+          <t>194–200</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6084,31 +6124,31 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F123">
-        <v>2476</v>
+        <v>2018</v>
       </c>
       <c r="G123">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
     </row>
@@ -6123,12 +6163,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>64–71</t>
+          <t>136–144</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6137,27 +6177,27 @@
         </is>
       </c>
       <c r="F124">
-        <v>1474</v>
+        <v>1234</v>
       </c>
       <c r="G124">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Yi Lu</t>
         </is>
       </c>
     </row>
@@ -6172,41 +6212,41 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>145–155</t>
+          <t>1–17</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F125">
-        <v>3576</v>
+        <v>3661</v>
       </c>
       <c r="G125">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H125">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
     </row>
@@ -6221,41 +6261,41 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>18–32</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F126">
-        <v>2680</v>
+        <v>1904</v>
       </c>
       <c r="G126">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Lin Li</t>
         </is>
       </c>
     </row>
@@ -6270,12 +6310,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>33–49</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6284,27 +6324,27 @@
         </is>
       </c>
       <c r="F127">
-        <v>2411</v>
+        <v>3424</v>
       </c>
       <c r="G127">
+        <v>6</v>
+      </c>
+      <c r="H127">
         <v>7</v>
       </c>
-      <c r="H127">
-        <v>5</v>
-      </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
     </row>
@@ -6312,38 +6352,48 @@
       <c r="A128">
         <v>2022</v>
       </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>88–101</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F128">
-        <v>1621</v>
+        <v>2511</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6408,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>295–311</t>
+          <t>64–71</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6372,27 +6422,27 @@
         </is>
       </c>
       <c r="F129">
-        <v>3086</v>
+        <v>1508</v>
       </c>
       <c r="G129">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H129">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
     </row>
@@ -6407,7 +6457,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>272–281</t>
+          <t>145–155</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6417,37 +6467,37 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F130">
-        <v>4611</v>
+        <v>3611</v>
       </c>
       <c r="G130">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Martin Picard</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -6456,12 +6506,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>79–87</t>
+          <t>18–32</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6470,33 +6520,33 @@
         </is>
       </c>
       <c r="F131">
-        <v>5314</v>
+        <v>2735</v>
       </c>
       <c r="G131">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H131">
         <v>3</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -6505,110 +6555,100 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>72–77</t>
+          <t>33–49</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F132">
-        <v>1581</v>
+        <v>2465</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Jixi Li</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>2021</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>285–298</t>
-        </is>
+        <v>2022</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F133">
-        <v>2258</v>
+        <v>1652</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>243–256</t>
+          <t>295–311</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6617,76 +6657,76 @@
         </is>
       </c>
       <c r="F134">
-        <v>2423</v>
+        <v>3128</v>
       </c>
       <c r="G134">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>269–284</t>
+          <t>272–281</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F135">
-        <v>2334</v>
+        <v>4691</v>
       </c>
       <c r="G135">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H135">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
     </row>
@@ -6696,46 +6736,46 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>257–268</t>
+          <t>79–87</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F136">
-        <v>2303</v>
+        <v>5444</v>
       </c>
       <c r="G136">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
     </row>
@@ -6745,46 +6785,46 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>199–210</t>
+          <t>72–77</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F137">
-        <v>2294</v>
+        <v>1615</v>
       </c>
       <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
         <v>4</v>
       </c>
-      <c r="H137">
-        <v>3</v>
-      </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
     </row>
@@ -6799,12 +6839,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>211–221</t>
+          <t>285–298</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6813,27 +6853,27 @@
         </is>
       </c>
       <c r="F138">
-        <v>1967</v>
+        <v>2285</v>
       </c>
       <c r="G138">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H138">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
     </row>
@@ -6848,41 +6888,41 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>222–228</t>
+          <t>243–256</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F139">
-        <v>4790</v>
+        <v>2456</v>
       </c>
       <c r="G139">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H139">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
     </row>
@@ -6897,41 +6937,41 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>229–241</t>
+          <t>269–284</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F140">
-        <v>2232</v>
+        <v>2381</v>
       </c>
       <c r="G140">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
     </row>
@@ -6946,12 +6986,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>186–198</t>
+          <t>257–268</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6960,27 +7000,27 @@
         </is>
       </c>
       <c r="F141">
-        <v>2072</v>
+        <v>2329</v>
       </c>
       <c r="G141">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
     </row>
@@ -6995,41 +7035,41 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>171–185</t>
+          <t>199–210</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F142">
-        <v>2577</v>
+        <v>2350</v>
       </c>
       <c r="G142">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
     </row>
@@ -7044,41 +7084,41 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>151–170</t>
+          <t>211–221</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F143">
-        <v>5705</v>
+        <v>2004</v>
       </c>
       <c r="G143">
+        <v>7</v>
+      </c>
+      <c r="H143">
         <v>17</v>
       </c>
-      <c r="H143">
-        <v>2</v>
-      </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
     </row>
@@ -7093,12 +7133,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>143–150</t>
+          <t>222–228</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7107,27 +7147,27 @@
         </is>
       </c>
       <c r="F144">
-        <v>5273</v>
+        <v>4889</v>
       </c>
       <c r="G144">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H144">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
     </row>
@@ -7142,41 +7182,41 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>91–104</t>
+          <t>229–241</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F145">
-        <v>4929</v>
+        <v>2270</v>
       </c>
       <c r="G145">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H145">
         <v>3</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
     </row>
@@ -7191,41 +7231,41 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>113–128</t>
+          <t>186–198</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F146">
-        <v>5444</v>
+        <v>2107</v>
       </c>
       <c r="G146">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H146">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
     </row>
@@ -7240,12 +7280,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>129–142</t>
+          <t>171–185</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7254,27 +7294,27 @@
         </is>
       </c>
       <c r="F147">
-        <v>4546</v>
+        <v>2610</v>
       </c>
       <c r="G147">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
     </row>
@@ -7289,41 +7329,41 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>105–112</t>
+          <t>151–170</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F148">
-        <v>1703</v>
+        <v>5803</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H148">
         <v>2</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
     </row>
@@ -7338,41 +7378,41 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>73–89</t>
+          <t>143–150</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F149">
-        <v>2397</v>
+        <v>5323</v>
       </c>
       <c r="G149">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
     </row>
@@ -7387,12 +7427,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>62–72</t>
+          <t>91–104</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7401,27 +7441,27 @@
         </is>
       </c>
       <c r="F150">
-        <v>3955</v>
+        <v>5078</v>
       </c>
       <c r="G150">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H150">
         <v>3</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
     </row>
@@ -7436,12 +7476,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>31–53</t>
+          <t>113–128</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -7450,27 +7490,27 @@
         </is>
       </c>
       <c r="F151">
-        <v>5822</v>
+        <v>5503</v>
       </c>
       <c r="G151">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Xinhua Lin, Bing Zhao</t>
         </is>
       </c>
     </row>
@@ -7485,41 +7525,41 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>54–61</t>
+          <t>129–142</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F152">
-        <v>4765</v>
+        <v>4607</v>
       </c>
       <c r="G152">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -7534,12 +7574,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>22–30</t>
+          <t>105–112</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7548,27 +7588,27 @@
         </is>
       </c>
       <c r="F153">
-        <v>6018</v>
+        <v>1727</v>
       </c>
       <c r="G153">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Xun Gu</t>
         </is>
       </c>
     </row>
@@ -7583,41 +7623,41 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>15–21</t>
+          <t>73–89</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F154">
-        <v>3021</v>
+        <v>2425</v>
       </c>
       <c r="G154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H154">
         <v>3</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
     </row>
@@ -7632,12 +7672,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>3–14</t>
+          <t>62–72</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7646,27 +7686,27 @@
         </is>
       </c>
       <c r="F155">
-        <v>7773</v>
+        <v>4019</v>
       </c>
       <c r="G155">
         <v>6</v>
       </c>
       <c r="H155">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Shenghong Ju</t>
         </is>
       </c>
     </row>
@@ -7681,39 +7721,284 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>31–53</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="F156">
+        <v>5925</v>
+      </c>
+      <c r="G156">
+        <v>42</v>
+      </c>
+      <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>2021-05-11</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Neelam R. Yadav</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>2021</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>54–61</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F157">
+        <v>4857</v>
+      </c>
+      <c r="G157">
+        <v>5</v>
+      </c>
+      <c r="H157">
+        <v>5</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Wei Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>2021</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>22–30</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F158">
+        <v>6110</v>
+      </c>
+      <c r="G158">
+        <v>15</v>
+      </c>
+      <c r="H158">
+        <v>12</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Gong Zhang, Jingjie Jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>2021</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>15–21</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Correspondence</t>
+        </is>
+      </c>
+      <c r="F159">
+        <v>3052</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+      <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>2021</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>3–14</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F160">
+        <v>7864</v>
+      </c>
+      <c r="G160">
+        <v>7</v>
+      </c>
+      <c r="H160">
+        <v>16</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Jiucun Wang, Li Jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>2021</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
           <t>1–2</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>Editorial</t>
         </is>
       </c>
-      <c r="F156">
-        <v>6509</v>
-      </c>
-      <c r="G156">
+      <c r="F161">
+        <v>6607</v>
+      </c>
+      <c r="G161">
         <v>13</v>
       </c>
-      <c r="H156">
+      <c r="H161">
         <v>7</v>
       </c>
-      <c r="I156" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr">
+      <c r="J161" t="inlineStr">
         <is>
           <t>https://link.springer.com/article/10.1007/s43657-020-00009-4</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr">
+      <c r="K161" t="inlineStr">
         <is>
           <t>Li Jin</t>
         </is>

--- a/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,16 +420,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Perspective</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F2">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,17 +439,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00196-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00147-5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Qi-Rong Qin, Lianmin Chen, Evan Yi-Wen Yu</t>
+          <t>Yongjun Wang, Mei Tian</t>
         </is>
       </c>
     </row>
@@ -459,16 +459,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -478,17 +478,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00183-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00184-8</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Guiying Wang, Xuelian Li, Chenqi Lu</t>
+          <t>Wenjun Ju</t>
         </is>
       </c>
     </row>
@@ -503,31 +503,31 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00177-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00165-x</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Peng Wu</t>
+          <t>Qiongyue Zhang, Ru Wang, Tiemin Liu</t>
         </is>
       </c>
     </row>
@@ -542,31 +542,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Perspective</t>
         </is>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>316</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00171-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00196-4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bo Shen, Yuanlin Song, Junjie Wu</t>
+          <t>Qi-Rong Qin, Lianmin Chen, Evan Yi-Wen Yu</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -585,27 +585,27 @@
         </is>
       </c>
       <c r="F6">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00163-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00183-9</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Wang Wei, Tian Hua</t>
+          <t>Guiying Wang, Xuelian Li, Chenqi Lu</t>
         </is>
       </c>
     </row>
@@ -615,36 +615,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F7">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00156-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00177-7</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Shigang Zhao</t>
+          <t>Peng Wu</t>
         </is>
       </c>
     </row>
@@ -652,28 +652,18 @@
       <c r="A8">
         <v>2024</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>257–268</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F8">
-        <v>605</v>
+        <v>86</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -683,17 +673,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00146-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00171-z</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Jiaxing Tian, Linhua Zhao, Xiaolin Tong, NA</t>
+          <t>Bo Shen, Yuanlin Song, Junjie Wu</t>
         </is>
       </c>
     </row>
@@ -703,36 +693,36 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F9">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00141-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00163-z</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Wang Wei, Tian Hua</t>
         </is>
       </c>
     </row>
@@ -742,36 +732,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F10">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00187-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00156-y</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Gang Wei, Ting Ni</t>
+          <t>Shigang Zhao</t>
         </is>
       </c>
     </row>
@@ -786,12 +776,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>269–292</t>
+          <t>257–268</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -800,27 +790,27 @@
         </is>
       </c>
       <c r="F11">
-        <v>268</v>
+        <v>1095</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00142-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00146-6</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Juan Su, Xuejun Zhang, Xiang Chen</t>
+          <t>Jiaxing Tian, Linhua Zhao, Xiaolin Tong, NA</t>
         </is>
       </c>
     </row>
@@ -835,31 +825,31 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F12">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00144-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00141-x</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Xiangdong Tang, Huan Song</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
@@ -878,27 +868,27 @@
         </is>
       </c>
       <c r="F13">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00169-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00187-5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Hai-Liang Zhang, Yan Shi, Yuan-Yuan Qu, Ding-Wei Ye</t>
+          <t>Gang Wei, Ting Ni</t>
         </is>
       </c>
     </row>
@@ -906,38 +896,48 @@
       <c r="A14">
         <v>2024</v>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>269–292</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F14">
-        <v>373</v>
+        <v>443</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00157-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00142-w</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Juan Su, Xuejun Zhang, Xiang Chen</t>
         </is>
       </c>
     </row>
@@ -947,36 +947,36 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F15">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00185-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00144-8</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Hao Yang</t>
+          <t>Xiangdong Tang, Huan Song</t>
         </is>
       </c>
     </row>
@@ -984,48 +984,38 @@
       <c r="A16">
         <v>2024</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>293–297</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Correspondence/Letter to the Editor</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F16">
-        <v>537</v>
+        <v>176</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00164-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00169-7</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Binhao Shi, Dezhi Tang, Yongjun Wang</t>
+          <t>Hai-Liang Zhang, Yan Shi, Yuan-Yuan Qu, Ding-Wei Ye</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1034,27 @@
         </is>
       </c>
       <c r="F17">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00134-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00157-x</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Huan Song</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
     </row>
@@ -1079,31 +1069,31 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F18">
-        <v>406</v>
+        <v>174</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00132-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00185-7</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Yongjun Wang, Yanping Yang</t>
+          <t>Hao Yang</t>
         </is>
       </c>
     </row>
@@ -1111,6 +1101,16 @@
       <c r="A19">
         <v>2024</v>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>293–297</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>2024-07</t>
@@ -1118,31 +1118,31 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Correspondence/Letter to the Editor</t>
         </is>
       </c>
       <c r="F19">
-        <v>240</v>
+        <v>759</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00149-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00164-y</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Binhao Shi, Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
     </row>
@@ -1150,28 +1150,18 @@
       <c r="A20">
         <v>2024</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>298–312</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F20">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1181,17 +1171,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00140-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00134-w</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Zhifei Dai, Desheng Sun</t>
+          <t>Huan Song</t>
         </is>
       </c>
     </row>
@@ -1201,36 +1191,36 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F21">
-        <v>249</v>
+        <v>504</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00154-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00132-y</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Zheng Liu, Zhihong Zhang</t>
+          <t>Yongjun Wang, Yanping Yang</t>
         </is>
       </c>
     </row>
@@ -1240,36 +1230,36 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F22">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00149-3</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -1277,6 +1267,16 @@
       <c r="A23">
         <v>2024</v>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>298–312</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>2024-06</t>
@@ -1284,31 +1284,31 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F23">
-        <v>174</v>
+        <v>889</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-06-01</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00140-y</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
+          <t>Zhifei Dai, Desheng Sun</t>
         </is>
       </c>
     </row>
@@ -1316,48 +1316,38 @@
       <c r="A24">
         <v>2024</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>254–256</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F24">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00154-6</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Zheng Liu, Zhihong Zhang</t>
         </is>
       </c>
     </row>
@@ -1367,36 +1357,36 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F25">
-        <v>191</v>
+        <v>325</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Hao Cheng, Bin Li</t>
+          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
         </is>
       </c>
     </row>
@@ -1404,19 +1394,9 @@
       <c r="A26">
         <v>2024</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>125–137</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1425,7 +1405,7 @@
         </is>
       </c>
       <c r="F26">
-        <v>480</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1435,17 +1415,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-05-04</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bi Chen, Bing Gu</t>
+          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1440,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>234–249</t>
+          <t>254–256</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1470,11 +1450,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F27">
-        <v>603</v>
+        <v>263</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1484,17 +1464,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Jie Chen</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
@@ -1502,48 +1482,38 @@
       <c r="A28">
         <v>2024</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>250–253</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F28">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Yan Zheng, Zhonghan Sun</t>
+          <t>Hao Cheng, Bin Li</t>
         </is>
       </c>
     </row>
@@ -1558,12 +1528,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>213–226</t>
+          <t>125–137</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1572,27 +1542,27 @@
         </is>
       </c>
       <c r="F29">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Yong Zhang</t>
+          <t>Bi Chen, Bing Gu</t>
         </is>
       </c>
     </row>
@@ -1607,12 +1577,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>91–108</t>
+          <t>234–249</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1621,27 +1591,27 @@
         </is>
       </c>
       <c r="F30">
-        <v>499</v>
+        <v>812</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
+          <t>Jie Chen</t>
         </is>
       </c>
     </row>
@@ -1656,41 +1626,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>146–157</t>
+          <t>250–253</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F31">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Xujie Zhou</t>
+          <t>Yan Zheng, Zhonghan Sun</t>
         </is>
       </c>
     </row>
@@ -1705,12 +1675,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>34–45</t>
+          <t>213–226</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1719,27 +1689,27 @@
         </is>
       </c>
       <c r="F32">
-        <v>426</v>
+        <v>649</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
+          <t>Yong Zhang</t>
         </is>
       </c>
     </row>
@@ -1754,12 +1724,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>227–233</t>
+          <t>91–108</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1768,27 +1738,27 @@
         </is>
       </c>
       <c r="F33">
-        <v>802</v>
+        <v>584</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
+          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1773,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>203–212</t>
+          <t>146–157</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1813,31 +1783,31 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F34">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>11</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Xujie Zhou</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1822,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>187–202</t>
+          <t>34–45</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1862,31 +1832,31 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F35">
-        <v>571</v>
+        <v>479</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
+          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
         </is>
       </c>
     </row>
@@ -1894,6 +1864,16 @@
       <c r="A36">
         <v>2024</v>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>227–233</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>2024-03</t>
@@ -1901,31 +1881,31 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F36">
-        <v>2362</v>
+        <v>1003</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Leming Shi, Yuanting Zheng</t>
+          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
         </is>
       </c>
     </row>
@@ -1940,41 +1920,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>56–71</t>
+          <t>203–212</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F37">
-        <v>890</v>
+        <v>535</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
     </row>
@@ -1989,41 +1969,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>24–33</t>
+          <t>187–202</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F38">
-        <v>1179</v>
+        <v>647</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Wei Sheng, Guoying Huang</t>
+          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
         </is>
       </c>
     </row>
@@ -2031,195 +2011,185 @@
       <c r="A39">
         <v>2024</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>13–23</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F39">
-        <v>477</v>
+        <v>2601</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Leming Shi, Yuanting Zheng</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>549–564</t>
+          <t>56–71</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F40">
-        <v>2284</v>
+        <v>984</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
+          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>586–596</t>
+          <t>24–33</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F41">
-        <v>647</v>
+        <v>1278</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Guifen Yang, Longjiang Zhang</t>
+          <t>Wei Sheng, Guoying Huang</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>639–641</t>
+          <t>13–23</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F42">
-        <v>896</v>
+        <v>533</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Michael C. Kreissl</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
     </row>
@@ -2234,41 +2204,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>597–612</t>
+          <t>549–564</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F43">
-        <v>2402</v>
+        <v>2415</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
         </is>
       </c>
     </row>
@@ -2283,12 +2253,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>613–638</t>
+          <t>586–596</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2297,27 +2267,27 @@
         </is>
       </c>
       <c r="F44">
-        <v>1210</v>
+        <v>707</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Cong Li</t>
+          <t>Guifen Yang, Longjiang Zhang</t>
         </is>
       </c>
     </row>
@@ -2325,38 +2295,48 @@
       <c r="A45">
         <v>2023</v>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>639–641</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F45">
-        <v>900</v>
+        <v>958</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Hao Wu, Guoping Zhao</t>
+          <t>Michael C. Kreissl</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2351,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>535–547</t>
+          <t>597–612</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2385,27 +2365,27 @@
         </is>
       </c>
       <c r="F46">
-        <v>811</v>
+        <v>2604</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Ning-Ning Liu</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
@@ -2415,12 +2395,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>171–186</t>
+          <t>613–638</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2434,27 +2414,27 @@
         </is>
       </c>
       <c r="F47">
-        <v>602</v>
+        <v>1315</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Xiaolei Ren, Zhihong Li</t>
+          <t>Cong Li</t>
         </is>
       </c>
     </row>
@@ -2462,48 +2442,38 @@
       <c r="A48">
         <v>2023</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>72–80</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Editorial</t>
         </is>
       </c>
       <c r="F48">
-        <v>611</v>
+        <v>982</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Boyi Li, Dean Ta</t>
+          <t>Hao Wu, Guoping Zhao</t>
         </is>
       </c>
     </row>
@@ -2513,46 +2483,46 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>51–55</t>
+          <t>535–547</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F49">
-        <v>991</v>
+        <v>860</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
+          <t>Ning-Ning Liu</t>
         </is>
       </c>
     </row>
@@ -2567,41 +2537,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>109–124</t>
+          <t>171–186</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F50">
-        <v>2360</v>
+        <v>663</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
+          <t>Xiaolei Ren, Zhihong Li</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2586,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>81–89</t>
+          <t>72–80</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2640,17 +2610,17 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Boyi Li, Dean Ta</t>
         </is>
       </c>
     </row>
@@ -2660,12 +2630,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>496–501</t>
+          <t>51–55</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2679,27 +2649,27 @@
         </is>
       </c>
       <c r="F52">
-        <v>785</v>
+        <v>1055</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Weimin Ye</t>
+          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2684,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>158–170</t>
+          <t>109–124</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2728,27 +2698,27 @@
         </is>
       </c>
       <c r="F53">
-        <v>622</v>
+        <v>2508</v>
       </c>
       <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
         <v>2</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Ying Xu, Jiaxue Wu</t>
+          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
         </is>
       </c>
     </row>
@@ -2763,41 +2733,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>46–50</t>
+          <t>81–89</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F54">
-        <v>1480</v>
+        <v>737</v>
       </c>
       <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
         <v>2</v>
       </c>
-      <c r="H54">
-        <v>4</v>
-      </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -2812,41 +2782,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>469–484</t>
+          <t>496–501</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F55">
-        <v>515</v>
+        <v>841</v>
       </c>
       <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
         <v>3</v>
       </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Menghan Hu, Min Dai</t>
+          <t>Weimin Ye</t>
         </is>
       </c>
     </row>
@@ -2856,46 +2826,46 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>519–534</t>
+          <t>158–170</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F56">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H56">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Jingjing Luo</t>
+          <t>Ying Xu, Jiaxue Wu</t>
         </is>
       </c>
     </row>
@@ -2905,46 +2875,46 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>576–585</t>
+          <t>46–50</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F57">
-        <v>607</v>
+        <v>1683</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Xin Li, Xiang Li</t>
+          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
         </is>
       </c>
     </row>
@@ -2959,41 +2929,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>329–332</t>
+          <t>469–484</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F58">
-        <v>849</v>
+        <v>552</v>
       </c>
       <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
         <v>2</v>
       </c>
-      <c r="H58">
-        <v>4</v>
-      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bing Su</t>
+          <t>Menghan Hu, Min Dai</t>
         </is>
       </c>
     </row>
@@ -3001,6 +2971,16 @@
       <c r="A59">
         <v>2023</v>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>519–534</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>2023-07</t>
@@ -3008,31 +2988,31 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F59">
-        <v>1055</v>
+        <v>755</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Jingjing Luo</t>
         </is>
       </c>
     </row>
@@ -3047,12 +3027,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>485–495</t>
+          <t>576–585</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3061,27 +3041,27 @@
         </is>
       </c>
       <c r="F60">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
+          <t>Xin Li, Xiang Li</t>
         </is>
       </c>
     </row>
@@ -3096,41 +3076,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>390–407</t>
+          <t>329–332</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F61">
-        <v>867</v>
+        <v>892</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Li Zhang, Weimin Li</t>
+          <t>Bing Su</t>
         </is>
       </c>
     </row>
@@ -3138,48 +3118,38 @@
       <c r="A62">
         <v>2023</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>439–456</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F62">
-        <v>2108</v>
+        <v>1106</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Guoping Zhao, Guoqing Zhang</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
@@ -3189,12 +3159,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1–12</t>
+          <t>485–495</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3208,27 +3178,27 @@
         </is>
       </c>
       <c r="F63">
-        <v>2652</v>
+        <v>632</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
+          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
         </is>
       </c>
     </row>
@@ -3238,12 +3208,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>138–145</t>
+          <t>390–407</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3257,27 +3227,27 @@
         </is>
       </c>
       <c r="F64">
-        <v>2138</v>
+        <v>924</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Li Jin, Jiucun Wang</t>
+          <t>Li Zhang, Weimin Li</t>
         </is>
       </c>
     </row>
@@ -3292,12 +3262,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>360–374</t>
+          <t>439–456</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3306,27 +3276,27 @@
         </is>
       </c>
       <c r="F65">
-        <v>5157</v>
+        <v>2175</v>
       </c>
       <c r="G65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
+          <t>Guoping Zhao, Guoqing Zhang</t>
         </is>
       </c>
     </row>
@@ -3336,17 +3306,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>350–359</t>
+          <t>1–12</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3355,27 +3325,27 @@
         </is>
       </c>
       <c r="F66">
-        <v>742</v>
+        <v>2772</v>
       </c>
       <c r="G66">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
+          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
         </is>
       </c>
     </row>
@@ -3385,46 +3355,46 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>421–438</t>
+          <t>138–145</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F67">
-        <v>2870</v>
+        <v>2281</v>
       </c>
       <c r="G67">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
+          <t>Li Jin, Jiucun Wang</t>
         </is>
       </c>
     </row>
@@ -3439,12 +3409,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>228–242</t>
+          <t>360–374</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3453,27 +3423,27 @@
         </is>
       </c>
       <c r="F68">
-        <v>862</v>
+        <v>5398</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H68">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Lin Zhang, Dan Chen</t>
+          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
         </is>
       </c>
     </row>
@@ -3488,41 +3458,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>333–349</t>
+          <t>350–359</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F69">
-        <v>4405</v>
+        <v>800</v>
       </c>
       <c r="G69">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H69">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Jianping Jia</t>
+          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
         </is>
       </c>
     </row>
@@ -3537,41 +3507,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>217–227</t>
+          <t>421–438</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F70">
-        <v>4293</v>
+        <v>3028</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H70">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
         </is>
       </c>
     </row>
@@ -3586,41 +3556,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>300–308</t>
+          <t>228–242</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F71">
-        <v>1464</v>
+        <v>908</v>
       </c>
       <c r="G71">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H71">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
+          <t>Lin Zhang, Dan Chen</t>
         </is>
       </c>
     </row>
@@ -3635,41 +3605,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>457–468</t>
+          <t>333–349</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F72">
-        <v>828</v>
+        <v>4644</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H72">
         <v>19</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+          <t>Jianping Jia</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3654,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>408–420</t>
+          <t>217–227</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3694,31 +3664,31 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F73">
-        <v>791</v>
+        <v>4395</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
+          <t>Xia Shen</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3703,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>268–284</t>
+          <t>300–308</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3743,31 +3713,31 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F74">
-        <v>1743</v>
+        <v>1526</v>
       </c>
       <c r="G74">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H74">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
+          <t>Zhexue Quan, Yan Zheng</t>
         </is>
       </c>
     </row>
@@ -3782,41 +3752,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>309–328</t>
+          <t>457–468</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F75">
-        <v>7954</v>
+        <v>877</v>
       </c>
       <c r="G75">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
         </is>
       </c>
     </row>
@@ -3831,41 +3801,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>190–203</t>
+          <t>408–420</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F76">
-        <v>922</v>
+        <v>836</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
+          <t>Dean Ta</t>
         </is>
       </c>
     </row>
@@ -3880,41 +3850,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>167–181</t>
+          <t>268–284</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F77">
-        <v>1144</v>
+        <v>1827</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H77">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
+          <t>Shangyu Hong, Yan Sun</t>
         </is>
       </c>
     </row>
@@ -3929,12 +3899,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>642–656</t>
+          <t>309–328</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3943,27 +3913,27 @@
         </is>
       </c>
       <c r="F78">
-        <v>1230</v>
+        <v>8247</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Feng Qian</t>
         </is>
       </c>
     </row>
@@ -3978,12 +3948,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>285–299</t>
+          <t>190–203</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3992,27 +3962,27 @@
         </is>
       </c>
       <c r="F79">
-        <v>4590</v>
+        <v>967</v>
       </c>
       <c r="G79">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
+          <t>Hongfeng Chen</t>
         </is>
       </c>
     </row>
@@ -4027,41 +3997,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>502–518</t>
+          <t>167–181</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F80">
-        <v>1353</v>
+        <v>1182</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Hui Li</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4046,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>243–254</t>
+          <t>642–656</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4086,18 +4056,18 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F81">
-        <v>1409</v>
+        <v>1283</v>
       </c>
       <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="H81">
         <v>6</v>
       </c>
-      <c r="H81">
-        <v>4</v>
-      </c>
       <c r="I81" t="inlineStr">
         <is>
           <t>2023-01-05</t>
@@ -4105,18 +4075,18 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
+          <t>Mei Tian</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4125,47 +4095,47 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>148–166</t>
+          <t>285–299</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F82">
-        <v>1755</v>
+        <v>4766</v>
       </c>
       <c r="G82">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
+          <t>Weihai Ying</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4174,47 +4144,47 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>130–137</t>
+          <t>502–518</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F83">
-        <v>1330</v>
+        <v>1416</v>
       </c>
       <c r="G83">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Hui Li</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -4223,41 +4193,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>101–118</t>
+          <t>243–254</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F84">
-        <v>1410</v>
+        <v>1458</v>
       </c>
       <c r="G84">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>He Wang</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4242,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>255–267</t>
+          <t>148–166</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4286,27 +4256,27 @@
         </is>
       </c>
       <c r="F85">
-        <v>1592</v>
+        <v>1796</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>Wei Yan, Jie Jin</t>
         </is>
       </c>
     </row>
@@ -4314,38 +4284,48 @@
       <c r="A86">
         <v>2022</v>
       </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>130–137</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F86">
-        <v>1426</v>
+        <v>1372</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -4360,41 +4340,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>101–118</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F87">
-        <v>3706</v>
+        <v>1463</v>
       </c>
       <c r="G87">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
+          <t>He Wang</t>
         </is>
       </c>
     </row>
@@ -4409,12 +4389,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>64–76</t>
+          <t>255–267</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4423,27 +4403,27 @@
         </is>
       </c>
       <c r="F88">
-        <v>4501</v>
+        <v>1638</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
         </is>
       </c>
     </row>
@@ -4451,48 +4431,38 @@
       <c r="A89">
         <v>2022</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>34–49</t>
-        </is>
-      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F89">
-        <v>1876</v>
+        <v>1471</v>
       </c>
       <c r="G89">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -4507,12 +4477,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4521,27 +4491,27 @@
         </is>
       </c>
       <c r="F90">
-        <v>1540</v>
+        <v>3791</v>
       </c>
       <c r="G90">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
     </row>
@@ -4556,12 +4526,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>22–33</t>
+          <t>64–76</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4570,27 +4540,27 @@
         </is>
       </c>
       <c r="F91">
-        <v>1651</v>
+        <v>4601</v>
       </c>
       <c r="G91">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
     </row>
@@ -4600,12 +4570,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>383–388</t>
+          <t>34–49</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4615,31 +4585,31 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F92">
-        <v>3725</v>
+        <v>1922</v>
       </c>
       <c r="G92">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H92">
         <v>3</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4624,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>565–575</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4668,27 +4638,27 @@
         </is>
       </c>
       <c r="F93">
-        <v>1410</v>
+        <v>1601</v>
       </c>
       <c r="G93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
     </row>
@@ -4698,12 +4668,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>363–382</t>
+          <t>22–33</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4713,31 +4683,31 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F94">
-        <v>10000</v>
+        <v>1689</v>
       </c>
       <c r="G94">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H94">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
     </row>
@@ -4752,41 +4722,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>430–437</t>
+          <t>383–388</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F95">
-        <v>2206</v>
+        <v>3873</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
         </is>
       </c>
     </row>
@@ -4796,17 +4766,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>404–418</t>
+          <t>565–575</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4815,27 +4785,27 @@
         </is>
       </c>
       <c r="F96">
-        <v>1910</v>
+        <v>1457</v>
       </c>
       <c r="G96">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
     </row>
@@ -4845,17 +4815,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>204–215</t>
+          <t>363–382</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4864,27 +4834,27 @@
         </is>
       </c>
       <c r="F97">
-        <v>1444</v>
+        <v>10000</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
         </is>
       </c>
     </row>
@@ -4894,17 +4864,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>375–389</t>
+          <t>430–437</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4913,27 +4883,27 @@
         </is>
       </c>
       <c r="F98">
-        <v>5817</v>
+        <v>2251</v>
       </c>
       <c r="G98">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H98">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
         </is>
       </c>
     </row>
@@ -4948,12 +4918,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>419–429</t>
+          <t>404–418</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4962,27 +4932,27 @@
         </is>
       </c>
       <c r="F99">
-        <v>1619</v>
+        <v>1964</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
         </is>
       </c>
     </row>
@@ -4997,41 +4967,41 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>138–147</t>
+          <t>204–215</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F100">
-        <v>1315</v>
+        <v>1478</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5011,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>389–403</t>
+          <t>375–389</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5060,27 +5030,27 @@
         </is>
       </c>
       <c r="F101">
-        <v>3044</v>
+        <v>6014</v>
       </c>
       <c r="G101">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
     </row>
@@ -5090,46 +5060,46 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>77–82</t>
+          <t>419–429</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F102">
-        <v>4105</v>
+        <v>1665</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Shouling Wu, An Pan</t>
         </is>
       </c>
     </row>
@@ -5139,17 +5109,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>219–229</t>
+          <t>138–147</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5158,27 +5128,27 @@
         </is>
       </c>
       <c r="F103">
-        <v>1709</v>
+        <v>1347</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
     </row>
@@ -5193,41 +5163,41 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>336–348</t>
+          <t>389–403</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F104">
-        <v>3506</v>
+        <v>3139</v>
       </c>
       <c r="G104">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H104">
         <v>4</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Yong Wang</t>
         </is>
       </c>
     </row>
@@ -5242,7 +5212,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1–21</t>
+          <t>77–82</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5252,31 +5222,31 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="F105">
-        <v>2071</v>
+        <v>4170</v>
       </c>
       <c r="G105">
+        <v>6</v>
+      </c>
+      <c r="H105">
         <v>5</v>
       </c>
-      <c r="H105">
-        <v>4</v>
-      </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5261,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>283–294</t>
+          <t>219–229</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5305,27 +5275,27 @@
         </is>
       </c>
       <c r="F106">
-        <v>2042</v>
+        <v>1753</v>
       </c>
       <c r="G106">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
     </row>
@@ -5335,12 +5305,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>182–189</t>
+          <t>336–348</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5350,31 +5320,31 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F107">
-        <v>2256</v>
+        <v>3581</v>
       </c>
       <c r="G107">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
         </is>
       </c>
     </row>
@@ -5384,12 +5354,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>312–322</t>
+          <t>1–21</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5403,27 +5373,27 @@
         </is>
       </c>
       <c r="F108">
-        <v>2995</v>
+        <v>2110</v>
       </c>
       <c r="G108">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H108">
         <v>4</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5408,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>261–271</t>
+          <t>283–294</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5452,27 +5422,27 @@
         </is>
       </c>
       <c r="F109">
-        <v>1663</v>
+        <v>2084</v>
       </c>
       <c r="G109">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
         </is>
       </c>
     </row>
@@ -5487,41 +5457,41 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>83–100</t>
+          <t>182–189</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F110">
-        <v>2550</v>
+        <v>2315</v>
       </c>
       <c r="G110">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
     </row>
@@ -5536,41 +5506,41 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>349–361</t>
+          <t>312–322</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F111">
-        <v>2006</v>
+        <v>3040</v>
       </c>
       <c r="G111">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H111">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -5585,12 +5555,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>323–335</t>
+          <t>261–271</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5599,27 +5569,27 @@
         </is>
       </c>
       <c r="F112">
-        <v>1594</v>
+        <v>1700</v>
       </c>
       <c r="G112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H112">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5599,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>230–241</t>
+          <t>83–100</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5644,31 +5614,31 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F113">
-        <v>1995</v>
+        <v>2612</v>
       </c>
       <c r="G113">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H113">
         <v>2</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5653,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>184–193</t>
+          <t>349–361</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5693,31 +5663,31 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F114">
-        <v>4501</v>
+        <v>2049</v>
       </c>
       <c r="G114">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Jian Wang</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5702,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>254–260</t>
+          <t>323–335</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5746,27 +5716,27 @@
         </is>
       </c>
       <c r="F115">
-        <v>1376</v>
+        <v>1628</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5751,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>242–253</t>
+          <t>230–241</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5795,27 +5765,27 @@
         </is>
       </c>
       <c r="F116">
-        <v>2479</v>
+        <v>2045</v>
       </c>
       <c r="G116">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
     </row>
@@ -5823,6 +5793,16 @@
       <c r="A117">
         <v>2022</v>
       </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>184–193</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>2022-05</t>
@@ -5830,31 +5810,31 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F117">
-        <v>1596</v>
+        <v>4608</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
     </row>
@@ -5869,41 +5849,41 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>156–183</t>
+          <t>254–260</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F118">
-        <v>6637</v>
+        <v>1406</v>
       </c>
       <c r="G118">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
+          <t>Yi Lu, Tianyu Zheng</t>
         </is>
       </c>
     </row>
@@ -5918,12 +5898,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>201–210</t>
+          <t>242–253</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5932,27 +5912,27 @@
         </is>
       </c>
       <c r="F119">
-        <v>1469</v>
+        <v>2538</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
     </row>
@@ -5960,48 +5940,38 @@
       <c r="A120">
         <v>2022</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>211–218</t>
-        </is>
-      </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F120">
-        <v>1353</v>
+        <v>1648</v>
       </c>
       <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
         <v>0</v>
       </c>
-      <c r="H120">
-        <v>2</v>
-      </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Li Jin</t>
         </is>
       </c>
     </row>
@@ -6016,41 +5986,41 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>130–135</t>
+          <t>156–183</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F121">
-        <v>1370</v>
+        <v>6802</v>
       </c>
       <c r="G121">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
     </row>
@@ -6065,41 +6035,41 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>102–118</t>
+          <t>201–210</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F122">
-        <v>2300</v>
+        <v>1503</v>
       </c>
       <c r="G122">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6084,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>194–200</t>
+          <t>211–218</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6128,27 +6098,27 @@
         </is>
       </c>
       <c r="F123">
-        <v>2018</v>
+        <v>1383</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6133,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>136–144</t>
+          <t>130–135</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -6177,27 +6147,27 @@
         </is>
       </c>
       <c r="F124">
-        <v>1234</v>
+        <v>1400</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
     </row>
@@ -6212,7 +6182,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1–17</t>
+          <t>102–118</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -6226,27 +6196,27 @@
         </is>
       </c>
       <c r="F125">
-        <v>3661</v>
+        <v>2344</v>
       </c>
       <c r="G125">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H125">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6231,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>194–200</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6275,27 +6245,27 @@
         </is>
       </c>
       <c r="F126">
-        <v>1904</v>
+        <v>2057</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
     </row>
@@ -6310,7 +6280,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>136–144</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6324,27 +6294,27 @@
         </is>
       </c>
       <c r="F127">
-        <v>3424</v>
+        <v>1269</v>
       </c>
       <c r="G127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Yi Lu</t>
         </is>
       </c>
     </row>
@@ -6359,7 +6329,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>88–101</t>
+          <t>1–17</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6373,27 +6343,27 @@
         </is>
       </c>
       <c r="F128">
-        <v>2511</v>
+        <v>3708</v>
       </c>
       <c r="G128">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H128">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
     </row>
@@ -6408,12 +6378,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>64–71</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6422,27 +6392,27 @@
         </is>
       </c>
       <c r="F129">
-        <v>1508</v>
+        <v>1943</v>
       </c>
       <c r="G129">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Lin Li</t>
         </is>
       </c>
     </row>
@@ -6457,41 +6427,41 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>145–155</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F130">
-        <v>3611</v>
+        <v>3500</v>
       </c>
       <c r="G130">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H130">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
     </row>
@@ -6506,12 +6476,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>18–32</t>
+          <t>88–101</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6520,27 +6490,27 @@
         </is>
       </c>
       <c r="F131">
-        <v>2735</v>
+        <v>2552</v>
       </c>
       <c r="G131">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6525,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>33–49</t>
+          <t>64–71</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6569,27 +6539,27 @@
         </is>
       </c>
       <c r="F132">
-        <v>2465</v>
+        <v>1544</v>
       </c>
       <c r="G132">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
     </row>
@@ -6597,6 +6567,16 @@
       <c r="A133">
         <v>2022</v>
       </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>145–155</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>2022-01</t>
@@ -6604,31 +6584,31 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F133">
-        <v>1652</v>
+        <v>3650</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Martin Picard</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6623,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>295–311</t>
+          <t>18–32</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6653,31 +6633,31 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F134">
-        <v>3128</v>
+        <v>2795</v>
       </c>
       <c r="G134">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H134">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6672,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>272–281</t>
+          <t>33–49</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6702,86 +6682,76 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F135">
-        <v>4691</v>
+        <v>2519</v>
       </c>
       <c r="G135">
         <v>7</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Jixi Li</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>2021</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>79–87</t>
-        </is>
+        <v>2022</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F136">
-        <v>5444</v>
+        <v>1692</v>
       </c>
       <c r="G136">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -6790,90 +6760,90 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>72–77</t>
+          <t>295–311</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F137">
-        <v>1615</v>
+        <v>3183</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>285–298</t>
+          <t>272–281</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F138">
-        <v>2285</v>
+        <v>4768</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
     </row>
@@ -6883,46 +6853,46 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>243–256</t>
+          <t>79–87</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F139">
-        <v>2456</v>
+        <v>5550</v>
       </c>
       <c r="G139">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
     </row>
@@ -6932,46 +6902,46 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>269–284</t>
+          <t>72–77</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F140">
-        <v>2381</v>
+        <v>1646</v>
       </c>
       <c r="G140">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
     </row>
@@ -6986,12 +6956,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>257–268</t>
+          <t>285–298</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7000,27 +6970,27 @@
         </is>
       </c>
       <c r="F141">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="G141">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
     </row>
@@ -7035,7 +7005,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>199–210</t>
+          <t>243–256</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -7049,27 +7019,27 @@
         </is>
       </c>
       <c r="F142">
-        <v>2350</v>
+        <v>2498</v>
       </c>
       <c r="G142">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
     </row>
@@ -7084,12 +7054,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>211–221</t>
+          <t>269–284</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7098,27 +7068,27 @@
         </is>
       </c>
       <c r="F143">
-        <v>2004</v>
+        <v>2423</v>
       </c>
       <c r="G143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H143">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
     </row>
@@ -7133,41 +7103,41 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>222–228</t>
+          <t>257–268</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F144">
-        <v>4889</v>
+        <v>2368</v>
       </c>
       <c r="G144">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
     </row>
@@ -7182,41 +7152,41 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>229–241</t>
+          <t>199–210</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F145">
-        <v>2270</v>
+        <v>2404</v>
       </c>
       <c r="G145">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H145">
         <v>3</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
     </row>
@@ -7231,12 +7201,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>186–198</t>
+          <t>211–221</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7245,27 +7215,27 @@
         </is>
       </c>
       <c r="F146">
-        <v>2107</v>
+        <v>2052</v>
       </c>
       <c r="G146">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
     </row>
@@ -7280,12 +7250,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>171–185</t>
+          <t>222–228</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7294,27 +7264,27 @@
         </is>
       </c>
       <c r="F147">
-        <v>2610</v>
+        <v>4999</v>
       </c>
       <c r="G147">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H147">
         <v>5</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
     </row>
@@ -7329,12 +7299,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>151–170</t>
+          <t>229–241</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7343,27 +7313,27 @@
         </is>
       </c>
       <c r="F148">
-        <v>5803</v>
+        <v>2304</v>
       </c>
       <c r="G148">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
     </row>
@@ -7378,41 +7348,41 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>143–150</t>
+          <t>186–198</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F149">
-        <v>5323</v>
+        <v>2157</v>
       </c>
       <c r="G149">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H149">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
     </row>
@@ -7427,41 +7397,41 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>91–104</t>
+          <t>171–185</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F150">
-        <v>5078</v>
+        <v>2656</v>
       </c>
       <c r="G150">
         <v>9</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7446,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>113–128</t>
+          <t>151–170</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7490,27 +7460,27 @@
         </is>
       </c>
       <c r="F151">
-        <v>5503</v>
+        <v>5938</v>
       </c>
       <c r="G151">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H151">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
     </row>
@@ -7525,12 +7495,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>129–142</t>
+          <t>143–150</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -7539,27 +7509,27 @@
         </is>
       </c>
       <c r="F152">
-        <v>4607</v>
+        <v>5379</v>
       </c>
       <c r="G152">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
     </row>
@@ -7574,12 +7544,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>105–112</t>
+          <t>91–104</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7588,27 +7558,27 @@
         </is>
       </c>
       <c r="F153">
-        <v>1727</v>
+        <v>5208</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
     </row>
@@ -7623,41 +7593,41 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>73–89</t>
+          <t>113–128</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F154">
-        <v>2425</v>
+        <v>5595</v>
       </c>
       <c r="G154">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Xinhua Lin, Bing Zhao</t>
         </is>
       </c>
     </row>
@@ -7672,41 +7642,41 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>62–72</t>
+          <t>129–142</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F155">
-        <v>4019</v>
+        <v>4688</v>
       </c>
       <c r="G155">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
     </row>
@@ -7721,41 +7691,41 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>31–53</t>
+          <t>105–112</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F156">
-        <v>5925</v>
+        <v>1756</v>
       </c>
       <c r="G156">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Xun Gu</t>
         </is>
       </c>
     </row>
@@ -7770,12 +7740,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>54–61</t>
+          <t>73–89</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7784,27 +7754,27 @@
         </is>
       </c>
       <c r="F157">
-        <v>4857</v>
+        <v>2463</v>
       </c>
       <c r="G157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H157">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
     </row>
@@ -7819,12 +7789,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>22–30</t>
+          <t>62–72</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7833,27 +7803,27 @@
         </is>
       </c>
       <c r="F158">
-        <v>6110</v>
+        <v>4081</v>
       </c>
       <c r="G158">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H158">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Shenghong Ju</t>
         </is>
       </c>
     </row>
@@ -7868,41 +7838,41 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>15–21</t>
+          <t>31–53</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F159">
-        <v>3052</v>
+        <v>6022</v>
       </c>
       <c r="G159">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H159">
         <v>3</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Neelam R. Yadav</t>
         </is>
       </c>
     </row>
@@ -7917,12 +7887,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>3–14</t>
+          <t>54–61</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7931,27 +7901,27 @@
         </is>
       </c>
       <c r="F160">
-        <v>7864</v>
+        <v>4956</v>
       </c>
       <c r="G160">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H160">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Wei Chen</t>
         </is>
       </c>
     </row>
@@ -7966,39 +7936,186 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>22–30</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F161">
+        <v>6194</v>
+      </c>
+      <c r="G161">
+        <v>15</v>
+      </c>
+      <c r="H161">
+        <v>12</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Gong Zhang, Jingjie Jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>2021</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>15–21</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Correspondence</t>
+        </is>
+      </c>
+      <c r="F162">
+        <v>3090</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+      <c r="H162">
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>2021</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>3–14</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F163">
+        <v>7978</v>
+      </c>
+      <c r="G163">
+        <v>7</v>
+      </c>
+      <c r="H163">
+        <v>15</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Jiucun Wang, Li Jin</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>2021</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
           <t>1–2</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>Editorial</t>
         </is>
       </c>
-      <c r="F161">
-        <v>6607</v>
-      </c>
-      <c r="G161">
-        <v>13</v>
-      </c>
-      <c r="H161">
+      <c r="F164">
+        <v>6695</v>
+      </c>
+      <c r="G164">
+        <v>15</v>
+      </c>
+      <c r="H164">
         <v>7</v>
       </c>
-      <c r="I161" t="inlineStr">
+      <c r="I164" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>https://link.springer.com/article/10.1007/s43657-020-00009-4</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>Li Jin</t>
         </is>

--- a/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K164"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,6 +413,16 @@
           <t>correspond_authors</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>doi</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -425,11 +435,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,17 +449,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00147-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00176-8</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Yongjun Wang, Mei Tian</t>
+          <t>Ru Wang</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00176-8</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Improved prediction of swimming talent through random forest analysis of anthropometric and physiological phenotypes</t>
         </is>
       </c>
     </row>
@@ -464,11 +484,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -478,17 +498,27 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00184-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00151-9</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Wenjun Ju</t>
+          <t>Cuiwei Yang</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00151-9</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Risk Analysis of Atrial Fibrillation Based on ECG Phenotypes: The RAF-ECP Study Protocol</t>
         </is>
       </c>
     </row>
@@ -498,7 +528,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -507,27 +537,37 @@
         </is>
       </c>
       <c r="F4">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00165-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00181-x</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Qiongyue Zhang, Ru Wang, Tiemin Liu</t>
+          <t>He Wang, Yu An</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00181-x</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Alterations of Sensory-related Functional Brain Network Connectivity in Nrsn2 Homozygous Knockout Mice</t>
         </is>
       </c>
     </row>
@@ -537,36 +577,46 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Perspective</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F5">
-        <v>316</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00196-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00147-5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Qi-Rong Qin, Lianmin Chen, Evan Yi-Wen Yu</t>
+          <t>Yongjun Wang, Mei Tian</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00147-5</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Organ Crosstalk: The Role of Spleen</t>
         </is>
       </c>
     </row>
@@ -576,36 +626,46 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F6">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00183-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00184-8</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Guiying Wang, Xuelian Li, Chenqi Lu</t>
+          <t>Wenjun Ju</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00184-8</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Towards Risk Stratification in Clinical Care for IgA Nephropathy: Genetic Risk Scores</t>
         </is>
       </c>
     </row>
@@ -620,31 +680,41 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F7">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00177-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00165-x</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Peng Wu</t>
+          <t>Qiongyue Zhang, Ru Wang, Tiemin Liu</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00165-x</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Multi-Omics Exploration of Obesity Biomarkers in Sedentary and Weight Loss Cohorts</t>
         </is>
       </c>
     </row>
@@ -659,31 +729,41 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Perspective</t>
         </is>
       </c>
       <c r="F8">
-        <v>86</v>
+        <v>413</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00171-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00196-4</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Bo Shen, Yuanlin Song, Junjie Wu</t>
+          <t>Qi-Rong Qin, Lianmin Chen, Evan Yi-Wen Yu</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00196-4</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Cohort Profile: TRacing Etiology of Non-communicable Diseases (TREND): Rationale, Progress and Perspective</t>
         </is>
       </c>
     </row>
@@ -693,7 +773,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -702,27 +782,37 @@
         </is>
       </c>
       <c r="F9">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00163-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00183-9</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wang Wei, Tian Hua</t>
+          <t>Guiying Wang, Xuelian Li, Chenqi Lu</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00183-9</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Integrated Transcriptome Analysis of lncRNA, miRNA, and mRNA Reveals key Regulatory Modules for Polycystic Ovary Syndrome</t>
         </is>
       </c>
     </row>
@@ -732,36 +822,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F10">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00156-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00177-7</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Shigang Zhao</t>
+          <t>Peng Wu</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00177-7</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Unveiling Metabolic Signatures in Osteoarthritis Progression through Non-Targeted Metabolomics Analysis: A Paradigm Shift in Diagnosis and Treatment Prospects</t>
         </is>
       </c>
     </row>
@@ -769,28 +869,18 @@
       <c r="A11">
         <v>2024</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>257–268</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F11">
-        <v>1095</v>
+        <v>96</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -800,17 +890,27 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00146-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00171-z</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Jiaxing Tian, Linhua Zhao, Xiaolin Tong, NA</t>
+          <t>Bo Shen, Yuanlin Song, Junjie Wu</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00171-z</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Prognostic Significance of Methyl-CpG Binding Domain4 Polymorphism rs140693 and Clinical Characteristics in Chinese Lung Cancer Patients</t>
         </is>
       </c>
     </row>
@@ -818,38 +918,58 @@
       <c r="A12">
         <v>2024</v>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>379–393</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F12">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00141-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00163-z</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Wang Wei, Tian Hua</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00163-z</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Senescence-Related LncRNAs: Pioneering Indicators for Ovarian Cancer Outcomes</t>
         </is>
       </c>
     </row>
@@ -859,36 +979,46 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F13">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00187-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00156-y</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Gang Wei, Ting Ni</t>
+          <t>Shigang Zhao</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00156-y</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>No Association of Polycystic Ovary Syndrome with Pancreatic Cancer: A Mendelian Randomization Study</t>
         </is>
       </c>
     </row>
@@ -903,12 +1033,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>269–292</t>
+          <t>257–268</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -917,27 +1047,37 @@
         </is>
       </c>
       <c r="F14">
-        <v>443</v>
+        <v>1283</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00142-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00146-6</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Juan Su, Xuejun Zhang, Xiang Chen</t>
+          <t>Jiaxing Tian, Linhua Zhao, Xiaolin Tong, NA</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00146-6</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Investigation on Phenomics of Traditional Chinese Medicine from the Diabetes</t>
         </is>
       </c>
     </row>
@@ -952,31 +1092,41 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F15">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00144-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00141-x</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Xiangdong Tang, Huan Song</t>
+          <t>Mei Tian</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00141-x</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>A Protocol for Body MRI/CT and Extraction of Imaging-Derived Phenotypes (IDPs) from the China Phenobank Project</t>
         </is>
       </c>
     </row>
@@ -995,27 +1145,37 @@
         </is>
       </c>
       <c r="F16">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00169-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00187-5</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Hai-Liang Zhang, Yan Shi, Yuan-Yuan Qu, Ding-Wei Ye</t>
+          <t>Gang Wei, Ting Ni</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00187-5</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Deficiency of Gut-Enriched Lipase H Promotes Gut Aging and Reduces Lifespan in Drosophila</t>
         </is>
       </c>
     </row>
@@ -1023,38 +1183,58 @@
       <c r="A17">
         <v>2024</v>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>269–292</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F17">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00157-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00142-w</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Juan Su, Xuejun Zhang, Xiang Chen</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00142-w</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Expert Consensus on Big Data Collection of Skin and Appendage Disease Phenotypes in Chinese</t>
         </is>
       </c>
     </row>
@@ -1064,36 +1244,46 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F18">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00185-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00144-8</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Hao Yang</t>
+          <t>Xiangdong Tang, Huan Song</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00144-8</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Disease Modules Associated with Unfavorable Sleep Patterns and Their Genetic Determinants: A Prospective Cohort Study of the UK Biobank</t>
         </is>
       </c>
     </row>
@@ -1108,41 +1298,51 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>293–297</t>
+          <t>365–378</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Correspondence/Letter to the Editor</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F19">
-        <v>759</v>
+        <v>345</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00164-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00169-7</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Binhao Shi, Dezhi Tang, Yongjun Wang</t>
+          <t>Hai-Liang Zhang, Yan Shi, Yuan-Yuan Qu, Ding-Wei Ye</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00169-7</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Dissecting the Implications of Calumenin in Malignancy and Heterogeneity of the Microenvironment of Clear Cell Renal Cell Carcinoma Using Multi-Omics Data</t>
         </is>
       </c>
     </row>
@@ -1150,6 +1350,16 @@
       <c r="A20">
         <v>2024</v>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>352–364</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>2024-07</t>
@@ -1161,7 +1371,7 @@
         </is>
       </c>
       <c r="F20">
-        <v>654</v>
+        <v>705</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1171,17 +1381,27 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00134-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00157-x</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Huan Song</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00157-x</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Associations of Plasma Lipidomic Profiles with Uric Acid and Hyperuricemia Risk in Middle-Aged and Elderly Chinese</t>
         </is>
       </c>
     </row>
@@ -1189,6 +1409,16 @@
       <c r="A21">
         <v>2024</v>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>394–396</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2024-07</t>
@@ -1196,31 +1426,41 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F21">
-        <v>504</v>
+        <v>203</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00132-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00185-7</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Yongjun Wang, Yanping Yang</t>
+          <t>Hao Yang</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00185-7</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Site-Specific Quantitative N-Glycoproteomics: The Great Clinical Application Potential of GlycoQuant</t>
         </is>
       </c>
     </row>
@@ -1228,6 +1468,16 @@
       <c r="A22">
         <v>2024</v>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>293–297</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>2024-07</t>
@@ -1235,31 +1485,41 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Correspondence/Letter to the Editor</t>
         </is>
       </c>
       <c r="F22">
-        <v>291</v>
+        <v>853</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00149-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00164-y</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Binhao Shi, Dezhi Tang, Yongjun Wang</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00164-y</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Gut Microbiota in Primary Osteoporosis: a Systematic Review</t>
         </is>
       </c>
     </row>
@@ -1274,21 +1534,21 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>298–312</t>
+          <t>327–338</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F23">
-        <v>889</v>
+        <v>912</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1298,17 +1558,27 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00140-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00134-w</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Zhifei Dai, Desheng Sun</t>
+          <t>Huan Song</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00134-w</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Risk of Cardiovascular Disease Hospitalization After Common Psychiatric Disorders: Analyses of Disease Susceptibility and Progression Trajectory in the UK Biobank</t>
         </is>
       </c>
     </row>
@@ -1318,36 +1588,46 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F24">
-        <v>325</v>
+        <v>552</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00154-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00132-y</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Zheng Liu, Zhihong Zhang</t>
+          <t>Yongjun Wang, Yanping Yang</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00132-y</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Cellular Senescence-Related Long Non-coding RNA Signatures Predict Prognosis in Juvenile Osteosarcoma</t>
         </is>
       </c>
     </row>
@@ -1357,36 +1637,46 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F25">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00149-3</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
+          <t>Feng Qian</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00149-3</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Correction: Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
         </is>
       </c>
     </row>
@@ -1394,6 +1684,16 @@
       <c r="A26">
         <v>2024</v>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>401–414</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>2024-06</t>
@@ -1401,31 +1701,41 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F26">
-        <v>216</v>
+        <v>408</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-06-01</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00154-6</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
+          <t>Zheng Liu, Zhihong Zhang</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00154-6</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Modulating and Imaging Macrophage Reprogramming for Cancer Immunotherapy</t>
         </is>
       </c>
     </row>
@@ -1440,41 +1750,51 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>254–256</t>
+          <t>298–312</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F27">
-        <v>263</v>
+        <v>1026</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00140-y</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Zhifei Dai, Desheng Sun</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00140-y</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Synergistically Augmenting Cancer Immunotherapy by Physical Manipulation of Pyroptosis Induction</t>
         </is>
       </c>
     </row>
@@ -1482,38 +1802,58 @@
       <c r="A28">
         <v>2024</v>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>313–326</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F28">
-        <v>232</v>
+        <v>430</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00161-1</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Hao Cheng, Bin Li</t>
+          <t>Xiao Li, Haili Tian, Shangyu Hong</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00161-1</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Living Conditions Alter Ketogenic Diet-induced Metabolic Consequences in Mice through Modulating Gut Microbiota</t>
         </is>
       </c>
     </row>
@@ -1528,12 +1868,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>125–137</t>
+          <t>339–351</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1542,7 +1882,7 @@
         </is>
       </c>
       <c r="F29">
-        <v>529</v>
+        <v>282</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1552,17 +1892,27 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-05-04</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00160-2</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Bi Chen, Bing Gu</t>
+          <t>Yinping Wang, Dekang Lv, Qiwei Li</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00160-2</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Cell-Free DNA in Plasma Reveals Genomic Similarity Between Biliary Tract Inflammatory Lesion and Biliary Tract Cancer</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1927,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>234–249</t>
+          <t>254–256</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1587,11 +1937,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F30">
-        <v>812</v>
+        <v>294</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1601,17 +1951,27 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00139-5</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Jie Chen</t>
+          <t>Mei Tian, Li Jin</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00139-5</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Report on the 4th Board Meeting of the International Human Phenome Consortium</t>
         </is>
       </c>
     </row>
@@ -1626,41 +1986,51 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>250–253</t>
+          <t>397–400</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F31">
-        <v>468</v>
+        <v>312</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-024-00166-w</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Yan Zheng, Zhonghan Sun</t>
+          <t>Hao Cheng, Bin Li</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-024-00166-w</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>True Ageing: An Up-to-date Model for Evaluating the Immune Age of the Chinese Population</t>
         </is>
       </c>
     </row>
@@ -1675,12 +2045,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>213–226</t>
+          <t>125–137</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1689,27 +2059,37 @@
         </is>
       </c>
       <c r="F32">
-        <v>649</v>
+        <v>547</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00135-9</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Yong Zhang</t>
+          <t>Bi Chen, Bing Gu</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00135-9</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Bronchoalveolar Lavage Fluid Microbiota is Associated with the Diagnosis and Prognosis Evaluation of Lung Cancer</t>
         </is>
       </c>
     </row>
@@ -1724,12 +2104,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>91–108</t>
+          <t>234–249</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1738,27 +2118,37 @@
         </is>
       </c>
       <c r="F33">
-        <v>584</v>
+        <v>893</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00152-8</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
+          <t>Jie Chen</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00152-8</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>A Multimodal Approach for Detection and Assessment of Depression Using Text, Audio and Video</t>
         </is>
       </c>
     </row>
@@ -1773,41 +2163,51 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>146–157</t>
+          <t>250–253</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F34">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00145-7</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Xujie Zhou</t>
+          <t>Yan Zheng, Zhonghan Sun</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00145-7</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Kidney Function and Cardiovascular Disease: Evidence from Observational Studies and Mendelian Randomization Analyses</t>
         </is>
       </c>
     </row>
@@ -1822,12 +2222,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34–45</t>
+          <t>213–226</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1836,27 +2236,37 @@
         </is>
       </c>
       <c r="F35">
-        <v>479</v>
+        <v>721</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00150-w</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
+          <t>Yong Zhang</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00150-w</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>A Novel Integrated Pipeline for Site-Specific Quantification of N-glycosylation</t>
         </is>
       </c>
     </row>
@@ -1871,12 +2281,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>227–233</t>
+          <t>91–108</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1885,27 +2295,37 @@
         </is>
       </c>
       <c r="F36">
-        <v>1003</v>
+        <v>600</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00115-z</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
+          <t>Zhiyuan Hu, Qiang Zeng, Qiaojun Fang, Leroy Hood</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00115-z</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>A Proactive Intervention Study in Metabolic Syndrome High-Risk Populations Using Phenome-Based Actionable P4 Medicine Strategy</t>
         </is>
       </c>
     </row>
@@ -1920,7 +2340,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>203–212</t>
+          <t>146–157</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1930,31 +2350,41 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F37">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>11</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00138-6</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Xujie Zhou</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00138-6</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Clinical Application of Polygenic Risk Score in IgA Nephropathy</t>
         </is>
       </c>
     </row>
@@ -1969,7 +2399,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>187–202</t>
+          <t>34–45</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1979,31 +2409,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F38">
-        <v>647</v>
+        <v>496</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00133-x</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
+          <t>Chunyu Wu, Yuenong Qin, Xiaofei Liu, Sheng Liu</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00133-x</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Investigating the Immunogenic Cell Death-Dependent Subtypes and Prognostic Signature of Triple-Negative Breast Cancer</t>
         </is>
       </c>
     </row>
@@ -2011,6 +2451,16 @@
       <c r="A39">
         <v>2024</v>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>227–233</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>2024-03</t>
@@ -2018,31 +2468,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F39">
-        <v>2601</v>
+        <v>1080</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00123-z</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Leming Shi, Yuanting Zheng</t>
+          <t>Jianyuan Zhao, Fuqing Lin, Xuan Zhao</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00123-z</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Identification of Key Factors in Cartilage Tissue During the Progression of Osteoarthritis Using a Non-targeted Metabolomics Strategy</t>
         </is>
       </c>
     </row>
@@ -2057,41 +2517,51 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>56–71</t>
+          <t>203–212</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F40">
-        <v>984</v>
+        <v>563</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00127-9</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00127-9</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Measurement of Energy Expenditure by Indirect Calorimetry with a Whole-Room Calorimeter</t>
         </is>
       </c>
     </row>
@@ -2106,41 +2576,51 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>24–33</t>
+          <t>187–202</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F41">
-        <v>1278</v>
+        <v>680</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00119-9</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Wei Sheng, Guoying Huang</t>
+          <t>Wei Hu, Wenhong Zhang, Jing Wu</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00119-9</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>The Critical Role of the Shroom Family Proteins in Morphogenesis, Organogenesis and Disease</t>
         </is>
       </c>
     </row>
@@ -2148,195 +2628,225 @@
       <c r="A42">
         <v>2024</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>13–23</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F42">
-        <v>533</v>
+        <v>2699</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H42">
         <v>10</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00153-7</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Leming Shi, Yuanting Zheng</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00153-7</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Reference Materials for Improving Reliability of Multiomics Profiling</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>549–564</t>
+          <t>56–71</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F43">
-        <v>2415</v>
+        <v>1057</v>
       </c>
       <c r="G43">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00125-x</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
+          <t>Weiqi Zhang, Jing Qu, Guang-Hui Liu</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00125-x</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Multimodal Omics Approaches to Aging and Age-Related Diseases</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>586–596</t>
+          <t>24–33</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F44">
-        <v>707</v>
+        <v>1339</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2023-12-05</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00130-0</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Guifen Yang, Longjiang Zhang</t>
+          <t>Wei Sheng, Guoying Huang</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00130-0</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Next-Generation Sequencing-Based Copy Number Variation Analysis in Chinese Patients with Primary Ciliary Dyskinesia Revealed Novel DNAH5 Copy Number Variations</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>639–641</t>
+          <t>13–23</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F45">
-        <v>958</v>
+        <v>546</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00126-w</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Michael C. Kreissl</t>
+          <t>Jiangping Song</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00126-w</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>A Heterozygous Phospholamban Variant (p.R14del) Leads to Left Ventricular Involvement and Heart Failure Phenotypes in Arrhythmogenic Right Ventricular Cardiomyopathy</t>
         </is>
       </c>
     </row>
@@ -2351,41 +2861,51 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>597–612</t>
+          <t>549–564</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F46">
-        <v>2604</v>
+        <v>2482</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00136-8</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Hongyang Wang, Ningyang Jia, Lei Chen</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00136-8</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>A Noninvasive Approach to Evaluate Tumor Immune Microenvironment and Predict Outcomes in Hepatocellular Carcinoma</t>
         </is>
       </c>
     </row>
@@ -2400,12 +2920,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>613–638</t>
+          <t>586–596</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2414,27 +2934,37 @@
         </is>
       </c>
       <c r="F47">
-        <v>1315</v>
+        <v>727</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-12-05</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00137-7</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Cong Li</t>
+          <t>Guifen Yang, Longjiang Zhang</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00137-7</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence Empowered Nuclear Medicine and Molecular Imaging in Cardiology: A State-of-the-Art Review</t>
         </is>
       </c>
     </row>
@@ -2442,38 +2972,58 @@
       <c r="A48">
         <v>2023</v>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>639–641</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F48">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00143-9</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Hao Wu, Guoping Zhao</t>
+          <t>Michael C. Kreissl</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00143-9</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Comments on Study of “Performance of 18F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study”</t>
         </is>
       </c>
     </row>
@@ -2488,12 +3038,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>535–547</t>
+          <t>597–612</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2502,27 +3052,37 @@
         </is>
       </c>
       <c r="F49">
-        <v>860</v>
+        <v>2736</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00128-8</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Ning-Ning Liu</t>
+          <t>Mei Tian</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00128-8</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Phenomic Imaging</t>
         </is>
       </c>
     </row>
@@ -2532,12 +3092,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>171–186</t>
+          <t>613–638</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2551,27 +3111,37 @@
         </is>
       </c>
       <c r="F50">
-        <v>663</v>
+        <v>1367</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00129-7</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Xiaolei Ren, Zhihong Li</t>
+          <t>Cong Li</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00129-7</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Visualizing Macrophage Phenotypes and Polarization in Diseases: From Biomarkers to Molecular Probes</t>
         </is>
       </c>
     </row>
@@ -2579,48 +3149,48 @@
       <c r="A51">
         <v>2023</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>72–80</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Editorial</t>
         </is>
       </c>
       <c r="F51">
-        <v>668</v>
+        <v>1021</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00131-z</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Boyi Li, Dean Ta</t>
+          <t>Hao Wu, Guoping Zhao</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00131-z</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Human Gut Microbiome Researches Over the Last Decade: Current Challenges and Future Directions</t>
         </is>
       </c>
     </row>
@@ -2630,46 +3200,56 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51–55</t>
+          <t>535–547</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F52">
-        <v>1055</v>
+        <v>904</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00124-y</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
+          <t>Ning-Ning Liu</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00124-y</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Oral Microbiota: A New Insight into Cancer Progression, Diagnosis and Treatment</t>
         </is>
       </c>
     </row>
@@ -2684,41 +3264,51 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>109–124</t>
+          <t>171–186</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F53">
-        <v>2508</v>
+        <v>687</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00111-3</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
+          <t>Xiaolei Ren, Zhihong Li</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00111-3</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>3D Models of Sarcomas: The Next-generation Tool for Personalized Medicine</t>
         </is>
       </c>
     </row>
@@ -2733,7 +3323,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>81–89</t>
+          <t>72–80</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2747,27 +3337,37 @@
         </is>
       </c>
       <c r="F54">
-        <v>737</v>
+        <v>686</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>2</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00122-0</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Boyi Li, Dean Ta</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00122-0</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>The Protocol of Ultrasonic Backscatter Measurements of Musculoskeletal Properties</t>
         </is>
       </c>
     </row>
@@ -2777,12 +3377,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>496–501</t>
+          <t>51–55</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2796,27 +3396,37 @@
         </is>
       </c>
       <c r="F55">
-        <v>841</v>
+        <v>1111</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00120-2</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Weimin Ye</t>
+          <t>Huiru Tang, Xingdong Chen, Yanfeng Jiang</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00120-2</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Circulating Lipoproteins Mediate the Association Between Cardiovascular Risk Factors and Cognitive Decline: A Community-Based Cohort Study</t>
         </is>
       </c>
     </row>
@@ -2831,7 +3441,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>158–170</t>
+          <t>109–124</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2845,27 +3455,37 @@
         </is>
       </c>
       <c r="F56">
-        <v>689</v>
+        <v>2585</v>
       </c>
       <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
         <v>2</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00121-1</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Ying Xu, Jiaxue Wu</t>
+          <t>Ying Yu, Wanwan Hou, Yuanting Zheng</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00121-1</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Plasma-Free Blood as a Potential Alternative to Whole Blood for Transcriptomic Analysis</t>
         </is>
       </c>
     </row>
@@ -2880,41 +3500,51 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>46–50</t>
+          <t>81–89</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F57">
-        <v>1683</v>
+        <v>759</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00114-0</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
+          <t>Feng Qian</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00114-0</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Analysis of the Immune Response by Standardized Whole-Blood Stimulation with Metabolism Modulation</t>
         </is>
       </c>
     </row>
@@ -2929,41 +3559,51 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>469–484</t>
+          <t>496–501</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F58">
-        <v>552</v>
+        <v>867</v>
       </c>
       <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
         <v>3</v>
       </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00118-w</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Menghan Hu, Min Dai</t>
+          <t>Weimin Ye</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00118-w</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Inflammation as a Mediator of Microbiome Dysbiosis-Associated DNA Methylation Changes in Gastric Premalignant Lesions</t>
         </is>
       </c>
     </row>
@@ -2973,46 +3613,56 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>519–534</t>
+          <t>158–170</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F59">
-        <v>755</v>
+        <v>709</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00112-2</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Jingjing Luo</t>
+          <t>Ying Xu, Jiaxue Wu</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00112-2</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Identification of Poly(ADP-ribose) Polymerase 9 (PARP9) as a Potent Suppressor for Mycobacterium tuberculosis Infection</t>
         </is>
       </c>
     </row>
@@ -3022,46 +3672,56 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>576–585</t>
+          <t>46–50</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F60">
-        <v>654</v>
+        <v>1820</v>
       </c>
       <c r="G60">
         <v>3</v>
       </c>
       <c r="H60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00110-4</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Xin Li, Xiang Li</t>
+          <t>Hong Liu, Xiang Chen, Minxue Shen</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00110-4</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Allergic Phenotypes and Sarcopenia: Evidence from Observational Studies and Mendelian Randomization Analysis</t>
         </is>
       </c>
     </row>
@@ -3076,41 +3736,51 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>329–332</t>
+          <t>469–484</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F61">
-        <v>892</v>
+        <v>569</v>
       </c>
       <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
         <v>2</v>
       </c>
-      <c r="H61">
-        <v>4</v>
-      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00113-1</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Bing Su</t>
+          <t>Menghan Hu, Min Dai</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00113-1</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Auxiliary Diagnosis of Papillary Thyroid Carcinoma Based on Spectral Phenotype</t>
         </is>
       </c>
     </row>
@@ -3118,6 +3788,16 @@
       <c r="A62">
         <v>2023</v>
       </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>519–534</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>2023-07</t>
@@ -3125,31 +3805,41 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F62">
-        <v>1106</v>
+        <v>789</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00104-2</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Jingjing Luo</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00104-2</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>A Protocol for Digitalized Collection of Traditional Chinese Medicine (TCM) Pulse Information Using Bionic Pulse Diagnosis Equipment</t>
         </is>
       </c>
     </row>
@@ -3164,12 +3854,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>485–495</t>
+          <t>576–585</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3178,27 +3868,37 @@
         </is>
       </c>
       <c r="F63">
-        <v>632</v>
+        <v>670</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00108-y</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
+          <t>Xin Li, Xiang Li</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00108-y</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Performance of 18F-DCFPyL PET/CT in Primary Prostate Cancer Diagnosis, Gleason Grading and D'Amico Classification: A Radiomics-Based Study</t>
         </is>
       </c>
     </row>
@@ -3213,41 +3913,51 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>390–407</t>
+          <t>329–332</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F64">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00117-x</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Li Zhang, Weimin Li</t>
+          <t>Bing Su</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00117-x</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>High Arterial Oxygen Saturation in the Acclimatized Lowlanders Living at High Altitude</t>
         </is>
       </c>
     </row>
@@ -3255,48 +3965,48 @@
       <c r="A65">
         <v>2023</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>439–456</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F65">
-        <v>2175</v>
+        <v>1127</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00116-y</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Guoping Zhao, Guoqing Zhang</t>
+          <t>Xia Shen</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00116-y</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Correction: Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
         </is>
       </c>
     </row>
@@ -3306,12 +4016,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1–12</t>
+          <t>485–495</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3325,27 +4035,37 @@
         </is>
       </c>
       <c r="F66">
-        <v>2772</v>
+        <v>649</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2023-06-08</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00107-z</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
+          <t>Yun Liu, Hejian Zou, Zaihua Zhu</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00107-z</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>A Common Functional Variant at the Enhancer of the Rheumatoid Arthritis Risk Gene ORMDL3 Regulates its Expression Through Allele-Specific JunD Binding</t>
         </is>
       </c>
     </row>
@@ -3355,12 +4075,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>138–145</t>
+          <t>390–407</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3374,27 +4094,37 @@
         </is>
       </c>
       <c r="F67">
-        <v>2281</v>
+        <v>957</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00103-3</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Li Jin, Jiucun Wang</t>
+          <t>Li Zhang, Weimin Li</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00103-3</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Integrative Identification by Hi-C Revealed Distinct Advanced Structural Variations in Lung Adenocarcinoma Tissue</t>
         </is>
       </c>
     </row>
@@ -3409,12 +4139,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>360–374</t>
+          <t>439–456</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3423,27 +4153,37 @@
         </is>
       </c>
       <c r="F68">
-        <v>5398</v>
+        <v>2209</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00101-5</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
+          <t>Guoping Zhao, Guoqing Zhang</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00101-5</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Mycobacteriaceae Phenome Atlas (MPA): A Standardized Atlas for the Mycobacteriaceae Phenome Based on Heterogeneous Sources</t>
         </is>
       </c>
     </row>
@@ -3453,17 +4193,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>350–359</t>
+          <t>1–12</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3472,27 +4212,37 @@
         </is>
       </c>
       <c r="F69">
-        <v>800</v>
+        <v>2884</v>
       </c>
       <c r="G69">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00109-x</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
+          <t>Menghan Zhang, Shuhua Xu, Li Jin</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00109-x</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>De Novo Dissecting the Three-Dimensional Facial Morphology of 2379 Han Chinese Individuals</t>
         </is>
       </c>
     </row>
@@ -3502,46 +4252,56 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>421–438</t>
+          <t>138–145</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F70">
-        <v>3028</v>
+        <v>2356</v>
       </c>
       <c r="G70">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2023-05-06</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00105-1</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
+          <t>Li Jin, Jiucun Wang</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00105-1</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Quantitative Assessment of Ultraviolet-Induced Erythema and Tanning Responses in the Han Chinese Population</t>
         </is>
       </c>
     </row>
@@ -3556,12 +4316,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>228–242</t>
+          <t>360–374</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3570,27 +4330,37 @@
         </is>
       </c>
       <c r="F71">
-        <v>908</v>
+        <v>5591</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H71">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00106-0</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Lin Zhang, Dan Chen</t>
+          <t>Peisong Chen, Oscar Junhong Luo, Yifang Gao, Zhinan Yin</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00106-0</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Immune-Ageing Evaluation of Peripheral T and NK Lymphocyte Subsets in Chinese Healthy Adults</t>
         </is>
       </c>
     </row>
@@ -3605,41 +4375,51 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>333–349</t>
+          <t>350–359</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F72">
-        <v>4644</v>
+        <v>823</v>
       </c>
       <c r="G72">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H72">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00099-w</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Jianping Jia</t>
+          <t>Zechi Huang, Yuan-Yuan Li, Wentao Dai</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00099-w</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>DBLiPro: A Database for Lipids and Proteins in Human Lipid Metabolism</t>
         </is>
       </c>
     </row>
@@ -3654,41 +4434,51 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>217–227</t>
+          <t>421–438</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Brief Communication</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F73">
-        <v>4395</v>
+        <v>3127</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H73">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-05-06</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00102-4</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Xia Shen</t>
+          <t>Chen Chen, Jingchun Luo, Wei Chen</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00102-4</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Overview of a Sleep Monitoring Protocol for a Large Natural Population</t>
         </is>
       </c>
     </row>
@@ -3703,41 +4493,51 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>300–308</t>
+          <t>228–242</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F74">
-        <v>1526</v>
+        <v>928</v>
       </c>
       <c r="G74">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H74">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00086-7</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Zhexue Quan, Yan Zheng</t>
+          <t>Lin Zhang, Dan Chen</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00086-7</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>RNA-Sequencing Reveals Gene Expression and Pathway Signatures in Umbilical Cord Blood Affected by Birth Delivery Mode</t>
         </is>
       </c>
     </row>
@@ -3752,41 +4552,51 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>457–468</t>
+          <t>333–349</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F75">
-        <v>877</v>
+        <v>4754</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H75">
         <v>19</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00098-x</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+          <t>Jianping Jia</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00098-x</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Genetic Phenotypes of Alzheimer’s Disease: Mechanisms and Potential Therapy</t>
         </is>
       </c>
     </row>
@@ -3801,7 +4611,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>408–420</t>
+          <t>217–227</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3811,31 +4621,41 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Brief Communication</t>
         </is>
       </c>
       <c r="F76">
-        <v>836</v>
+        <v>4433</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00100-6</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Dean Ta</t>
+          <t>Xia Shen</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00100-6</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Hidden Genetic Regulation of Human Complex Traits via Brain Isoforms</t>
         </is>
       </c>
     </row>
@@ -3850,7 +4670,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>268–284</t>
+          <t>300–308</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3860,31 +4680,41 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F77">
-        <v>1827</v>
+        <v>1553</v>
       </c>
       <c r="G77">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H77">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00097-y</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Shangyu Hong, Yan Sun</t>
+          <t>Zhexue Quan, Yan Zheng</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00097-y</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Sample Collection, DNA Extraction, and Library Construction Protocols of the Human Microbiome Studies in the International Human Phenome Project</t>
         </is>
       </c>
     </row>
@@ -3899,41 +4729,51 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>309–328</t>
+          <t>457–468</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Protocol</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F78">
-        <v>8247</v>
+        <v>894</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00096-z</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Feng Qian</t>
+          <t>Jianxin Gu, Jing Liu, Shifang Ren</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00096-z</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>α2,3-Sialylation with Fucosylation Associated with More Severe Anti-MDA5 Positive Dermatomyositis Induced by Rapidly Progressive Interstitial Lung Disease</t>
         </is>
       </c>
     </row>
@@ -3948,41 +4788,51 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>190–203</t>
+          <t>408–420</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F79">
-        <v>967</v>
+        <v>845</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00094-1</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Hongfeng Chen</t>
+          <t>Dean Ta</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00094-1</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Virtual Fluorescence Translation for Biological Tissue by Conditional Generative Adversarial Network</t>
         </is>
       </c>
     </row>
@@ -3997,41 +4847,51 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>167–181</t>
+          <t>268–284</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F80">
-        <v>1182</v>
+        <v>1872</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H80">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-023-00095-0</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Xiangjun Chen</t>
+          <t>Shangyu Hong, Yan Sun</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-023-00095-0</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Diets, Gut Microbiota and Metabolites</t>
         </is>
       </c>
     </row>
@@ -4046,12 +4906,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>642–656</t>
+          <t>309–328</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4060,27 +4920,37 @@
         </is>
       </c>
       <c r="F81">
-        <v>1283</v>
+        <v>8407</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00092-9</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Mei Tian</t>
+          <t>Feng Qian</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00092-9</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Deep Immunophenotyping of Human Whole Blood by Standardized Multi-parametric Flow Cytometry Analyses</t>
         </is>
       </c>
     </row>
@@ -4095,12 +4965,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>285–299</t>
+          <t>190–203</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4109,27 +4979,37 @@
         </is>
       </c>
       <c r="F82">
-        <v>4766</v>
+        <v>975</v>
       </c>
       <c r="G82">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00085-8</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Weihai Ying</t>
+          <t>Hongfeng Chen</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00085-8</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Management of Intraductal Papilloma of the Breast Diagnosed on Core Needle Biopsy: Latest Controversies</t>
         </is>
       </c>
     </row>
@@ -4144,41 +5024,51 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>502–518</t>
+          <t>167–181</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F83">
-        <v>1416</v>
+        <v>1193</v>
       </c>
       <c r="G83">
         <v>3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00093-8</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Hui Li</t>
+          <t>Jiucun Wang, Xiangjun Chen</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00093-8</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Presence of Rare Variants is Associated with Poorer Survival in Chinese Patients with Amyotrophic Lateral Sclerosis</t>
         </is>
       </c>
     </row>
@@ -4193,7 +5083,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>243–254</t>
+          <t>642–656</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4203,17 +5093,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Protocol</t>
         </is>
       </c>
       <c r="F84">
-        <v>1458</v>
+        <v>1310</v>
       </c>
       <c r="G84">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -4222,18 +5112,28 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00083-w</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Yan Ren</t>
+          <t>Mei Tian</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00083-w</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Protocol for Brain Magnetic Resonance Imaging and Extraction of Imaging-Derived Phenotypes from the China Phenobank Project</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4242,47 +5142,57 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>148–166</t>
+          <t>285–299</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F85">
-        <v>1796</v>
+        <v>4877</v>
       </c>
       <c r="G85">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H85">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00089-4</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Wei Yan, Jie Jin</t>
+          <t>Weihai Ying</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00089-4</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Phenomic Studies on Diseases: Potential and Challenges</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4291,47 +5201,57 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>130–137</t>
+          <t>502–518</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F86">
-        <v>1372</v>
+        <v>1439</v>
       </c>
       <c r="G86">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00090-x</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Hui Li</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00090-x</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Infrared Imageries of Human Body Activated by Tea Match the Hypothesis of Meridian System</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4340,41 +5260,51 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>101–118</t>
+          <t>243–254</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F87">
-        <v>1463</v>
+        <v>1487</v>
       </c>
       <c r="G87">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00087-6</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>He Wang</t>
+          <t>Xiao-Yong Zhang, Yan Ren</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00087-6</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Deep Learning-Assisted Quantitative Susceptibility Mapping as a Tool for Grading and Molecular Subtyping of Gliomas</t>
         </is>
       </c>
     </row>
@@ -4389,7 +5319,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>255–267</t>
+          <t>148–166</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4403,27 +5333,37 @@
         </is>
       </c>
       <c r="F88">
-        <v>1638</v>
+        <v>1810</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00075-w</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Xiangjia Zhu, Yi Lu</t>
+          <t>Wei Yan, Jie Jin</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00075-w</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Proteomic Portrait of Human Lymphoma Reveals Protein Molecular Fingerprint of Disease Specific Subtypes and Progression</t>
         </is>
       </c>
     </row>
@@ -4431,38 +5371,58 @@
       <c r="A89">
         <v>2022</v>
       </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>130–137</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F89">
-        <v>1471</v>
+        <v>1389</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00084-9</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Xu Zhang, Dao Wen Wang</t>
+          <t>Jose Arturo Molina-Mora</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00084-9</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>In Silico Pipeline to Identify Tumor-Specific Antigens for Cancer Immunotherapy Using Exome Sequencing Data</t>
         </is>
       </c>
     </row>
@@ -4477,41 +5437,51 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>101–118</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F90">
-        <v>3791</v>
+        <v>1478</v>
       </c>
       <c r="G90">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00081-y</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
+          <t>He Wang</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00081-y</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Measurement of Cerebral Oxygen Extraction Fraction Using Quantitative BOLD Approach: A Review</t>
         </is>
       </c>
     </row>
@@ -4526,12 +5496,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>64–76</t>
+          <t>255–267</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4540,27 +5510,37 @@
         </is>
       </c>
       <c r="F91">
-        <v>4601</v>
+        <v>1658</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00082-x</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
+          <t>Xiangjia Zhu, Yi Lu</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00082-x</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>A Genome-Wide Association Study for Susceptibility to Axial Length in Highly Myopic Eyes</t>
         </is>
       </c>
     </row>
@@ -4568,48 +5548,48 @@
       <c r="A92">
         <v>2022</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>34–49</t>
-        </is>
-      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F92">
-        <v>1922</v>
+        <v>1490</v>
       </c>
       <c r="G92">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00088-5</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
     </row>
@@ -4624,12 +5604,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4638,27 +5618,37 @@
         </is>
       </c>
       <c r="F93">
-        <v>1601</v>
+        <v>3832</v>
       </c>
       <c r="G93">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Boxun Lu, Yuhua Fu</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00080-z</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
         </is>
       </c>
     </row>
@@ -4673,12 +5663,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>22–33</t>
+          <t>64–76</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4687,27 +5677,37 @@
         </is>
       </c>
       <c r="F94">
-        <v>1689</v>
+        <v>4656</v>
       </c>
       <c r="G94">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Weihua Meng</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00078-7</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
         </is>
       </c>
     </row>
@@ -4717,12 +5717,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>383–388</t>
+          <t>34–49</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4732,11 +5732,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F95">
-        <v>3873</v>
+        <v>1946</v>
       </c>
       <c r="G95">
         <v>8</v>
@@ -4746,17 +5746,27 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00069-8</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
     </row>
@@ -4771,7 +5781,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>565–575</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4785,27 +5795,37 @@
         </is>
       </c>
       <c r="F96">
-        <v>1457</v>
+        <v>1619</v>
       </c>
       <c r="G96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00079-6</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
         </is>
       </c>
     </row>
@@ -4815,12 +5835,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>363–382</t>
+          <t>22–33</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4830,31 +5850,41 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F97">
-        <v>10000</v>
+        <v>1705</v>
       </c>
       <c r="G97">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H97">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00077-8</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
         </is>
       </c>
     </row>
@@ -4869,41 +5899,51 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>430–437</t>
+          <t>383–388</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F98">
-        <v>2251</v>
+        <v>3985</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00074-x</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
         </is>
       </c>
     </row>
@@ -4913,17 +5953,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>404–418</t>
+          <t>565–575</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4932,27 +5972,37 @@
         </is>
       </c>
       <c r="F99">
-        <v>1964</v>
+        <v>1489</v>
       </c>
       <c r="G99">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00076-9</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
         </is>
       </c>
     </row>
@@ -4962,17 +6012,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>204–215</t>
+          <t>363–382</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4981,27 +6031,37 @@
         </is>
       </c>
       <c r="F100">
-        <v>1478</v>
+        <v>10000</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00073-y</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
         </is>
       </c>
     </row>
@@ -5011,17 +6071,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>375–389</t>
+          <t>430–437</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5030,27 +6090,37 @@
         </is>
       </c>
       <c r="F101">
-        <v>6014</v>
+        <v>2264</v>
       </c>
       <c r="G101">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H101">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00072-z</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
         </is>
       </c>
     </row>
@@ -5065,12 +6135,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>419–429</t>
+          <t>404–418</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5079,27 +6149,37 @@
         </is>
       </c>
       <c r="F102">
-        <v>1665</v>
+        <v>1996</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00070-1</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
         </is>
       </c>
     </row>
@@ -5114,41 +6194,51 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>138–147</t>
+          <t>204–215</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F103">
-        <v>1347</v>
+        <v>1489</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Wenhao Zhou</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00071-0</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
         </is>
       </c>
     </row>
@@ -5158,12 +6248,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>389–403</t>
+          <t>375–389</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5177,27 +6267,37 @@
         </is>
       </c>
       <c r="F104">
-        <v>3139</v>
+        <v>6135</v>
       </c>
       <c r="G104">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00068-9</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
         </is>
       </c>
     </row>
@@ -5207,46 +6307,56 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>77–82</t>
+          <t>419–429</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F105">
-        <v>4170</v>
+        <v>1687</v>
       </c>
       <c r="G105">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Shouling Wu, An Pan</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00067-w</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
         </is>
       </c>
     </row>
@@ -5256,17 +6366,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>219–229</t>
+          <t>138–147</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5275,27 +6385,37 @@
         </is>
       </c>
       <c r="F106">
-        <v>1753</v>
+        <v>1363</v>
       </c>
       <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
         <v>5</v>
       </c>
-      <c r="H106">
-        <v>4</v>
-      </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00064-z</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
         </is>
       </c>
     </row>
@@ -5310,41 +6430,51 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>336–348</t>
+          <t>389–403</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F107">
-        <v>3581</v>
+        <v>3165</v>
       </c>
       <c r="G107">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H107">
         <v>4</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Yong Wang</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00066-x</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
         </is>
       </c>
     </row>
@@ -5359,7 +6489,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1–21</t>
+          <t>77–82</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5369,31 +6499,41 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="F108">
-        <v>2110</v>
+        <v>4200</v>
       </c>
       <c r="G108">
+        <v>6</v>
+      </c>
+      <c r="H108">
         <v>5</v>
       </c>
-      <c r="H108">
-        <v>4</v>
-      </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Mei Tian, Li Jin</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00065-y</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
         </is>
       </c>
     </row>
@@ -5408,7 +6548,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>283–294</t>
+          <t>219–229</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5422,27 +6562,37 @@
         </is>
       </c>
       <c r="F109">
-        <v>2084</v>
+        <v>1769</v>
       </c>
       <c r="G109">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00063-0</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
         </is>
       </c>
     </row>
@@ -5452,12 +6602,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>182–189</t>
+          <t>336–348</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5467,31 +6617,41 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F110">
-        <v>2315</v>
+        <v>3631</v>
       </c>
       <c r="G110">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00060-3</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
         </is>
       </c>
     </row>
@@ -5501,12 +6661,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>312–322</t>
+          <t>1–21</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5520,27 +6680,37 @@
         </is>
       </c>
       <c r="F111">
-        <v>3040</v>
+        <v>2124</v>
       </c>
       <c r="G111">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H111">
         <v>4</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Manoel Teixeira Souza Júnior</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00061-2</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Multi-omics Analysis of Young Portulaca oleracea L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
         </is>
       </c>
     </row>
@@ -5555,7 +6725,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>261–271</t>
+          <t>283–294</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5569,27 +6739,37 @@
         </is>
       </c>
       <c r="F112">
-        <v>1700</v>
+        <v>2093</v>
       </c>
       <c r="G112">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00057-y</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
         </is>
       </c>
     </row>
@@ -5604,41 +6784,51 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>83–100</t>
+          <t>182–189</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F113">
-        <v>2612</v>
+        <v>2348</v>
       </c>
       <c r="G113">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00062-1</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
         </is>
       </c>
     </row>
@@ -5653,41 +6843,51 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>349–361</t>
+          <t>312–322</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F114">
-        <v>2049</v>
+        <v>3070</v>
       </c>
       <c r="G114">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H114">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
+          <t>Jose Arturo Molina-Mora</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00058-x</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
         </is>
       </c>
     </row>
@@ -5702,12 +6902,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>323–335</t>
+          <t>261–271</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5716,27 +6916,37 @@
         </is>
       </c>
       <c r="F115">
-        <v>1628</v>
+        <v>1719</v>
       </c>
       <c r="G115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H115">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00055-0</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
         </is>
       </c>
     </row>
@@ -5746,12 +6956,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>230–241</t>
+          <t>83–100</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5761,31 +6971,41 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F116">
-        <v>2045</v>
+        <v>2626</v>
       </c>
       <c r="G116">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Lunxiu Qin</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00043-w</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Emerging Regulatory Mechanisms of N6-Methyladenosine Modification in Cancer Metastasis</t>
         </is>
       </c>
     </row>
@@ -5800,7 +7020,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>184–193</t>
+          <t>349–361</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5810,31 +7030,41 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F117">
-        <v>4608</v>
+        <v>2061</v>
       </c>
       <c r="G117">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Jian Wang</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00051-4</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
         </is>
       </c>
     </row>
@@ -5849,7 +7079,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>254–260</t>
+          <t>323–335</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5863,27 +7093,37 @@
         </is>
       </c>
       <c r="F118">
-        <v>1406</v>
+        <v>1639</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Xianting Ding</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00056-z</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
         </is>
       </c>
     </row>
@@ -5898,7 +7138,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>242–253</t>
+          <t>230–241</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5912,27 +7152,37 @@
         </is>
       </c>
       <c r="F119">
-        <v>2538</v>
+        <v>2075</v>
       </c>
       <c r="G119">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Hong Shu, Haojie Lu</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00050-5</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
         </is>
       </c>
     </row>
@@ -5940,6 +7190,16 @@
       <c r="A120">
         <v>2022</v>
       </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>184–193</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>2022-05</t>
@@ -5947,31 +7207,41 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F120">
-        <v>1648</v>
+        <v>4670</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Haomin Yang, Weimin Ye</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00054-1</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
         </is>
       </c>
     </row>
@@ -5986,41 +7256,51 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>156–183</t>
+          <t>254–260</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F121">
-        <v>6802</v>
+        <v>1416</v>
       </c>
       <c r="G121">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
+          <t>Yi Lu, Tianyu Zheng</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00053-2</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
         </is>
       </c>
     </row>
@@ -6035,12 +7315,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>201–210</t>
+          <t>242–253</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6049,27 +7329,37 @@
         </is>
       </c>
       <c r="F122">
-        <v>1503</v>
+        <v>2566</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
+          <t>Longman Li, Xiaobo Yang</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00052-3</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
         </is>
       </c>
     </row>
@@ -6077,48 +7367,48 @@
       <c r="A123">
         <v>2022</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>211–218</t>
-        </is>
-      </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F123">
-        <v>1383</v>
+        <v>1665</v>
       </c>
       <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
         <v>0</v>
       </c>
-      <c r="H123">
-        <v>2</v>
-      </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Li Jin</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00059-w</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Correction to: Welcome to the Phenomics Journal</t>
         </is>
       </c>
     </row>
@@ -6133,41 +7423,51 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>130–135</t>
+          <t>156–183</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F124">
-        <v>1400</v>
+        <v>6893</v>
       </c>
       <c r="G124">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Karansher S. Sandhu</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00048-z</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
         </is>
       </c>
     </row>
@@ -6182,41 +7482,51 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>102–118</t>
+          <t>201–210</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F125">
-        <v>2344</v>
+        <v>1515</v>
       </c>
       <c r="G125">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Yenan Yang</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00049-y</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
         </is>
       </c>
     </row>
@@ -6231,7 +7541,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>194–200</t>
+          <t>211–218</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6245,27 +7555,37 @@
         </is>
       </c>
       <c r="F126">
-        <v>2057</v>
+        <v>1393</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Feng Jiang</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00047-0</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
         </is>
       </c>
     </row>
@@ -6280,7 +7600,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>136–144</t>
+          <t>130–135</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6294,27 +7614,37 @@
         </is>
       </c>
       <c r="F127">
-        <v>1269</v>
+        <v>1409</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Feng Jiang</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00046-1</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
         </is>
       </c>
     </row>
@@ -6329,7 +7659,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1–17</t>
+          <t>102–118</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6343,27 +7673,37 @@
         </is>
       </c>
       <c r="F128">
-        <v>3708</v>
+        <v>2360</v>
       </c>
       <c r="G128">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H128">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00042-x</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
         </is>
       </c>
     </row>
@@ -6378,7 +7718,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>119–129</t>
+          <t>194–200</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6392,27 +7732,37 @@
         </is>
       </c>
       <c r="F129">
-        <v>1943</v>
+        <v>2079</v>
       </c>
       <c r="G129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00045-2</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in Drosophila melanogaster</t>
         </is>
       </c>
     </row>
@@ -6427,7 +7777,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>50–63</t>
+          <t>136–144</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6441,27 +7791,37 @@
         </is>
       </c>
       <c r="F130">
-        <v>3500</v>
+        <v>1278</v>
       </c>
       <c r="G130">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Yi Lu</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00040-z</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
         </is>
       </c>
     </row>
@@ -6476,7 +7836,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>88–101</t>
+          <t>1–17</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6490,27 +7850,37 @@
         </is>
       </c>
       <c r="F131">
-        <v>2552</v>
+        <v>3718</v>
       </c>
       <c r="G131">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H131">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Lingjun Li</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00036-9</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
         </is>
       </c>
     </row>
@@ -6525,12 +7895,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>64–71</t>
+          <t>119–129</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6539,27 +7909,37 @@
         </is>
       </c>
       <c r="F132">
-        <v>1544</v>
+        <v>1970</v>
       </c>
       <c r="G132">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Lin Li</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-022-00044-3</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
         </is>
       </c>
     </row>
@@ -6574,41 +7954,51 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>145–155</t>
+          <t>50–63</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F133">
-        <v>3650</v>
+        <v>3533</v>
       </c>
       <c r="G133">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H133">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t>Yandan Lin</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00039-6</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
         </is>
       </c>
     </row>
@@ -6623,12 +8013,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>18–32</t>
+          <t>88–101</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6637,27 +8027,37 @@
         </is>
       </c>
       <c r="F134">
-        <v>2795</v>
+        <v>2570</v>
       </c>
       <c r="G134">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Yang Du, Jie Tian</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00041-y</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
         </is>
       </c>
     </row>
@@ -6672,7 +8072,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>33–49</t>
+          <t>64–71</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6686,27 +8086,37 @@
         </is>
       </c>
       <c r="F135">
-        <v>2519</v>
+        <v>1560</v>
       </c>
       <c r="G135">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00038-7</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
         </is>
       </c>
     </row>
@@ -6714,6 +8124,16 @@
       <c r="A136">
         <v>2022</v>
       </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>145–155</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>2022-01</t>
@@ -6721,31 +8141,41 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="F136">
-        <v>1692</v>
+        <v>3667</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Martin Picard</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00037-8</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Why Do We Care More About Disease than Health?</t>
         </is>
       </c>
     </row>
@@ -6760,7 +8190,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>295–311</t>
+          <t>18–32</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6770,31 +8200,41 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F137">
-        <v>3183</v>
+        <v>2833</v>
       </c>
       <c r="G137">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H137">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
+          <t>Xianting Ding</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00032-z</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
         </is>
       </c>
     </row>
@@ -6809,7 +8249,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>272–281</t>
+          <t>33–49</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6819,86 +8259,96 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F138">
-        <v>4768</v>
+        <v>2545</v>
       </c>
       <c r="G138">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Jixi Li</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00034-x</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>2021</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>79–87</t>
-        </is>
+        <v>2022</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="F139">
-        <v>5550</v>
+        <v>1711</v>
       </c>
       <c r="G139">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Yun Chen, Zhixin Tian</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00035-w</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -6907,90 +8357,110 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>72–77</t>
+          <t>295–311</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F140">
-        <v>1646</v>
+        <v>3202</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Xingdong Chen</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00033-y</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>285–298</t>
+          <t>272–281</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F141">
-        <v>2326</v>
+        <v>4805</v>
       </c>
       <c r="G141">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H141">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00031-0</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
         </is>
       </c>
     </row>
@@ -7000,46 +8470,56 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>243–256</t>
+          <t>79–87</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F142">
-        <v>2498</v>
+        <v>5627</v>
       </c>
       <c r="G142">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00030-1</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
         </is>
       </c>
     </row>
@@ -7049,46 +8529,56 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>269–284</t>
+          <t>72–77</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="F143">
-        <v>2423</v>
+        <v>1657</v>
       </c>
       <c r="G143">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Wenhao Zhou</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00028-9</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
         </is>
       </c>
     </row>
@@ -7103,12 +8593,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>257–268</t>
+          <t>285–298</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7117,27 +8607,37 @@
         </is>
       </c>
       <c r="F144">
-        <v>2368</v>
+        <v>2339</v>
       </c>
       <c r="G144">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Yuguo Yu</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00027-w</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
         </is>
       </c>
     </row>
@@ -7152,7 +8652,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>199–210</t>
+          <t>243–256</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7166,27 +8666,37 @@
         </is>
       </c>
       <c r="F145">
-        <v>2404</v>
+        <v>2520</v>
       </c>
       <c r="G145">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00026-x</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
         </is>
       </c>
     </row>
@@ -7201,12 +8711,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>211–221</t>
+          <t>269–284</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7215,27 +8725,37 @@
         </is>
       </c>
       <c r="F146">
-        <v>2052</v>
+        <v>2439</v>
       </c>
       <c r="G146">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H146">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Yun Chen, Zhixin Tian</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00029-8</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
         </is>
       </c>
     </row>
@@ -7250,41 +8770,51 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>222–228</t>
+          <t>257–268</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F147">
-        <v>4999</v>
+        <v>2387</v>
       </c>
       <c r="G147">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H147">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Hongming Shan</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00025-y</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
         </is>
       </c>
     </row>
@@ -7299,41 +8829,51 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>229–241</t>
+          <t>199–210</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F148">
-        <v>2304</v>
+        <v>2432</v>
       </c>
       <c r="G148">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H148">
         <v>3</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00024-z</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
         </is>
       </c>
     </row>
@@ -7348,12 +8888,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>186–198</t>
+          <t>211–221</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7362,27 +8902,37 @@
         </is>
       </c>
       <c r="F149">
-        <v>2157</v>
+        <v>2068</v>
       </c>
       <c r="G149">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Xiaobo Yang</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00023-0</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
         </is>
       </c>
     </row>
@@ -7397,12 +8947,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>171–185</t>
+          <t>222–228</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7411,27 +8961,37 @@
         </is>
       </c>
       <c r="F150">
-        <v>2656</v>
+        <v>5054</v>
       </c>
       <c r="G150">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H150">
         <v>5</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Aijun Sun</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00017-y</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
         </is>
       </c>
     </row>
@@ -7446,12 +9006,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>151–170</t>
+          <t>229–241</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -7460,27 +9020,37 @@
         </is>
       </c>
       <c r="F151">
-        <v>5938</v>
+        <v>2321</v>
       </c>
       <c r="G151">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Jiangping Song</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00022-1</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
         </is>
       </c>
     </row>
@@ -7495,41 +9065,51 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>143–150</t>
+          <t>186–198</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F152">
-        <v>5379</v>
+        <v>2172</v>
       </c>
       <c r="G152">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H152">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00021-2</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
         </is>
       </c>
     </row>
@@ -7544,41 +9124,51 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>91–104</t>
+          <t>171–185</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F153">
-        <v>5208</v>
+        <v>2666</v>
       </c>
       <c r="G153">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Shanfeng Zhu</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00019-w</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
         </is>
       </c>
     </row>
@@ -7593,7 +9183,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>113–128</t>
+          <t>151–170</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7607,27 +9197,37 @@
         </is>
       </c>
       <c r="F154">
-        <v>5595</v>
+        <v>5991</v>
       </c>
       <c r="G154">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H154">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Chengyan Wang, He Wang</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00018-x</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
         </is>
       </c>
     </row>
@@ -7642,12 +9242,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>129–142</t>
+          <t>143–150</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7656,27 +9256,37 @@
         </is>
       </c>
       <c r="F155">
-        <v>4688</v>
+        <v>5409</v>
       </c>
       <c r="G155">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Jeremy K. Nicholson</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00020-3</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
         </is>
       </c>
     </row>
@@ -7691,12 +9301,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>105–112</t>
+          <t>91–104</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7705,27 +9315,37 @@
         </is>
       </c>
       <c r="F156">
-        <v>1756</v>
+        <v>5324</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Jia Rao, Hong Xu</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00014-1</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
         </is>
       </c>
     </row>
@@ -7740,41 +9360,51 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>73–89</t>
+          <t>113–128</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F157">
-        <v>2463</v>
+        <v>5640</v>
       </c>
       <c r="G157">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Xinhua Lin, Bing Zhao</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00015-0</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Defense of COVID-19 by Human Organoids</t>
         </is>
       </c>
     </row>
@@ -7789,41 +9419,51 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>62–72</t>
+          <t>129–142</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F158">
-        <v>4081</v>
+        <v>4733</v>
       </c>
       <c r="G158">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Jose Arturo Molina-Mora</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00016-z</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
         </is>
       </c>
     </row>
@@ -7838,41 +9478,51 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>31–53</t>
+          <t>105–112</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F159">
-        <v>6022</v>
+        <v>1766</v>
       </c>
       <c r="G159">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Xun Gu</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00013-2</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
         </is>
       </c>
     </row>
@@ -7887,12 +9537,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>54–61</t>
+          <t>73–89</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7901,27 +9551,37 @@
         </is>
       </c>
       <c r="F160">
-        <v>4956</v>
+        <v>2472</v>
       </c>
       <c r="G160">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H160">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00012-3</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
         </is>
       </c>
     </row>
@@ -7936,12 +9596,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>22–30</t>
+          <t>62–72</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7950,27 +9610,37 @@
         </is>
       </c>
       <c r="F161">
-        <v>6194</v>
+        <v>4112</v>
       </c>
       <c r="G161">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H161">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Shenghong Ju</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00011-4</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
         </is>
       </c>
     </row>
@@ -7985,41 +9655,51 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>15–21</t>
+          <t>31–53</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="F162">
-        <v>3090</v>
+        <v>6080</v>
       </c>
       <c r="G162">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Neelam R. Yadav</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-020-00007-6</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
         </is>
       </c>
     </row>
@@ -8034,12 +9714,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>3–14</t>
+          <t>54–61</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8048,27 +9728,37 @@
         </is>
       </c>
       <c r="F163">
-        <v>7978</v>
+        <v>5001</v>
       </c>
       <c r="G163">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H163">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>https://link.springer.com/article/10.1007/s43657-021-00010-5</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Wei Chen</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-021-00010-5</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
         </is>
       </c>
     </row>
@@ -8083,41 +9773,228 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1–2</t>
+          <t>22–30</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="F164">
-        <v>6695</v>
+        <v>6252</v>
       </c>
       <c r="G164">
         <v>15</v>
       </c>
       <c r="H164">
+        <v>12</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Gong Zhang, Jingjie Jin</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-020-00008-5</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>2021</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>15–21</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Correspondence</t>
+        </is>
+      </c>
+      <c r="F165">
+        <v>3100</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-020-00006-7</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>2021</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>3–14</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="F166">
+        <v>8033</v>
+      </c>
+      <c r="G166">
+        <v>6</v>
+      </c>
+      <c r="H166">
+        <v>15</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Jiucun Wang, Li Jin</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-020-00005-8</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>2021</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1–2</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Editorial</t>
+        </is>
+      </c>
+      <c r="F167">
+        <v>6743</v>
+      </c>
+      <c r="G167">
+        <v>16</v>
+      </c>
+      <c r="H167">
         <v>7</v>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>https://link.springer.com/article/10.1007/s43657-020-00009-4</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>Li Jin</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>10.1007/s43657-020-00009-4</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Welcome to the Phenomics Journal</t>
         </is>
       </c>
     </row>

--- a/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
+++ b/Weekly_Figures/all_Phenomics_paper_metrics.xlsx
@@ -439,7 +439,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="F6">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="F9">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="F11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="F12">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="F13">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="F14">
-        <v>1283</v>
+        <v>1373</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="F15">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="F16">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="F17">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="F18">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="F19">
-        <v>345</v>
+        <v>418</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="F20">
-        <v>705</v>
+        <v>802</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="F21">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="F22">
-        <v>853</v>
+        <v>924</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="F23">
-        <v>912</v>
+        <v>1039</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="F24">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="F25">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="F26">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="F27">
-        <v>1026</v>
+        <v>1075</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="F28">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F29">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="F30">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="F31">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         </is>
       </c>
       <c r="F32">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="F33">
-        <v>893</v>
+        <v>964</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="F34">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="F35">
-        <v>721</v>
+        <v>765</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="F36">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="F37">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2413,13 +2413,13 @@
         </is>
       </c>
       <c r="F38">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="F39">
-        <v>1080</v>
+        <v>1135</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="F40">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="F41">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="F42">
-        <v>2699</v>
+        <v>2778</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="F43">
-        <v>1057</v>
+        <v>1079</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="F44">
-        <v>1339</v>
+        <v>1371</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="F45">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="F46">
-        <v>2482</v>
+        <v>2554</v>
       </c>
       <c r="G46">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="F47">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="F48">
-        <v>976</v>
+        <v>1003</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="F49">
-        <v>2736</v>
+        <v>2838</v>
       </c>
       <c r="G49">
         <v>6</v>
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="F50">
-        <v>1367</v>
+        <v>1408</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="F51">
-        <v>1021</v>
+        <v>1040</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="F52">
-        <v>904</v>
+        <v>936</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="F53">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="F54">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="F55">
-        <v>1111</v>
+        <v>1129</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="F56">
-        <v>2585</v>
+        <v>2645</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="F57">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="F58">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="F59">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="F60">
-        <v>1820</v>
+        <v>1907</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="F61">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="F62">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="G62">
         <v>5</v>
@@ -3868,7 +3868,7 @@
         </is>
       </c>
       <c r="F63">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="G63">
         <v>3</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="F64">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="F65">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="F66">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="F67">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="F68">
-        <v>2209</v>
+        <v>2235</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="F69">
-        <v>2884</v>
+        <v>2939</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="F70">
-        <v>2356</v>
+        <v>2394</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="F71">
-        <v>5591</v>
+        <v>5672</v>
       </c>
       <c r="G71">
         <v>9</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="F72">
-        <v>823</v>
+        <v>845</v>
       </c>
       <c r="G72">
         <v>11</v>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="F73">
-        <v>3127</v>
+        <v>3188</v>
       </c>
       <c r="G73">
         <v>9</v>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="F74">
-        <v>928</v>
+        <v>941</v>
       </c>
       <c r="G74">
         <v>4</v>
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="F75">
-        <v>4754</v>
+        <v>4853</v>
       </c>
       <c r="G75">
         <v>22</v>
@@ -4625,7 +4625,7 @@
         </is>
       </c>
       <c r="F76">
-        <v>4433</v>
+        <v>4469</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="F77">
-        <v>1553</v>
+        <v>1564</v>
       </c>
       <c r="G77">
         <v>10</v>
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="F78">
-        <v>894</v>
+        <v>915</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="F79">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="F80">
-        <v>1872</v>
+        <v>1889</v>
       </c>
       <c r="G80">
         <v>14</v>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="F81">
-        <v>8407</v>
+        <v>8483</v>
       </c>
       <c r="G81">
         <v>8</v>
@@ -4979,7 +4979,7 @@
         </is>
       </c>
       <c r="F82">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="F83">
-        <v>1193</v>
+        <v>1200</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="F84">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="G84">
         <v>5</v>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="F85">
-        <v>4877</v>
+        <v>4937</v>
       </c>
       <c r="G85">
         <v>32</v>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="F86">
-        <v>1439</v>
+        <v>1446</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="F87">
-        <v>1487</v>
+        <v>1496</v>
       </c>
       <c r="G87">
         <v>8</v>
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="F88">
-        <v>1810</v>
+        <v>1824</v>
       </c>
       <c r="G88">
         <v>11</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F89">
-        <v>1389</v>
+        <v>1401</v>
       </c>
       <c r="G89">
         <v>10</v>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="F90">
-        <v>1478</v>
+        <v>1487</v>
       </c>
       <c r="G90">
         <v>5</v>
@@ -5510,7 +5510,7 @@
         </is>
       </c>
       <c r="F91">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         </is>
       </c>
       <c r="F92">
-        <v>1490</v>
+        <v>1497</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="F93">
-        <v>3832</v>
+        <v>3869</v>
       </c>
       <c r="G93">
         <v>9</v>
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="F94">
-        <v>4656</v>
+        <v>4690</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -5736,7 +5736,7 @@
         </is>
       </c>
       <c r="F95">
-        <v>1946</v>
+        <v>1964</v>
       </c>
       <c r="G95">
         <v>8</v>
@@ -5795,7 +5795,7 @@
         </is>
       </c>
       <c r="F96">
-        <v>1619</v>
+        <v>1627</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="F97">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -5913,7 +5913,7 @@
         </is>
       </c>
       <c r="F98">
-        <v>3985</v>
+        <v>4026</v>
       </c>
       <c r="G98">
         <v>9</v>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="F99">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="G99">
         <v>7</v>
@@ -6090,7 +6090,7 @@
         </is>
       </c>
       <c r="F101">
-        <v>2264</v>
+        <v>2277</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="F102">
-        <v>1996</v>
+        <v>2025</v>
       </c>
       <c r="G102">
         <v>20</v>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="F103">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="F104">
-        <v>6135</v>
+        <v>6196</v>
       </c>
       <c r="G104">
         <v>25</v>
@@ -6326,7 +6326,7 @@
         </is>
       </c>
       <c r="F105">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="F106">
-        <v>1363</v>
+        <v>1371</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="F107">
-        <v>3165</v>
+        <v>3190</v>
       </c>
       <c r="G107">
         <v>9</v>
@@ -6503,7 +6503,7 @@
         </is>
       </c>
       <c r="F108">
-        <v>4200</v>
+        <v>4211</v>
       </c>
       <c r="G108">
         <v>6</v>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="F109">
-        <v>1769</v>
+        <v>1776</v>
       </c>
       <c r="G109">
         <v>5</v>
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="F110">
-        <v>3631</v>
+        <v>3655</v>
       </c>
       <c r="G110">
         <v>17</v>
@@ -6680,7 +6680,7 @@
         </is>
       </c>
       <c r="F111">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="G111">
         <v>5</v>
@@ -6739,7 +6739,7 @@
         </is>
       </c>
       <c r="F112">
-        <v>2093</v>
+        <v>2112</v>
       </c>
       <c r="G112">
         <v>7</v>
@@ -6798,7 +6798,7 @@
         </is>
       </c>
       <c r="F113">
-        <v>2348</v>
+        <v>2362</v>
       </c>
       <c r="G113">
         <v>8</v>
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="F114">
-        <v>3070</v>
+        <v>3091</v>
       </c>
       <c r="G114">
         <v>17</v>
@@ -6916,7 +6916,7 @@
         </is>
       </c>
       <c r="F115">
-        <v>1719</v>
+        <v>1725</v>
       </c>
       <c r="G115">
         <v>6</v>
@@ -6975,7 +6975,7 @@
         </is>
       </c>
       <c r="F116">
-        <v>2626</v>
+        <v>2644</v>
       </c>
       <c r="G116">
         <v>18</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="F117">
-        <v>2061</v>
+        <v>2069</v>
       </c>
       <c r="G117">
         <v>5</v>
@@ -7093,7 +7093,7 @@
         </is>
       </c>
       <c r="F118">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="G118">
         <v>6</v>
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="F119">
-        <v>2075</v>
+        <v>2085</v>
       </c>
       <c r="G119">
         <v>13</v>
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="F120">
-        <v>4670</v>
+        <v>4719</v>
       </c>
       <c r="G120">
         <v>14</v>
@@ -7270,7 +7270,7 @@
         </is>
       </c>
       <c r="F121">
-        <v>1416</v>
+        <v>1423</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -7329,7 +7329,7 @@
         </is>
       </c>
       <c r="F122">
-        <v>2566</v>
+        <v>2601</v>
       </c>
       <c r="G122">
         <v>5</v>
@@ -7378,7 +7378,7 @@
         </is>
       </c>
       <c r="F123">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -7437,10 +7437,10 @@
         </is>
       </c>
       <c r="F124">
-        <v>6893</v>
+        <v>6988</v>
       </c>
       <c r="G124">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H124">
         <v>11</v>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="F125">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="F126">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         </is>
       </c>
       <c r="F127">
-        <v>1409</v>
+        <v>1415</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -7673,7 +7673,7 @@
         </is>
       </c>
       <c r="F128">
-        <v>2360</v>
+        <v>2370</v>
       </c>
       <c r="G128">
         <v>11</v>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="F129">
-        <v>2079</v>
+        <v>2088</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -7791,7 +7791,7 @@
         </is>
       </c>
       <c r="F130">
-        <v>1278</v>
+        <v>1283</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="F131">
-        <v>3718</v>
+        <v>3723</v>
       </c>
       <c r="G131">
         <v>13</v>
@@ -7909,7 +7909,7 @@
         </is>
       </c>
       <c r="F132">
-        <v>1970</v>
+        <v>1985</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="F133">
-        <v>3533</v>
+        <v>3560</v>
       </c>
       <c r="G133">
         <v>8</v>
@@ -8027,13 +8027,13 @@
         </is>
       </c>
       <c r="F134">
-        <v>2570</v>
+        <v>2584</v>
       </c>
       <c r="G134">
         <v>12</v>
       </c>
       <c r="H134">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="F135">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="G135">
         <v>5</v>
@@ -8145,10 +8145,10 @@
         </is>
       </c>
       <c r="F136">
-        <v>3667</v>
+        <v>3671</v>
       </c>
       <c r="G136">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>39</v>
@@ -8204,7 +8204,7 @@
         </is>
       </c>
       <c r="F137">
-        <v>2833</v>
+        <v>2865</v>
       </c>
       <c r="G137">
         <v>17</v>
@@ -8263,7 +8263,7 @@
         </is>
       </c>
       <c r="F138">
-        <v>2545</v>
+        <v>2569</v>
       </c>
       <c r="G138">
         <v>7</v>
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="F139">
-        <v>1711</v>
+        <v>1720</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="F140">
-        <v>3202</v>
+        <v>3222</v>
       </c>
       <c r="G140">
         <v>12</v>
@@ -8430,7 +8430,7 @@
         </is>
       </c>
       <c r="F141">
-        <v>4805</v>
+        <v>4858</v>
       </c>
       <c r="G141">
         <v>7</v>
@@ -8489,7 +8489,7 @@
         </is>
       </c>
       <c r="F142">
-        <v>5627</v>
+        <v>5690</v>
       </c>
       <c r="G142">
         <v>7</v>
@@ -8548,7 +8548,7 @@
         </is>
       </c>
       <c r="F143">
-        <v>1657</v>
+        <v>1662</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="F144">
-        <v>2339</v>
+        <v>2344</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="F145">
-        <v>2520</v>
+        <v>2531</v>
       </c>
       <c r="G145">
         <v>16</v>
@@ -8725,7 +8725,7 @@
         </is>
       </c>
       <c r="F146">
-        <v>2439</v>
+        <v>2457</v>
       </c>
       <c r="G146">
         <v>9</v>
@@ -8784,7 +8784,7 @@
         </is>
       </c>
       <c r="F147">
-        <v>2387</v>
+        <v>2392</v>
       </c>
       <c r="G147">
         <v>19</v>
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="F148">
-        <v>2432</v>
+        <v>2440</v>
       </c>
       <c r="G148">
         <v>6</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F149">
-        <v>2068</v>
+        <v>2076</v>
       </c>
       <c r="G149">
         <v>9</v>
@@ -8961,7 +8961,7 @@
         </is>
       </c>
       <c r="F150">
-        <v>5054</v>
+        <v>5075</v>
       </c>
       <c r="G150">
         <v>8</v>
@@ -9020,7 +9020,7 @@
         </is>
       </c>
       <c r="F151">
-        <v>2321</v>
+        <v>2337</v>
       </c>
       <c r="G151">
         <v>17</v>
@@ -9079,10 +9079,10 @@
         </is>
       </c>
       <c r="F152">
-        <v>2172</v>
+        <v>2185</v>
       </c>
       <c r="G152">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -9138,7 +9138,7 @@
         </is>
       </c>
       <c r="F153">
-        <v>2666</v>
+        <v>2671</v>
       </c>
       <c r="G153">
         <v>9</v>
@@ -9197,7 +9197,7 @@
         </is>
       </c>
       <c r="F154">
-        <v>5991</v>
+        <v>6014</v>
       </c>
       <c r="G154">
         <v>21</v>
@@ -9256,7 +9256,7 @@
         </is>
       </c>
       <c r="F155">
-        <v>5409</v>
+        <v>5426</v>
       </c>
       <c r="G155">
         <v>18</v>
@@ -9315,7 +9315,7 @@
         </is>
       </c>
       <c r="F156">
-        <v>5324</v>
+        <v>5375</v>
       </c>
       <c r="G156">
         <v>10</v>
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="F157">
-        <v>5640</v>
+        <v>5660</v>
       </c>
       <c r="G157">
         <v>11</v>
@@ -9433,7 +9433,7 @@
         </is>
       </c>
       <c r="F158">
-        <v>4733</v>
+        <v>4749</v>
       </c>
       <c r="G158">
         <v>12</v>
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="F159">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -9551,7 +9551,7 @@
         </is>
       </c>
       <c r="F160">
-        <v>2472</v>
+        <v>2477</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -9610,7 +9610,7 @@
         </is>
       </c>
       <c r="F161">
-        <v>4112</v>
+        <v>4132</v>
       </c>
       <c r="G161">
         <v>6</v>
@@ -9669,7 +9669,7 @@
         </is>
       </c>
       <c r="F162">
-        <v>6080</v>
+        <v>6125</v>
       </c>
       <c r="G162">
         <v>45</v>
@@ -9728,7 +9728,7 @@
         </is>
       </c>
       <c r="F163">
-        <v>5001</v>
+        <v>5031</v>
       </c>
       <c r="G163">
         <v>5</v>
@@ -9787,7 +9787,7 @@
         </is>
       </c>
       <c r="F164">
-        <v>6252</v>
+        <v>6274</v>
       </c>
       <c r="G164">
         <v>15</v>
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="F165">
-        <v>3100</v>
+        <v>3110</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -9905,10 +9905,10 @@
         </is>
       </c>
       <c r="F166">
-        <v>8033</v>
+        <v>8064</v>
       </c>
       <c r="G166">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H166">
         <v>15</v>
@@ -9964,10 +9964,10 @@
         </is>
       </c>
       <c r="F167">
-        <v>6743</v>
+        <v>6775</v>
       </c>
       <c r="G167">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H167">
         <v>7</v>
